--- a/Prototypes/Plantain/Observed.xlsx
+++ b/Prototypes/Plantain/Observed.xlsx
@@ -839,10 +839,10 @@
   <dimension ref="A1:AI1541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F1387" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1416" sqref="C1416:C1433"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,7 +1508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>166.8</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>95</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>142.69999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>95</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>50</v>
       </c>
@@ -1701,17 +1701,14 @@
       <c r="Z42">
         <v>15.215</v>
       </c>
+      <c r="AA42">
+        <v>2.4344000000000001E-2</v>
+      </c>
       <c r="AB42">
         <v>12.472799999999999</v>
       </c>
-      <c r="AD42">
-        <v>6.16</v>
-      </c>
-      <c r="AE42">
-        <v>0.17706505295007566</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>48</v>
       </c>
@@ -1751,17 +1748,14 @@
       <c r="Z43">
         <v>18.457000000000001</v>
       </c>
+      <c r="AA43">
+        <v>2.9531200000000001E-2</v>
+      </c>
       <c r="AB43">
         <v>12.148960000000001</v>
       </c>
-      <c r="AD43">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="AE43">
-        <v>0.19847417840375586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>49</v>
       </c>
@@ -1801,17 +1795,14 @@
       <c r="Z44">
         <v>19.117999999999999</v>
       </c>
+      <c r="AA44">
+        <v>3.0588799999999999E-2</v>
+      </c>
       <c r="AB44">
         <v>12.784000000000001</v>
       </c>
-      <c r="AD44">
-        <v>9.98</v>
-      </c>
-      <c r="AE44">
-        <v>0.16451500954364046</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>52</v>
       </c>
@@ -1851,17 +1842,14 @@
       <c r="Z45">
         <v>16.791</v>
       </c>
+      <c r="AA45">
+        <v>2.68656E-2</v>
+      </c>
       <c r="AB45">
         <v>12.42048</v>
       </c>
-      <c r="AD45">
-        <v>8.58</v>
-      </c>
-      <c r="AE45">
-        <v>0.14395973154362415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>53</v>
       </c>
@@ -1901,17 +1889,14 @@
       <c r="Z46">
         <v>14.102</v>
       </c>
+      <c r="AA46">
+        <v>2.2563200000000002E-2</v>
+      </c>
       <c r="AB46">
         <v>11.74544</v>
       </c>
-      <c r="AD46">
-        <v>10.69</v>
-      </c>
-      <c r="AE46">
-        <v>0.18789084181313598</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>51</v>
       </c>
@@ -1951,17 +1936,14 @@
       <c r="Z47">
         <v>16.286000000000001</v>
       </c>
+      <c r="AA47">
+        <v>2.60576E-2</v>
+      </c>
       <c r="AB47">
         <v>11.745920000000002</v>
       </c>
-      <c r="AD47">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="AE47">
-        <v>0.14691090600866455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>49</v>
       </c>
@@ -2001,17 +1983,14 @@
       <c r="Z48">
         <v>17.260000000000002</v>
       </c>
+      <c r="AA48">
+        <v>2.7616000000000002E-2</v>
+      </c>
       <c r="AB48">
         <v>12.249120000000001</v>
       </c>
-      <c r="AD48">
-        <v>7.9</v>
-      </c>
-      <c r="AE48">
-        <v>0.2560559535994541</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>53</v>
       </c>
@@ -2033,14 +2012,8 @@
       <c r="G49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD49">
-        <v>9.59</v>
-      </c>
-      <c r="AE49">
-        <v>0.14647106109324759</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>52</v>
       </c>
@@ -2080,17 +2053,14 @@
       <c r="Z50">
         <v>16.876000000000001</v>
       </c>
+      <c r="AA50">
+        <v>2.7001600000000004E-2</v>
+      </c>
       <c r="AB50">
         <v>12.4224</v>
       </c>
-      <c r="AD50">
-        <v>15.53</v>
-      </c>
-      <c r="AE50">
-        <v>0.14501179477098486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>51</v>
       </c>
@@ -2130,17 +2100,14 @@
       <c r="Z51">
         <v>15.081</v>
       </c>
+      <c r="AA51">
+        <v>2.4129600000000001E-2</v>
+      </c>
       <c r="AB51">
         <v>12.203520000000001</v>
       </c>
-      <c r="AD51">
-        <v>11.42</v>
-      </c>
-      <c r="AE51">
-        <v>0.12753026919007876</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>48</v>
       </c>
@@ -2180,17 +2147,14 @@
       <c r="Z52">
         <v>15.233000000000001</v>
       </c>
+      <c r="AA52">
+        <v>2.43728E-2</v>
+      </c>
       <c r="AB52">
         <v>12.388800000000002</v>
       </c>
-      <c r="AD52">
-        <v>10.3</v>
-      </c>
-      <c r="AE52">
-        <v>0.12929439746300209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>50</v>
       </c>
@@ -2230,17 +2194,14 @@
       <c r="Z53">
         <v>13.051</v>
       </c>
+      <c r="AA53">
+        <v>2.0881600000000004E-2</v>
+      </c>
       <c r="AB53">
         <v>12.15264</v>
       </c>
-      <c r="AD53">
-        <v>10.54</v>
-      </c>
-      <c r="AE53">
-        <v>0.14347327697377843</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>53</v>
       </c>
@@ -2280,17 +2241,14 @@
       <c r="Z54">
         <v>13.247999999999999</v>
       </c>
+      <c r="AA54">
+        <v>2.1196799999999998E-2</v>
+      </c>
       <c r="AB54">
         <v>12.38528</v>
       </c>
-      <c r="AD54">
-        <v>6.93</v>
-      </c>
-      <c r="AE54">
-        <v>0.18772455089820358</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -2330,17 +2288,14 @@
       <c r="Z55">
         <v>12.942</v>
       </c>
+      <c r="AA55">
+        <v>2.0707200000000002E-2</v>
+      </c>
       <c r="AB55">
         <v>12.02256</v>
       </c>
-      <c r="AD55">
-        <v>5.84</v>
-      </c>
-      <c r="AE55">
-        <v>0.25391304347826082</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>52</v>
       </c>
@@ -2380,17 +2335,14 @@
       <c r="Z56">
         <v>16.626999999999999</v>
       </c>
+      <c r="AA56">
+        <v>2.66032E-2</v>
+      </c>
       <c r="AB56">
         <v>12.050879999999999</v>
       </c>
-      <c r="AD56">
-        <v>10.37</v>
-      </c>
-      <c r="AE56">
-        <v>0.15273643410852711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>48</v>
       </c>
@@ -2430,17 +2382,14 @@
       <c r="Z57">
         <v>15.851000000000001</v>
       </c>
+      <c r="AA57">
+        <v>2.5361600000000002E-2</v>
+      </c>
       <c r="AB57">
         <v>12.365440000000001</v>
       </c>
-      <c r="AD57">
-        <v>11.99</v>
-      </c>
-      <c r="AE57">
-        <v>0.14991445117136087</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>49</v>
       </c>
@@ -2480,17 +2429,14 @@
       <c r="Z58">
         <v>18.178000000000001</v>
       </c>
+      <c r="AA58">
+        <v>2.9084800000000001E-2</v>
+      </c>
       <c r="AB58">
         <v>12.660319999999999</v>
       </c>
-      <c r="AD58">
-        <v>10.35</v>
-      </c>
-      <c r="AE58">
-        <v>0.13434212324087991</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>51</v>
       </c>
@@ -2530,17 +2476,14 @@
       <c r="Z59">
         <v>13.529</v>
       </c>
+      <c r="AA59">
+        <v>2.16464E-2</v>
+      </c>
       <c r="AB59">
         <v>11.908479999999999</v>
       </c>
-      <c r="AD59">
-        <v>10.74</v>
-      </c>
-      <c r="AE59">
-        <v>0.14168865435356201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>52</v>
       </c>
@@ -2580,17 +2523,14 @@
       <c r="Z60">
         <v>16.468</v>
       </c>
+      <c r="AA60">
+        <v>2.6348799999999999E-2</v>
+      </c>
       <c r="AB60">
         <v>12.376479999999999</v>
       </c>
-      <c r="AD60">
-        <v>8.64</v>
-      </c>
-      <c r="AE60">
-        <v>0.21127413127413128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>53</v>
       </c>
@@ -2630,17 +2570,14 @@
       <c r="Z61">
         <v>13.157999999999999</v>
       </c>
+      <c r="AA61">
+        <v>2.10528E-2</v>
+      </c>
       <c r="AB61">
         <v>11.8832</v>
       </c>
-      <c r="AD61">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="AE61">
-        <v>0.17138413685847587</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>49</v>
       </c>
@@ -2680,17 +2617,14 @@
       <c r="Z62">
         <v>17.890999999999998</v>
       </c>
+      <c r="AA62">
+        <v>2.8625599999999998E-2</v>
+      </c>
       <c r="AB62">
         <v>12.32368</v>
       </c>
-      <c r="AD62">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="AE62">
-        <v>0.23216614344361264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>51</v>
       </c>
@@ -2730,17 +2664,14 @@
       <c r="Z63">
         <v>13.53</v>
       </c>
+      <c r="AA63">
+        <v>2.1648000000000001E-2</v>
+      </c>
       <c r="AB63">
         <v>12.19712</v>
       </c>
-      <c r="AD63">
-        <v>12.19</v>
-      </c>
-      <c r="AE63">
-        <v>0.19877274287675933</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>48</v>
       </c>
@@ -2780,17 +2711,14 @@
       <c r="Z64">
         <v>15.214</v>
       </c>
+      <c r="AA64">
+        <v>2.43424E-2</v>
+      </c>
       <c r="AB64">
         <v>12.414239999999999</v>
       </c>
-      <c r="AD64">
-        <v>12.26</v>
-      </c>
-      <c r="AE64">
-        <v>0.19974275424455495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>50</v>
       </c>
@@ -2830,17 +2758,14 @@
       <c r="Z65">
         <v>11.891999999999999</v>
       </c>
+      <c r="AA65">
+        <v>1.9027200000000001E-2</v>
+      </c>
       <c r="AB65">
         <v>12.132000000000001</v>
       </c>
-      <c r="AD65">
-        <v>8.77</v>
-      </c>
-      <c r="AE65">
-        <v>0.20627630601634064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>50</v>
       </c>
@@ -2889,14 +2814,8 @@
       <c r="AB66">
         <v>11.044320000000001</v>
       </c>
-      <c r="AD66">
-        <v>20.36</v>
-      </c>
-      <c r="AE66">
-        <v>0.17447716291366577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>48</v>
       </c>
@@ -2945,14 +2864,8 @@
       <c r="AB67">
         <v>11.37664</v>
       </c>
-      <c r="AD67">
-        <v>18.53</v>
-      </c>
-      <c r="AE67">
-        <v>0.14630995380092399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>49</v>
       </c>
@@ -3001,14 +2914,8 @@
       <c r="AB68">
         <v>11.84624</v>
       </c>
-      <c r="AD68">
-        <v>18.25</v>
-      </c>
-      <c r="AE68">
-        <v>0.20321013977730393</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>52</v>
       </c>
@@ -3057,14 +2964,8 @@
       <c r="AB69">
         <v>12.067360000000001</v>
       </c>
-      <c r="AD69">
-        <v>18.68</v>
-      </c>
-      <c r="AE69">
-        <v>0.18591000529380622</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>53</v>
       </c>
@@ -3113,14 +3014,8 @@
       <c r="AB70">
         <v>11.72528</v>
       </c>
-      <c r="AD70">
-        <v>19.04</v>
-      </c>
-      <c r="AE70">
-        <v>0.18415063278115029</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>51</v>
       </c>
@@ -3169,14 +3064,8 @@
       <c r="AB71">
         <v>11.94608</v>
       </c>
-      <c r="AD71">
-        <v>15.62</v>
-      </c>
-      <c r="AE71">
-        <v>0.1960844017094017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>49</v>
       </c>
@@ -3225,14 +3114,8 @@
       <c r="AB72">
         <v>12.237120000000001</v>
       </c>
-      <c r="AD72">
-        <v>17.57</v>
-      </c>
-      <c r="AE72">
-        <v>0.13996440677966102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>53</v>
       </c>
@@ -3281,14 +3164,8 @@
       <c r="AB73">
         <v>11.699359999999999</v>
       </c>
-      <c r="AD73">
-        <v>12.84</v>
-      </c>
-      <c r="AE73">
-        <v>0.18426870229007633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
@@ -3337,14 +3214,8 @@
       <c r="AB74">
         <v>11.956</v>
       </c>
-      <c r="AD74">
-        <v>13.76</v>
-      </c>
-      <c r="AE74">
-        <v>0.14782171428571428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>51</v>
       </c>
@@ -3393,14 +3264,8 @@
       <c r="AB75">
         <v>11.458879999999999</v>
       </c>
-      <c r="AD75">
-        <v>16.59</v>
-      </c>
-      <c r="AE75">
-        <v>0.15288823529411766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>48</v>
       </c>
@@ -3449,14 +3314,8 @@
       <c r="AB76">
         <v>11.522880000000001</v>
       </c>
-      <c r="AD76">
-        <v>15.45</v>
-      </c>
-      <c r="AE76">
-        <v>0.17907521578298397</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>50</v>
       </c>
@@ -3505,14 +3364,8 @@
       <c r="AB77">
         <v>10.870719999999999</v>
       </c>
-      <c r="AD77">
-        <v>12.72</v>
-      </c>
-      <c r="AE77">
-        <v>0.18116363636363636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>53</v>
       </c>
@@ -3561,14 +3414,8 @@
       <c r="AB78">
         <v>11.744480000000001</v>
       </c>
-      <c r="AD78">
-        <v>17.05</v>
-      </c>
-      <c r="AE78">
-        <v>0.22656205824144757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>50</v>
       </c>
@@ -3617,14 +3464,8 @@
       <c r="AB79">
         <v>11.41568</v>
       </c>
-      <c r="AD79">
-        <v>15.42</v>
-      </c>
-      <c r="AE79">
-        <v>0.21416666666666664</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>52</v>
       </c>
@@ -3673,14 +3514,8 @@
       <c r="AB80">
         <v>12.180160000000001</v>
       </c>
-      <c r="AD80">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="AE80">
-        <v>0.19385980041887393</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>48</v>
       </c>
@@ -3729,14 +3564,8 @@
       <c r="AB81">
         <v>12.144000000000002</v>
       </c>
-      <c r="AD81">
-        <v>17.03</v>
-      </c>
-      <c r="AE81">
-        <v>0.1625197969543147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>49</v>
       </c>
@@ -3785,14 +3614,8 @@
       <c r="AB82">
         <v>11.929919999999999</v>
       </c>
-      <c r="AD82">
-        <v>16.34</v>
-      </c>
-      <c r="AE82">
-        <v>0.15424382406105641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>51</v>
       </c>
@@ -3841,14 +3664,8 @@
       <c r="AB83">
         <v>11.538879999999999</v>
       </c>
-      <c r="AD83">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="AE83">
-        <v>0.16223689557090612</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>52</v>
       </c>
@@ -3897,14 +3714,8 @@
       <c r="AB84">
         <v>12.153119999999999</v>
       </c>
-      <c r="AD84">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="AE84">
-        <v>0.18964551422319473</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>53</v>
       </c>
@@ -3929,14 +3740,8 @@
       <c r="J85">
         <v>48.90166818319684</v>
       </c>
-      <c r="AD85">
-        <v>18.43</v>
-      </c>
-      <c r="AE85">
-        <v>0.20381411764705881</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>49</v>
       </c>
@@ -3985,14 +3790,8 @@
       <c r="AB86">
         <v>12.69664</v>
       </c>
-      <c r="AD86">
-        <v>19.73</v>
-      </c>
-      <c r="AE86">
-        <v>0.19942150537634409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>51</v>
       </c>
@@ -4041,14 +3840,8 @@
       <c r="AB87">
         <v>12.002880000000001</v>
       </c>
-      <c r="AD87">
-        <v>16.22</v>
-      </c>
-      <c r="AE87">
-        <v>0.1686592920353982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>48</v>
       </c>
@@ -4097,14 +3890,8 @@
       <c r="AB88">
         <v>12.089120000000001</v>
       </c>
-      <c r="AD88">
-        <v>19.23</v>
-      </c>
-      <c r="AE88">
-        <v>0.27513242009132416</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>50</v>
       </c>
@@ -4144,17 +3931,14 @@
       <c r="Z89">
         <v>10.224</v>
       </c>
+      <c r="AA89">
+        <v>1.6358399999999999E-2</v>
+      </c>
       <c r="AB89">
         <v>9.7110400000000006</v>
       </c>
-      <c r="AD89">
-        <v>19.27</v>
-      </c>
-      <c r="AE89">
-        <v>0.22373764822134387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>50</v>
       </c>
@@ -4203,14 +3987,8 @@
       <c r="AB90">
         <v>10.716479999999999</v>
       </c>
-      <c r="AD90">
-        <v>18.73</v>
-      </c>
-      <c r="AE90">
-        <v>0.15805907172995781</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>48</v>
       </c>
@@ -4259,14 +4037,8 @@
       <c r="AB91">
         <v>11.40272</v>
       </c>
-      <c r="AD91">
-        <v>15.93</v>
-      </c>
-      <c r="AE91">
-        <v>0.13372209323093409</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>49</v>
       </c>
@@ -4291,14 +4063,8 @@
       <c r="J92">
         <v>166.71480017566972</v>
       </c>
-      <c r="AD92">
-        <v>16.149999999999999</v>
-      </c>
-      <c r="AE92">
-        <v>0.18615573267933783</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>52</v>
       </c>
@@ -4347,14 +4113,8 @@
       <c r="AB93">
         <v>11.687360000000002</v>
       </c>
-      <c r="AD93">
-        <v>16.22</v>
-      </c>
-      <c r="AE93">
-        <v>0.16161543353826582</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>53</v>
       </c>
@@ -4379,14 +4139,8 @@
       <c r="J94">
         <v>46.029838544859999</v>
       </c>
-      <c r="AD94">
-        <v>20.93</v>
-      </c>
-      <c r="AE94">
-        <v>0.10428389695748966</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>51</v>
       </c>
@@ -4435,14 +4189,8 @@
       <c r="AB95">
         <v>8.0660799999999995</v>
       </c>
-      <c r="AD95">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="AE95">
-        <v>0.16108793456032722</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>49</v>
       </c>
@@ -4467,14 +4215,8 @@
       <c r="J96">
         <v>194.30847723704863</v>
       </c>
-      <c r="AD96">
-        <v>13.13</v>
-      </c>
-      <c r="AE96">
-        <v>0.17047237569060772</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>53</v>
       </c>
@@ -4499,14 +4241,8 @@
       <c r="J97">
         <v>60.187407087709218</v>
       </c>
-      <c r="AD97">
-        <v>13.79</v>
-      </c>
-      <c r="AE97">
-        <v>0.16968974996727318</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>52</v>
       </c>
@@ -4555,14 +4291,8 @@
       <c r="AB98">
         <v>11.279359999999999</v>
       </c>
-      <c r="AD98">
-        <v>14.6</v>
-      </c>
-      <c r="AE98">
-        <v>0.15948866937826844</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>51</v>
       </c>
@@ -4611,14 +4341,8 @@
       <c r="AB99">
         <v>10.62656</v>
       </c>
-      <c r="AD99">
-        <v>13</v>
-      </c>
-      <c r="AE99">
-        <v>0.16864476952801546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>48</v>
       </c>
@@ -4667,14 +4391,8 @@
       <c r="AB100">
         <v>10.831679999999999</v>
       </c>
-      <c r="AD100">
-        <v>13.16</v>
-      </c>
-      <c r="AE100">
-        <v>0.1933781460059403</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>50</v>
       </c>
@@ -4723,14 +4441,8 @@
       <c r="AB101">
         <v>9.8067200000000003</v>
       </c>
-      <c r="AD101">
-        <v>16.22</v>
-      </c>
-      <c r="AE101">
-        <v>0.15597749360613811</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>53</v>
       </c>
@@ -4779,14 +4491,8 @@
       <c r="AB102">
         <v>11.173599999999999</v>
       </c>
-      <c r="AD102">
-        <v>14.46</v>
-      </c>
-      <c r="AE102">
-        <v>0.18599343185550082</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>50</v>
       </c>
@@ -4835,14 +4541,8 @@
       <c r="AB103">
         <v>11.20528</v>
       </c>
-      <c r="AD103">
-        <v>14.44</v>
-      </c>
-      <c r="AE103">
-        <v>0.13857682491066869</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>52</v>
       </c>
@@ -4891,14 +4591,8 @@
       <c r="AB104">
         <v>11.81264</v>
       </c>
-      <c r="AD104">
-        <v>15.42</v>
-      </c>
-      <c r="AE104">
-        <v>0.16082103628092756</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>48</v>
       </c>
@@ -4947,14 +4641,8 @@
       <c r="AB105">
         <v>11.883040000000001</v>
       </c>
-      <c r="AD105">
-        <v>13.34</v>
-      </c>
-      <c r="AE105">
-        <v>0.15844831943391458</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>49</v>
       </c>
@@ -5003,14 +4691,8 @@
       <c r="AB106">
         <v>11.67872</v>
       </c>
-      <c r="AD106">
-        <v>13.45</v>
-      </c>
-      <c r="AE106">
-        <v>0.1442441528807758</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>51</v>
       </c>
@@ -5059,14 +4741,8 @@
       <c r="AB107">
         <v>9.8731200000000001</v>
       </c>
-      <c r="AD107">
-        <v>11.77</v>
-      </c>
-      <c r="AE107">
-        <v>0.19376182136602449</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>52</v>
       </c>
@@ -5115,14 +4791,8 @@
       <c r="AB108">
         <v>11.591040000000001</v>
       </c>
-      <c r="AD108">
-        <v>16.5</v>
-      </c>
-      <c r="AE108">
-        <v>0.13098555865214087</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>53</v>
       </c>
@@ -5171,14 +4841,8 @@
       <c r="AB109">
         <v>11.37776</v>
       </c>
-      <c r="AD109">
-        <v>15.91</v>
-      </c>
-      <c r="AE109">
-        <v>0.1574915754001685</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>49</v>
       </c>
@@ -5227,14 +4891,8 @@
       <c r="AB110">
         <v>10.172000000000001</v>
       </c>
-      <c r="AD110">
-        <v>15.39</v>
-      </c>
-      <c r="AE110">
-        <v>0.17288001912045889</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>51</v>
       </c>
@@ -5283,14 +4941,8 @@
       <c r="AB111">
         <v>11.372159999999999</v>
       </c>
-      <c r="AD111">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AE111">
-        <v>0.12191074593201223</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>48</v>
       </c>
@@ -5339,14 +4991,8 @@
       <c r="AB112">
         <v>11.53904</v>
       </c>
-      <c r="AD112">
-        <v>15.16</v>
-      </c>
-      <c r="AE112">
-        <v>0.17384896913504941</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>50</v>
       </c>
@@ -5395,14 +5041,8 @@
       <c r="AB113">
         <v>11.08048</v>
       </c>
-      <c r="AD113">
-        <v>13.14</v>
-      </c>
-      <c r="AE113">
-        <v>0.1595813953488372</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>50</v>
       </c>
@@ -5451,14 +5091,8 @@
       <c r="AB114">
         <v>11.47536</v>
       </c>
-      <c r="AD114">
-        <v>15.37</v>
-      </c>
-      <c r="AE114">
-        <v>0.18337098616575703</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>48</v>
       </c>
@@ -5507,14 +5141,8 @@
       <c r="AB115">
         <v>8.68736</v>
       </c>
-      <c r="AD115">
-        <v>15.3</v>
-      </c>
-      <c r="AE115">
-        <v>0.16090848064443949</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>49</v>
       </c>
@@ -5563,14 +5191,8 @@
       <c r="AB116">
         <v>11.276</v>
       </c>
-      <c r="AD116">
-        <v>16.71</v>
-      </c>
-      <c r="AE116">
-        <v>0.17984199679413784</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>52</v>
       </c>
@@ -5619,14 +5241,8 @@
       <c r="AB117">
         <v>11.17456</v>
       </c>
-      <c r="AD117">
-        <v>16.36</v>
-      </c>
-      <c r="AE117">
-        <v>0.17238426185405226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>53</v>
       </c>
@@ -5675,14 +5291,8 @@
       <c r="AB118">
         <v>10.754720000000001</v>
       </c>
-      <c r="AD118">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="AE118">
-        <v>0.14281296836791041</v>
-      </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>51</v>
       </c>
@@ -5731,14 +5341,8 @@
       <c r="AB119">
         <v>9.6487999999999996</v>
       </c>
-      <c r="AD119">
-        <v>18.59</v>
-      </c>
-      <c r="AE119">
-        <v>0.16337509349289453</v>
-      </c>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>49</v>
       </c>
@@ -5787,14 +5391,8 @@
       <c r="AB120">
         <v>10.958080000000001</v>
       </c>
-      <c r="AD120">
-        <v>13.66</v>
-      </c>
-      <c r="AE120">
-        <v>0.13078427378284782</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>53</v>
       </c>
@@ -5843,14 +5441,8 @@
       <c r="AB121">
         <v>10.954400000000001</v>
       </c>
-      <c r="AD121">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="AE121">
-        <v>0.15217282179992828</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>52</v>
       </c>
@@ -5899,14 +5491,8 @@
       <c r="AB122">
         <v>11.73808</v>
       </c>
-      <c r="AD122">
-        <v>14.04</v>
-      </c>
-      <c r="AE122">
-        <v>0.13669186949766959</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>51</v>
       </c>
@@ -5955,14 +5541,8 @@
       <c r="AB123">
         <v>11.18</v>
       </c>
-      <c r="AD123">
-        <v>14.09</v>
-      </c>
-      <c r="AE123">
-        <v>0.15498010765270304</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>48</v>
       </c>
@@ -6011,14 +5591,8 @@
       <c r="AB124">
         <v>11.339839999999999</v>
       </c>
-      <c r="AD124">
-        <v>14.9</v>
-      </c>
-      <c r="AE124">
-        <v>0.16491228070175437</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>50</v>
       </c>
@@ -6067,14 +5641,8 @@
       <c r="AB125">
         <v>10.4712</v>
       </c>
-      <c r="AD125">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="AE125">
-        <v>0.14187360594795537</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>53</v>
       </c>
@@ -6123,14 +5691,8 @@
       <c r="AB126">
         <v>11.20144</v>
       </c>
-      <c r="AD126">
-        <v>14.29</v>
-      </c>
-      <c r="AE126">
-        <v>0.18509852556152681</v>
-      </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>50</v>
       </c>
@@ -6179,14 +5741,8 @@
       <c r="AB127">
         <v>11.575999999999999</v>
       </c>
-      <c r="AD127">
-        <v>18.05</v>
-      </c>
-      <c r="AE127">
-        <v>0.14338713766584976</v>
-      </c>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>52</v>
       </c>
@@ -6235,14 +5791,8 @@
       <c r="AB128">
         <v>12.077919999999999</v>
       </c>
-      <c r="AD128">
-        <v>14.88</v>
-      </c>
-      <c r="AE128">
-        <v>0.15663157894736843</v>
-      </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>48</v>
       </c>
@@ -6291,14 +5841,8 @@
       <c r="AB129">
         <v>11.684800000000001</v>
       </c>
-      <c r="AD129">
-        <v>13.88</v>
-      </c>
-      <c r="AE129">
-        <v>0.1650082205640572</v>
-      </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>49</v>
       </c>
@@ -6323,14 +5867,8 @@
       <c r="J130">
         <v>212.13318960259772</v>
       </c>
-      <c r="AD130">
-        <v>13.32</v>
-      </c>
-      <c r="AE130">
-        <v>0.16216552260069941</v>
-      </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>51</v>
       </c>
@@ -6379,14 +5917,8 @@
       <c r="AB131">
         <v>10.935039999999999</v>
       </c>
-      <c r="AD131">
-        <v>17.14</v>
-      </c>
-      <c r="AE131">
-        <v>0.14947212171815566</v>
-      </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>52</v>
       </c>
@@ -6435,14 +5967,8 @@
       <c r="AB132">
         <v>11.3024</v>
       </c>
-      <c r="AD132">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="AE132">
-        <v>0.17859999999999995</v>
-      </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>53</v>
       </c>
@@ -6491,14 +6017,8 @@
       <c r="AB133">
         <v>10.65424</v>
       </c>
-      <c r="AD133">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="AE133">
-        <v>0.1850226244343891</v>
-      </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>49</v>
       </c>
@@ -6547,14 +6067,8 @@
       <c r="AB134">
         <v>11.798080000000001</v>
       </c>
-      <c r="AD134">
-        <v>16.43</v>
-      </c>
-      <c r="AE134">
-        <v>0.19749616368286443</v>
-      </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>51</v>
       </c>
@@ -6603,14 +6117,8 @@
       <c r="AB135">
         <v>11.53936</v>
       </c>
-      <c r="AD135">
-        <v>15.86</v>
-      </c>
-      <c r="AE135">
-        <v>0.14878642714570856</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>48</v>
       </c>
@@ -6659,14 +6167,8 @@
       <c r="AB136">
         <v>11.6248</v>
       </c>
-      <c r="AD136">
-        <v>18.7</v>
-      </c>
-      <c r="AE136">
-        <v>0.20344907407407406</v>
-      </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>50</v>
       </c>
@@ -6715,14 +6217,8 @@
       <c r="AB137">
         <v>10.60272</v>
       </c>
-      <c r="AD137">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="AE137">
-        <v>0.20169849246231156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>50</v>
       </c>
@@ -6771,14 +6267,8 @@
       <c r="AB138">
         <v>11.172800000000001</v>
       </c>
-      <c r="AD138">
-        <v>16.05</v>
-      </c>
-      <c r="AE138">
-        <v>0.13903326403326405</v>
-      </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>48</v>
       </c>
@@ -6827,14 +6317,8 @@
       <c r="AB139">
         <v>11.317760000000002</v>
       </c>
-      <c r="AD139">
-        <v>13.89</v>
-      </c>
-      <c r="AE139">
-        <v>0.12400678510847246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>49</v>
       </c>
@@ -6859,14 +6343,8 @@
       <c r="J140">
         <v>361.0906277026719</v>
       </c>
-      <c r="AD140">
-        <v>11.74</v>
-      </c>
-      <c r="AE140">
-        <v>0.1321625576944726</v>
-      </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>52</v>
       </c>
@@ -6915,14 +6393,8 @@
       <c r="AB141">
         <v>10.68512</v>
       </c>
-      <c r="AD141">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="AE141">
-        <v>0.12403782713877283</v>
-      </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>53</v>
       </c>
@@ -6971,14 +6443,8 @@
       <c r="AB142">
         <v>11.134880000000001</v>
       </c>
-      <c r="AD142">
-        <v>14.15</v>
-      </c>
-      <c r="AE142">
-        <v>0.12196173073607999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>51</v>
       </c>
@@ -7027,14 +6493,8 @@
       <c r="AB143">
         <v>10.859200000000001</v>
       </c>
-      <c r="AD143">
-        <v>14.42</v>
-      </c>
-      <c r="AE143">
-        <v>0.13713742272943413</v>
-      </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>49</v>
       </c>
@@ -7083,14 +6543,8 @@
       <c r="AB144">
         <v>11.350239999999999</v>
       </c>
-      <c r="AD144">
-        <v>15.86</v>
-      </c>
-      <c r="AE144">
-        <v>0.12733841830590123</v>
-      </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>53</v>
       </c>
@@ -7139,14 +6593,8 @@
       <c r="AB145">
         <v>11.3672</v>
       </c>
-      <c r="AD145">
-        <v>16.54</v>
-      </c>
-      <c r="AE145">
-        <v>0.12692809454378021</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>52</v>
       </c>
@@ -7195,14 +6643,8 @@
       <c r="AB146">
         <v>10.896479999999999</v>
       </c>
-      <c r="AD146">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="AE146">
-        <v>0.11775144178972051</v>
-      </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>51</v>
       </c>
@@ -7251,14 +6693,8 @@
       <c r="AB147">
         <v>11.1104</v>
       </c>
-      <c r="AD147">
-        <v>17.68</v>
-      </c>
-      <c r="AE147">
-        <v>0.12843236960627633</v>
-      </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>48</v>
       </c>
@@ -7307,14 +6743,8 @@
       <c r="AB148">
         <v>10.968160000000001</v>
       </c>
-      <c r="AD148">
-        <v>17.84</v>
-      </c>
-      <c r="AE148">
-        <v>0.12777539034522276</v>
-      </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>50</v>
       </c>
@@ -7363,14 +6793,8 @@
       <c r="AB149">
         <v>11.18224</v>
       </c>
-      <c r="AD149">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="AE149">
-        <v>0.14492148346140998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>53</v>
       </c>
@@ -7419,14 +6843,8 @@
       <c r="AB150">
         <v>10.99056</v>
       </c>
-      <c r="AD150">
-        <v>12.74</v>
-      </c>
-      <c r="AE150">
-        <v>0.1267031327697663</v>
-      </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>50</v>
       </c>
@@ -7451,14 +6869,8 @@
       <c r="J151">
         <v>218.04428873792253</v>
       </c>
-      <c r="AD151">
-        <v>12.73</v>
-      </c>
-      <c r="AE151">
-        <v>0.11343788985920514</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>52</v>
       </c>
@@ -7507,14 +6919,8 @@
       <c r="AB152">
         <v>11.433759999999999</v>
       </c>
-      <c r="AD152">
-        <v>14.64</v>
-      </c>
-      <c r="AE152">
-        <v>0.10873440285204992</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>48</v>
       </c>
@@ -7563,14 +6969,8 @@
       <c r="AB153">
         <v>11.177919999999999</v>
       </c>
-      <c r="AD153">
-        <v>15.88</v>
-      </c>
-      <c r="AE153">
-        <v>0.10499173553719009</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>49</v>
       </c>
@@ -7619,14 +7019,8 @@
       <c r="AB154">
         <v>10.869760000000001</v>
       </c>
-      <c r="AD154">
-        <v>15.04</v>
-      </c>
-      <c r="AE154">
-        <v>0.11430308557531538</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>51</v>
       </c>
@@ -7675,14 +7069,8 @@
       <c r="AB155">
         <v>11.223520000000001</v>
       </c>
-      <c r="AD155">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="AE155">
-        <v>0.12834908677421647</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>52</v>
       </c>
@@ -7731,14 +7119,8 @@
       <c r="AB156">
         <v>10.949280000000002</v>
       </c>
-      <c r="AD156">
-        <v>16.77</v>
-      </c>
-      <c r="AE156">
-        <v>0.14332108366806254</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>53</v>
       </c>
@@ -7787,14 +7169,8 @@
       <c r="AB157">
         <v>11.345920000000001</v>
       </c>
-      <c r="AD157">
-        <v>12.58</v>
-      </c>
-      <c r="AE157">
-        <v>0.12672509318021558</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>49</v>
       </c>
@@ -7843,14 +7219,8 @@
       <c r="AB158">
         <v>10.87712</v>
       </c>
-      <c r="AD158">
-        <v>15.97</v>
-      </c>
-      <c r="AE158">
-        <v>0.11524861081042073</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>51</v>
       </c>
@@ -7899,14 +7269,8 @@
       <c r="AB159">
         <v>11.378080000000001</v>
       </c>
-      <c r="AD159">
-        <v>13.92</v>
-      </c>
-      <c r="AE159">
-        <v>0.10715935334872978</v>
-      </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>48</v>
       </c>
@@ -7955,14 +7319,8 @@
       <c r="AB160">
         <v>11.087680000000001</v>
       </c>
-      <c r="AD160">
-        <v>14.78</v>
-      </c>
-      <c r="AE160">
-        <v>0.12825407844498438</v>
-      </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>50</v>
       </c>
@@ -8011,14 +7369,8 @@
       <c r="AB161">
         <v>11.44272</v>
       </c>
-      <c r="AD161">
-        <v>16.12</v>
-      </c>
-      <c r="AE161">
-        <v>0.16373793803961403</v>
-      </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>50</v>
       </c>
@@ -8067,14 +7419,8 @@
       <c r="AB162">
         <v>10.4056</v>
       </c>
-      <c r="AD162">
-        <v>7.58</v>
-      </c>
-      <c r="AE162">
-        <v>8.4091413357000225E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>48</v>
       </c>
@@ -8123,14 +7469,8 @@
       <c r="AB163">
         <v>11.187519999999999</v>
       </c>
-      <c r="AD163">
-        <v>8.25</v>
-      </c>
-      <c r="AE163">
-        <v>9.5963708270326853E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>49</v>
       </c>
@@ -8179,14 +7519,8 @@
       <c r="AB164">
         <v>11.927999999999999</v>
       </c>
-      <c r="AD164">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="AE164">
-        <v>0.11367270788912578</v>
-      </c>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>52</v>
       </c>
@@ -8235,14 +7569,8 @@
       <c r="AB165">
         <v>11.855519999999999</v>
       </c>
-      <c r="AD165">
-        <v>8.19</v>
-      </c>
-      <c r="AE165">
-        <v>8.5055561325163564E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>53</v>
       </c>
@@ -8291,14 +7619,8 @@
       <c r="AB166">
         <v>11.498240000000001</v>
       </c>
-      <c r="AD166">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AE166">
-        <v>8.3151813618713891E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>51</v>
       </c>
@@ -8347,14 +7669,8 @@
       <c r="AB167">
         <v>11.6472</v>
       </c>
-      <c r="AD167">
-        <v>9.85</v>
-      </c>
-      <c r="AE167">
-        <v>0.12962231872614818</v>
-      </c>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>49</v>
       </c>
@@ -8403,14 +7719,8 @@
       <c r="AB168">
         <v>11.385760000000001</v>
       </c>
-      <c r="AD168">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="AE168">
-        <v>8.9810924369747899E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>53</v>
       </c>
@@ -8459,14 +7769,8 @@
       <c r="AB169">
         <v>11.552000000000001</v>
       </c>
-      <c r="AD169">
-        <v>10.33</v>
-      </c>
-      <c r="AE169">
-        <v>0.11218505647263249</v>
-      </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>52</v>
       </c>
@@ -8515,14 +7819,8 @@
       <c r="AB170">
         <v>11.939200000000001</v>
       </c>
-      <c r="AD170">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="AE170">
-        <v>0.10307692307692309</v>
-      </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>51</v>
       </c>
@@ -8571,14 +7869,8 @@
       <c r="AB171">
         <v>11.74288</v>
       </c>
-      <c r="AD171">
-        <v>9.1</v>
-      </c>
-      <c r="AE171">
-        <v>9.1798648239685268E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>48</v>
       </c>
@@ -8627,14 +7919,8 @@
       <c r="AB172">
         <v>11.608000000000001</v>
       </c>
-      <c r="AD172">
-        <v>7.5</v>
-      </c>
-      <c r="AE172">
-        <v>0.11358473421172194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>50</v>
       </c>
@@ -8683,14 +7969,8 @@
       <c r="AB173">
         <v>11.255039999999999</v>
       </c>
-      <c r="AD173">
-        <v>11.12</v>
-      </c>
-      <c r="AE173">
-        <v>0.14730427871241225</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>53</v>
       </c>
@@ -8739,14 +8019,8 @@
       <c r="AB174">
         <v>11.66432</v>
       </c>
-      <c r="AD174">
-        <v>11.12</v>
-      </c>
-      <c r="AE174">
-        <v>0.11025183422565932</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>50</v>
       </c>
@@ -8795,14 +8069,8 @@
       <c r="AB175">
         <v>11.732000000000001</v>
       </c>
-      <c r="AD175">
-        <v>11.74</v>
-      </c>
-      <c r="AE175">
-        <v>0.12437758237101389</v>
-      </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>52</v>
       </c>
@@ -8851,14 +8119,8 @@
       <c r="AB176">
         <v>11.70384</v>
       </c>
-      <c r="AD176">
-        <v>9.86</v>
-      </c>
-      <c r="AE176">
-        <v>0.10084893116497903</v>
-      </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>48</v>
       </c>
@@ -8907,14 +8169,8 @@
       <c r="AB177">
         <v>11.84064</v>
       </c>
-      <c r="AD177">
-        <v>8.69</v>
-      </c>
-      <c r="AE177">
-        <v>0.11252104104622555</v>
-      </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>49</v>
       </c>
@@ -8963,14 +8219,8 @@
       <c r="AB178">
         <v>11.953119999999998</v>
       </c>
-      <c r="AD178">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="AE178">
-        <v>9.9821945248163818E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>51</v>
       </c>
@@ -9019,14 +8269,8 @@
       <c r="AB179">
         <v>11.687519999999999</v>
       </c>
-      <c r="AD179">
-        <v>9.19</v>
-      </c>
-      <c r="AE179">
-        <v>0.1386332780208176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>52</v>
       </c>
@@ -9075,14 +8319,8 @@
       <c r="AB180">
         <v>11.8192</v>
       </c>
-      <c r="AD180">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="AE180">
-        <v>0.13297714455327991</v>
-      </c>
-    </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>53</v>
       </c>
@@ -9131,14 +8369,8 @@
       <c r="AB181">
         <v>11.718240000000002</v>
       </c>
-      <c r="AD181">
-        <v>10.8</v>
-      </c>
-      <c r="AE181">
-        <v>0.13111569746266846</v>
-      </c>
-    </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>49</v>
       </c>
@@ -9187,14 +8419,8 @@
       <c r="AB182">
         <v>12.2256</v>
       </c>
-      <c r="AD182">
-        <v>9.24</v>
-      </c>
-      <c r="AE182">
-        <v>0.11518324607329844</v>
-      </c>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>51</v>
       </c>
@@ -9243,14 +8469,8 @@
       <c r="AB183">
         <v>11.868</v>
       </c>
-      <c r="AD183">
-        <v>11.9</v>
-      </c>
-      <c r="AE183">
-        <v>0.11778679600118777</v>
-      </c>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>48</v>
       </c>
@@ -9299,14 +8519,8 @@
       <c r="AB184">
         <v>11.8696</v>
       </c>
-      <c r="AD184">
-        <v>10.96</v>
-      </c>
-      <c r="AE184">
-        <v>0.14660246120920278</v>
-      </c>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>50</v>
       </c>
@@ -9355,14 +8569,8 @@
       <c r="AB185">
         <v>10.89664</v>
       </c>
-      <c r="AD185">
-        <v>14.7</v>
-      </c>
-      <c r="AE185">
-        <v>0.17719382835101255</v>
-      </c>
-    </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>50</v>
       </c>
@@ -9411,14 +8619,8 @@
       <c r="AB186">
         <v>11.309280000000001</v>
       </c>
-      <c r="AD186">
-        <v>7.86</v>
-      </c>
-      <c r="AE186">
-        <v>8.9869654699291118E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>48</v>
       </c>
@@ -9467,14 +8669,8 @@
       <c r="AB187">
         <v>11.204960000000002</v>
       </c>
-      <c r="AD187">
-        <v>7.3</v>
-      </c>
-      <c r="AE187">
-        <v>7.8284182305630029E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>49</v>
       </c>
@@ -9523,14 +8719,8 @@
       <c r="AB188">
         <v>11.583520000000002</v>
       </c>
-      <c r="AD188">
-        <v>8.5</v>
-      </c>
-      <c r="AE188">
-        <v>9.834548189286127E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>52</v>
       </c>
@@ -9579,14 +8769,8 @@
       <c r="AB189">
         <v>11.623040000000001</v>
       </c>
-      <c r="AD189">
-        <v>7</v>
-      </c>
-      <c r="AE189">
-        <v>8.4185207456404079E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>53</v>
       </c>
@@ -9611,14 +8795,8 @@
       <c r="J190">
         <v>60.606363069245162</v>
       </c>
-      <c r="AD190">
-        <v>8.02</v>
-      </c>
-      <c r="AE190">
-        <v>8.2842681541163102E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>51</v>
       </c>
@@ -9667,14 +8845,8 @@
       <c r="AB191">
         <v>10.898240000000001</v>
       </c>
-      <c r="AD191">
-        <v>8.39</v>
-      </c>
-      <c r="AE191">
-        <v>0.10524335173105871</v>
-      </c>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>49</v>
       </c>
@@ -9723,14 +8895,8 @@
       <c r="AB192">
         <v>11.624000000000001</v>
       </c>
-      <c r="AD192">
-        <v>8.6</v>
-      </c>
-      <c r="AE192">
-        <v>6.9545528060811906E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>53</v>
       </c>
@@ -9779,14 +8945,8 @@
       <c r="AB193">
         <v>11.17328</v>
       </c>
-      <c r="AD193">
-        <v>8.5</v>
-      </c>
-      <c r="AE193">
-        <v>8.0998665904326278E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>52</v>
       </c>
@@ -9835,14 +8995,8 @@
       <c r="AB194">
         <v>11.453440000000001</v>
       </c>
-      <c r="AD194">
-        <v>7.9</v>
-      </c>
-      <c r="AE194">
-        <v>7.1896614488532948E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>51</v>
       </c>
@@ -9891,14 +9045,8 @@
       <c r="AB195">
         <v>11.431679999999998</v>
       </c>
-      <c r="AD195">
-        <v>8.9</v>
-      </c>
-      <c r="AE195">
-        <v>7.660526768807023E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>48</v>
       </c>
@@ -9947,14 +9095,8 @@
       <c r="AB196">
         <v>11.172000000000001</v>
       </c>
-      <c r="AD196">
-        <v>9</v>
-      </c>
-      <c r="AE196">
-        <v>7.5257128522451713E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>50</v>
       </c>
@@ -10003,14 +9145,8 @@
       <c r="AB197">
         <v>10.930400000000001</v>
       </c>
-      <c r="AD197">
-        <v>9.5</v>
-      </c>
-      <c r="AE197">
-        <v>8.7630292408449412E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>53</v>
       </c>
@@ -10059,14 +9195,8 @@
       <c r="AB198">
         <v>11.5496</v>
       </c>
-      <c r="AD198">
-        <v>9.51</v>
-      </c>
-      <c r="AE198">
-        <v>7.8731683086348203E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>50</v>
       </c>
@@ -10115,14 +9245,8 @@
       <c r="AB199">
         <v>11.52</v>
       </c>
-      <c r="AD199">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="AE199">
-        <v>7.7662470227968697E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>52</v>
       </c>
@@ -10171,14 +9295,8 @@
       <c r="AB200">
         <v>11.562719999999999</v>
       </c>
-      <c r="AD200">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="AE200">
-        <v>7.6410695594252537E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>48</v>
       </c>
@@ -10227,14 +9345,8 @@
       <c r="AB201">
         <v>10.790560000000001</v>
       </c>
-      <c r="AD201">
-        <v>7.37</v>
-      </c>
-      <c r="AE201">
-        <v>7.2347109060567391E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>49</v>
       </c>
@@ -10283,14 +9395,8 @@
       <c r="AB202">
         <v>11.619680000000001</v>
       </c>
-      <c r="AD202">
-        <v>9.43</v>
-      </c>
-      <c r="AE202">
-        <v>6.4739805025401623E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>51</v>
       </c>
@@ -10339,14 +9445,8 @@
       <c r="AB203">
         <v>11.32544</v>
       </c>
-      <c r="AD203">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="AE203">
-        <v>8.2519450422115559E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>52</v>
       </c>
@@ -10395,14 +9495,8 @@
       <c r="AB204">
         <v>11.184000000000001</v>
       </c>
-      <c r="AD204">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="AE204">
-        <v>8.0342018230216999E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>53</v>
       </c>
@@ -10452,7 +9546,7 @@
         <v>11.292159999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>49</v>
       </c>
@@ -10501,14 +9595,8 @@
       <c r="AB206">
         <v>11.808</v>
       </c>
-      <c r="AD206">
-        <v>7.98</v>
-      </c>
-      <c r="AE206">
-        <v>8.3263772954924875E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>51</v>
       </c>
@@ -10557,14 +9645,8 @@
       <c r="AB207">
         <v>11.589600000000001</v>
       </c>
-      <c r="AD207">
-        <v>7.89</v>
-      </c>
-      <c r="AE207">
-        <v>7.2745712705144752E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>48</v>
       </c>
@@ -10613,14 +9695,8 @@
       <c r="AB208">
         <v>11.59024</v>
       </c>
-      <c r="AD208">
-        <v>8.59</v>
-      </c>
-      <c r="AE208">
-        <v>9.6311245655342534E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>50</v>
       </c>
@@ -10669,14 +9745,8 @@
       <c r="AB209">
         <v>12.370080000000002</v>
       </c>
-      <c r="AD209">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="AE209">
-        <v>0.10636384079154487</v>
-      </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>50</v>
       </c>
@@ -10719,17 +9789,14 @@
       <c r="Z210">
         <v>20.24751091003418</v>
       </c>
+      <c r="AA210">
+        <v>3.23960174560547E-2</v>
+      </c>
       <c r="AB210">
         <v>9.4643518066406251</v>
       </c>
-      <c r="AD210">
-        <v>7.87</v>
-      </c>
-      <c r="AE210">
-        <v>9.0004574565416287E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>48</v>
       </c>
@@ -10772,17 +9839,14 @@
       <c r="Z211">
         <v>25.43653678894043</v>
       </c>
+      <c r="AA211">
+        <v>4.0698458862304686E-2</v>
+      </c>
       <c r="AB211">
         <v>10.32451416015625</v>
       </c>
-      <c r="AD211">
-        <v>7.96</v>
-      </c>
-      <c r="AE211">
-        <v>7.6811734053845421E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>49</v>
       </c>
@@ -10825,17 +9889,14 @@
       <c r="Z212">
         <v>23.902172088623047</v>
       </c>
+      <c r="AA212">
+        <v>3.8243475341796875E-2</v>
+      </c>
       <c r="AB212">
         <v>11.074801025390625</v>
       </c>
-      <c r="AD212">
-        <v>9.09</v>
-      </c>
-      <c r="AE212">
-        <v>0.14108334626726679</v>
-      </c>
-    </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>52</v>
       </c>
@@ -10878,17 +9939,14 @@
       <c r="Z213">
         <v>28.972631454467773</v>
       </c>
+      <c r="AA213">
+        <v>4.6356210327148435E-2</v>
+      </c>
       <c r="AB213">
         <v>10.825550537109375</v>
       </c>
-      <c r="AD213">
-        <v>5.92</v>
-      </c>
-      <c r="AE213">
-        <v>9.1428571428571428E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>53</v>
       </c>
@@ -10931,17 +9989,14 @@
       <c r="Z214">
         <v>21.926485061645508</v>
       </c>
+      <c r="AA214">
+        <v>3.5082376098632809E-2</v>
+      </c>
       <c r="AB214">
         <v>9.7628021240234375</v>
       </c>
-      <c r="AD214">
-        <v>9.19</v>
-      </c>
-      <c r="AE214">
-        <v>7.9012982546642588E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>51</v>
       </c>
@@ -10984,17 +10039,14 @@
       <c r="Z215">
         <v>20.862008094787598</v>
       </c>
+      <c r="AA215">
+        <v>3.3379212951660159E-2</v>
+      </c>
       <c r="AB215">
         <v>10.33944793701172</v>
       </c>
-      <c r="AD215">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="AE215">
-        <v>8.4585268141673484E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>49</v>
       </c>
@@ -11037,17 +10089,14 @@
       <c r="Z216">
         <v>22.95904541015625</v>
       </c>
+      <c r="AA216">
+        <v>3.6734472656250003E-2</v>
+      </c>
       <c r="AB216">
         <v>11.6185546875</v>
       </c>
-      <c r="AD216">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="AE216">
-        <v>7.2481842858190898E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>53</v>
       </c>
@@ -11090,17 +10139,14 @@
       <c r="Z217">
         <v>21.683019638061523</v>
       </c>
+      <c r="AA217">
+        <v>3.4692831420898435E-2</v>
+      </c>
       <c r="AB217">
         <v>10.302285156250001</v>
       </c>
-      <c r="AD217">
-        <v>5.79</v>
-      </c>
-      <c r="AE217">
-        <v>9.423828125E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>52</v>
       </c>
@@ -11143,17 +10189,14 @@
       <c r="Z218">
         <v>23.865615844726563</v>
       </c>
+      <c r="AA218">
+        <v>3.8184985351562499E-2</v>
+      </c>
       <c r="AB218">
         <v>11.2924609375</v>
       </c>
-      <c r="AD218">
-        <v>7</v>
-      </c>
-      <c r="AE218">
-        <v>9.1635030763188893E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>51</v>
       </c>
@@ -11196,17 +10239,14 @@
       <c r="Z219">
         <v>24.348255157470703</v>
       </c>
+      <c r="AA219">
+        <v>3.8957208251953125E-2</v>
+      </c>
       <c r="AB219">
         <v>10.268542480468751</v>
       </c>
-      <c r="AD219">
-        <v>7.44</v>
-      </c>
-      <c r="AE219">
-        <v>9.8373661245537494E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>48</v>
       </c>
@@ -11249,17 +10289,14 @@
       <c r="Z220">
         <v>24.68995475769043</v>
       </c>
+      <c r="AA220">
+        <v>3.9503927612304687E-2</v>
+      </c>
       <c r="AB220">
         <v>10.29860107421875</v>
       </c>
-      <c r="AD220">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="AE220">
-        <v>0.10143329658213891</v>
-      </c>
-    </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>50</v>
       </c>
@@ -11302,17 +10339,14 @@
       <c r="Z221">
         <v>23.338850021362305</v>
       </c>
+      <c r="AA221">
+        <v>3.7342160034179686E-2</v>
+      </c>
       <c r="AB221">
         <v>10.010285644531249</v>
       </c>
-      <c r="AD221">
-        <v>9.94</v>
-      </c>
-      <c r="AE221">
-        <v>9.1251262278527479E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>53</v>
       </c>
@@ -11355,17 +10389,14 @@
       <c r="Z222">
         <v>25.961908340454102</v>
       </c>
+      <c r="AA222">
+        <v>4.1539053344726566E-2</v>
+      </c>
       <c r="AB222">
         <v>11.419073486328125</v>
       </c>
-      <c r="AD222">
-        <v>12.05</v>
-      </c>
-      <c r="AE222">
-        <v>0.10047527724505961</v>
-      </c>
-    </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>50</v>
       </c>
@@ -11408,17 +10439,14 @@
       <c r="Z223">
         <v>20.684207916259766</v>
       </c>
+      <c r="AA223">
+        <v>3.3094732666015626E-2</v>
+      </c>
       <c r="AB223">
         <v>10.834228515625</v>
       </c>
-      <c r="AD223">
-        <v>5.71</v>
-      </c>
-      <c r="AE223">
-        <v>9.5676943699731898E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>52</v>
       </c>
@@ -11461,17 +10489,14 @@
       <c r="Z224">
         <v>25.761093139648437</v>
       </c>
+      <c r="AA224">
+        <v>4.12177490234375E-2</v>
+      </c>
       <c r="AB224">
         <v>11.646551513671875</v>
       </c>
-      <c r="AD224">
-        <v>6.67</v>
-      </c>
-      <c r="AE224">
-        <v>9.1332329179789132E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>48</v>
       </c>
@@ -11514,17 +10539,14 @@
       <c r="Z225">
         <v>18.634853363037109</v>
       </c>
+      <c r="AA225">
+        <v>2.9815765380859376E-2</v>
+      </c>
       <c r="AB225">
         <v>9.7217846679687501</v>
       </c>
-      <c r="AD225">
-        <v>7.88</v>
-      </c>
-      <c r="AE225">
-        <v>8.159039138537999E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>49</v>
       </c>
@@ -11567,17 +10589,14 @@
       <c r="Z226">
         <v>20.264064788818359</v>
       </c>
+      <c r="AA226">
+        <v>3.2422503662109373E-2</v>
+      </c>
       <c r="AB226">
         <v>9.3132946777343744</v>
       </c>
-      <c r="AD226">
-        <v>7.37</v>
-      </c>
-      <c r="AE226">
-        <v>8.4780858161739331E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>51</v>
       </c>
@@ -11620,17 +10639,14 @@
       <c r="Z227">
         <v>18.393932342529297</v>
       </c>
+      <c r="AA227">
+        <v>2.9430291748046872E-2</v>
+      </c>
       <c r="AB227">
         <v>10.269659423828125</v>
       </c>
-      <c r="AD227">
-        <v>8.99</v>
-      </c>
-      <c r="AE227">
-        <v>0.10569010110510228</v>
-      </c>
-    </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>50</v>
       </c>
@@ -11673,17 +10689,14 @@
       <c r="Z228">
         <v>22.684200286865234</v>
       </c>
+      <c r="AA228">
+        <v>3.6294720458984374E-2</v>
+      </c>
       <c r="AB228">
         <v>10.808283691406251</v>
       </c>
-      <c r="AD228">
-        <v>6.93</v>
-      </c>
-      <c r="AE228">
-        <v>9.3396226415094333E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>48</v>
       </c>
@@ -11726,17 +10739,14 @@
       <c r="Z229">
         <v>25.618349075317383</v>
       </c>
+      <c r="AA229">
+        <v>4.0989358520507807E-2</v>
+      </c>
       <c r="AB229">
         <v>11.347218017578125</v>
       </c>
-      <c r="AD229">
-        <v>7.37</v>
-      </c>
-      <c r="AE229">
-        <v>0.11277735271614385</v>
-      </c>
-    </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>49</v>
       </c>
@@ -11779,17 +10789,14 @@
       <c r="Z230">
         <v>26.26750373840332</v>
       </c>
+      <c r="AA230">
+        <v>4.2028005981445314E-2</v>
+      </c>
       <c r="AB230">
         <v>9.617985839843751</v>
       </c>
-      <c r="AD230">
-        <v>5.83</v>
-      </c>
-      <c r="AE230">
-        <v>9.6315876424913266E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>52</v>
       </c>
@@ -11832,17 +10839,14 @@
       <c r="Z231">
         <v>26.585926055908203</v>
       </c>
+      <c r="AA231">
+        <v>4.2537481689453129E-2</v>
+      </c>
       <c r="AB231">
         <v>11.707923583984375</v>
       </c>
-      <c r="AD231">
-        <v>7.62</v>
-      </c>
-      <c r="AE231">
-        <v>8.6758510759421606E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>53</v>
       </c>
@@ -11885,17 +10889,14 @@
       <c r="Z232">
         <v>23.419979095458984</v>
       </c>
+      <c r="AA232">
+        <v>3.7471966552734375E-2</v>
+      </c>
       <c r="AB232">
         <v>10.764249267578125</v>
       </c>
-      <c r="AD232">
-        <v>7.49</v>
-      </c>
-      <c r="AE232">
-        <v>9.3989208181704115E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>51</v>
       </c>
@@ -11938,17 +10939,14 @@
       <c r="Z233">
         <v>19.200637817382812</v>
       </c>
+      <c r="AA233">
+        <v>3.0721020507812499E-2</v>
+      </c>
       <c r="AB233">
         <v>10.20040283203125</v>
       </c>
-      <c r="AD233">
-        <v>6.79</v>
-      </c>
-      <c r="AE233">
-        <v>0.10564804730045123</v>
-      </c>
-    </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>49</v>
       </c>
@@ -11991,17 +10989,14 @@
       <c r="Z234">
         <v>24.979385375976563</v>
       </c>
+      <c r="AA234">
+        <v>3.9967016601562502E-2</v>
+      </c>
       <c r="AB234">
         <v>11.885887451171875</v>
       </c>
-      <c r="AD234">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="AE234">
-        <v>0.10712530712530713</v>
-      </c>
-    </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>53</v>
       </c>
@@ -12026,14 +11021,8 @@
       <c r="I235">
         <v>39.299999999999997</v>
       </c>
-      <c r="AD235">
-        <v>5.99</v>
-      </c>
-      <c r="AE235">
-        <v>0.10677361853832443</v>
-      </c>
-    </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>52</v>
       </c>
@@ -12076,17 +11065,14 @@
       <c r="Z236">
         <v>24.667207717895508</v>
       </c>
+      <c r="AA236">
+        <v>3.9467532348632817E-2</v>
+      </c>
       <c r="AB236">
         <v>11.771962890625</v>
       </c>
-      <c r="AD236">
-        <v>8.92</v>
-      </c>
-      <c r="AE236">
-        <v>0.12871572871572873</v>
-      </c>
-    </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>51</v>
       </c>
@@ -12129,17 +11115,14 @@
       <c r="Z237">
         <v>22.802654266357422</v>
       </c>
+      <c r="AA237">
+        <v>3.6484246826171879E-2</v>
+      </c>
       <c r="AB237">
         <v>11.146269531250001</v>
       </c>
-      <c r="AD237">
-        <v>6.41</v>
-      </c>
-      <c r="AE237">
-        <v>0.12638012618296532</v>
-      </c>
-    </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>48</v>
       </c>
@@ -12182,17 +11165,14 @@
       <c r="Z238">
         <v>23.645225524902344</v>
       </c>
+      <c r="AA238">
+        <v>3.7832360839843752E-2</v>
+      </c>
       <c r="AB238">
         <v>11.6568798828125</v>
       </c>
-      <c r="AD238">
-        <v>7.53</v>
-      </c>
-      <c r="AE238">
-        <v>0.10112812248186948</v>
-      </c>
-    </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>50</v>
       </c>
@@ -12235,17 +11215,14 @@
       <c r="Z239">
         <v>21.128440856933594</v>
       </c>
+      <c r="AA239">
+        <v>3.3805505371093753E-2</v>
+      </c>
       <c r="AB239">
         <v>11.209278564453125</v>
       </c>
-      <c r="AD239">
-        <v>7.8</v>
-      </c>
-      <c r="AE239">
-        <v>0.11426897157925578</v>
-      </c>
-    </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>53</v>
       </c>
@@ -12288,17 +11265,14 @@
       <c r="Z240">
         <v>21.945369720458984</v>
       </c>
+      <c r="AA240">
+        <v>3.5112591552734378E-2</v>
+      </c>
       <c r="AB240">
         <v>11.347801513671875</v>
       </c>
-      <c r="AD240">
-        <v>7.66</v>
-      </c>
-      <c r="AE240">
-        <v>0.11069364161849711</v>
-      </c>
-    </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>50</v>
       </c>
@@ -12341,17 +11315,14 @@
       <c r="Z241">
         <v>23.764602661132813</v>
       </c>
+      <c r="AA241">
+        <v>3.8023364257812504E-2</v>
+      </c>
       <c r="AB241">
         <v>11.658992919921875</v>
       </c>
-      <c r="AD241">
-        <v>9.41</v>
-      </c>
-      <c r="AE241">
-        <v>0.12430647291941875</v>
-      </c>
-    </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>52</v>
       </c>
@@ -12394,17 +11365,14 @@
       <c r="Z242">
         <v>24.401432037353516</v>
       </c>
+      <c r="AA242">
+        <v>3.9042291259765625E-2</v>
+      </c>
       <c r="AB242">
         <v>11.40988525390625</v>
       </c>
-      <c r="AD242">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AE242">
-        <v>0.11422637590861889</v>
-      </c>
-    </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>48</v>
       </c>
@@ -12447,17 +11415,14 @@
       <c r="Z243">
         <v>23.152593612670898</v>
       </c>
+      <c r="AA243">
+        <v>3.7044149780273442E-2</v>
+      </c>
       <c r="AB243">
         <v>11.890731201171874</v>
       </c>
-      <c r="AD243">
-        <v>5.84</v>
-      </c>
-      <c r="AE243">
-        <v>0.1315019139833371</v>
-      </c>
-    </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>49</v>
       </c>
@@ -12500,17 +11465,14 @@
       <c r="Z244">
         <v>29.761472702026367</v>
       </c>
+      <c r="AA244">
+        <v>4.7618356323242184E-2</v>
+      </c>
       <c r="AB244">
         <v>12.0340771484375</v>
       </c>
-      <c r="AD244">
-        <v>6.82</v>
-      </c>
-      <c r="AE244">
-        <v>0.13095238095238096</v>
-      </c>
-    </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>51</v>
       </c>
@@ -12553,17 +11515,14 @@
       <c r="Z245">
         <v>20.427553176879883</v>
       </c>
+      <c r="AA245">
+        <v>3.2684085083007818E-2</v>
+      </c>
       <c r="AB245">
         <v>11.426553955078125</v>
       </c>
-      <c r="AD245">
-        <v>6.79</v>
-      </c>
-      <c r="AE245">
-        <v>0.10686181932640856</v>
-      </c>
-    </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>50</v>
       </c>
@@ -12606,17 +11565,14 @@
       <c r="Z246">
         <v>21.52073860168457</v>
       </c>
+      <c r="AA246">
+        <v>3.443318176269531E-2</v>
+      </c>
       <c r="AB246">
         <v>11.951140136718751</v>
       </c>
-      <c r="AD246">
-        <v>8.83</v>
-      </c>
-      <c r="AE246">
-        <v>0.12157510670521823</v>
-      </c>
-    </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
         <v>48</v>
       </c>
@@ -12659,17 +11615,14 @@
       <c r="Z247">
         <v>17.731330871582031</v>
       </c>
+      <c r="AA247">
+        <v>2.8370129394531252E-2</v>
+      </c>
       <c r="AB247">
         <v>12.577874755859375</v>
       </c>
-      <c r="AD247">
-        <v>9.68</v>
-      </c>
-      <c r="AE247">
-        <v>0.12214511041009464</v>
-      </c>
-    </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>49</v>
       </c>
@@ -12712,17 +11665,14 @@
       <c r="Z248">
         <v>20.435443878173828</v>
       </c>
+      <c r="AA248">
+        <v>3.2696710205078125E-2</v>
+      </c>
       <c r="AB248">
         <v>12.901580810546875</v>
       </c>
-      <c r="AD248">
-        <v>9.36</v>
-      </c>
-      <c r="AE248">
-        <v>0.12611156022635409</v>
-      </c>
-    </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>52</v>
       </c>
@@ -12765,17 +11715,14 @@
       <c r="Z249">
         <v>17.633281707763672</v>
       </c>
+      <c r="AA249">
+        <v>2.8213250732421872E-2</v>
+      </c>
       <c r="AB249">
         <v>12.612092285156251</v>
       </c>
-      <c r="AD249">
-        <v>11.02</v>
-      </c>
-      <c r="AE249">
-        <v>0.10807100127488477</v>
-      </c>
-    </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>53</v>
       </c>
@@ -12818,17 +11765,14 @@
       <c r="Z250">
         <v>19.712717056274414</v>
       </c>
+      <c r="AA250">
+        <v>3.1540347290039066E-2</v>
+      </c>
       <c r="AB250">
         <v>12.087929687500001</v>
       </c>
-      <c r="AD250">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AE250">
-        <v>0.10350921484473617</v>
-      </c>
-    </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>51</v>
       </c>
@@ -12871,17 +11815,14 @@
       <c r="Z251">
         <v>18.248104095458984</v>
       </c>
+      <c r="AA251">
+        <v>2.9196966552734373E-2</v>
+      </c>
       <c r="AB251">
         <v>12.400543212890625</v>
       </c>
-      <c r="AD251">
-        <v>10.29</v>
-      </c>
-      <c r="AE251">
-        <v>0.10836141533277169</v>
-      </c>
-    </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>49</v>
       </c>
@@ -12924,17 +11865,14 @@
       <c r="Z252">
         <v>22.281396865844727</v>
       </c>
+      <c r="AA252">
+        <v>3.565023498535156E-2</v>
+      </c>
       <c r="AB252">
         <v>12.596097412109375</v>
       </c>
-      <c r="AD252">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="AE252">
-        <v>0.1102433945073539</v>
-      </c>
-    </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>53</v>
       </c>
@@ -12977,17 +11915,14 @@
       <c r="Z253">
         <v>17.875812530517578</v>
       </c>
+      <c r="AA253">
+        <v>2.8601300048828125E-2</v>
+      </c>
       <c r="AB253">
         <v>12.175603027343751</v>
       </c>
-      <c r="AD253">
-        <v>6.64</v>
-      </c>
-      <c r="AE253">
-        <v>0.14088690855081687</v>
-      </c>
-    </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>52</v>
       </c>
@@ -13030,17 +11965,14 @@
       <c r="Z254">
         <v>16.068044662475586</v>
       </c>
+      <c r="AA254">
+        <v>2.5708871459960939E-2</v>
+      </c>
       <c r="AB254">
         <v>12.737723388671876</v>
       </c>
-      <c r="AD254">
-        <v>7.22</v>
-      </c>
-      <c r="AE254">
-        <v>0.12528197119555787</v>
-      </c>
-    </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>51</v>
       </c>
@@ -13083,17 +12015,14 @@
       <c r="Z255">
         <v>19.489608764648438</v>
       </c>
+      <c r="AA255">
+        <v>3.1183374023437498E-2</v>
+      </c>
       <c r="AB255">
         <v>12.4419970703125</v>
       </c>
-      <c r="AD255">
-        <v>6.14</v>
-      </c>
-      <c r="AE255">
-        <v>0.11584905660377358</v>
-      </c>
-    </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>48</v>
       </c>
@@ -13136,17 +12065,14 @@
       <c r="Z256">
         <v>16.862680435180664</v>
       </c>
+      <c r="AA256">
+        <v>2.6980288696289059E-2</v>
+      </c>
       <c r="AB256">
         <v>12.44281982421875</v>
       </c>
-      <c r="AD256">
-        <v>8.01</v>
-      </c>
-      <c r="AE256">
-        <v>0.12961165048543691</v>
-      </c>
-    </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>50</v>
       </c>
@@ -13189,17 +12115,14 @@
       <c r="Z257">
         <v>17.539579391479492</v>
       </c>
+      <c r="AA257">
+        <v>2.8063327026367189E-2</v>
+      </c>
       <c r="AB257">
         <v>12.435692138671875</v>
       </c>
-      <c r="AD257">
-        <v>7</v>
-      </c>
-      <c r="AE257">
-        <v>0.1408167370750352</v>
-      </c>
-    </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>53</v>
       </c>
@@ -13242,17 +12165,14 @@
       <c r="Z258">
         <v>18.0963134765625</v>
       </c>
+      <c r="AA258">
+        <v>2.8954101562500001E-2</v>
+      </c>
       <c r="AB258">
         <v>12.33913818359375</v>
       </c>
-      <c r="AD258">
-        <v>5.19</v>
-      </c>
-      <c r="AE258">
-        <v>0.15871559633027524</v>
-      </c>
-    </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>50</v>
       </c>
@@ -13295,17 +12215,14 @@
       <c r="Z259">
         <v>18.129749298095703</v>
       </c>
+      <c r="AA259">
+        <v>2.9007598876953127E-2</v>
+      </c>
       <c r="AB259">
         <v>12.6297265625</v>
       </c>
-      <c r="AD259">
-        <v>5.5</v>
-      </c>
-      <c r="AE259">
-        <v>0.15139003578309937</v>
-      </c>
-    </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>52</v>
       </c>
@@ -13348,17 +12265,14 @@
       <c r="Z260">
         <v>16.677360534667969</v>
       </c>
+      <c r="AA260">
+        <v>2.6683776855468747E-2</v>
+      </c>
       <c r="AB260">
         <v>12.71004150390625</v>
       </c>
-      <c r="AD260">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AE260">
-        <v>0.15960912052117265</v>
-      </c>
-    </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>48</v>
       </c>
@@ -13401,17 +12315,14 @@
       <c r="Z261">
         <v>20.003467559814453</v>
       </c>
+      <c r="AA261">
+        <v>3.2005548095703128E-2</v>
+      </c>
       <c r="AB261">
         <v>12.251032714843751</v>
       </c>
-      <c r="AD261">
-        <v>4.3</v>
-      </c>
-      <c r="AE261">
-        <v>0.14098360655737704</v>
-      </c>
-    </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>49</v>
       </c>
@@ -13454,17 +12365,14 @@
       <c r="Z262">
         <v>20.038270950317383</v>
       </c>
+      <c r="AA262">
+        <v>3.2061233520507812E-2</v>
+      </c>
       <c r="AB262">
         <v>12.2197900390625</v>
       </c>
-      <c r="AD262">
-        <v>4.5</v>
-      </c>
-      <c r="AE262">
-        <v>0.14788038120276042</v>
-      </c>
-    </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>51</v>
       </c>
@@ -13507,17 +12415,14 @@
       <c r="Z263">
         <v>15.176742553710938</v>
       </c>
+      <c r="AA263">
+        <v>2.42827880859375E-2</v>
+      </c>
       <c r="AB263">
         <v>12.772818603515626</v>
       </c>
-      <c r="AD263">
-        <v>5.7</v>
-      </c>
-      <c r="AE263">
-        <v>0.13946660141913386</v>
-      </c>
-    </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>50</v>
       </c>
@@ -13566,14 +12471,8 @@
       <c r="AB264">
         <v>11.651729736328125</v>
       </c>
-      <c r="AD264">
-        <v>6.26</v>
-      </c>
-      <c r="AE264">
-        <v>0.14904761904761904</v>
-      </c>
-    </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>48</v>
       </c>
@@ -13622,14 +12521,8 @@
       <c r="AB265">
         <v>12.00613037109375</v>
       </c>
-      <c r="AD265">
-        <v>7.66</v>
-      </c>
-      <c r="AE265">
-        <v>0.1532</v>
-      </c>
-    </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>49</v>
       </c>
@@ -13678,14 +12571,8 @@
       <c r="AB266">
         <v>12.1220068359375</v>
       </c>
-      <c r="AD266">
-        <v>6.7</v>
-      </c>
-      <c r="AE266">
-        <v>0.14084507042253522</v>
-      </c>
-    </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>52</v>
       </c>
@@ -13734,14 +12621,8 @@
       <c r="AB267">
         <v>12.037340087890625</v>
       </c>
-      <c r="AD267">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AE267">
-        <v>0.16078431372549018</v>
-      </c>
-    </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>53</v>
       </c>
@@ -13790,14 +12671,8 @@
       <c r="AB268">
         <v>11.908402099609376</v>
       </c>
-      <c r="AD268">
-        <v>4.2</v>
-      </c>
-      <c r="AE268">
-        <v>0.14872521246458925</v>
-      </c>
-    </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>51</v>
       </c>
@@ -13846,14 +12721,8 @@
       <c r="AB269">
         <v>11.560480957031251</v>
       </c>
-      <c r="AD269">
-        <v>7.18</v>
-      </c>
-      <c r="AE269">
-        <v>0.13496240601503759</v>
-      </c>
-    </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>49</v>
       </c>
@@ -13903,7 +12772,7 @@
         <v>11.99276123046875</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>53</v>
       </c>
@@ -13952,14 +12821,8 @@
       <c r="AB271">
         <v>11.731981201171875</v>
       </c>
-      <c r="AD271">
-        <v>3.3</v>
-      </c>
-      <c r="AE271">
-        <v>0.14012738853503184</v>
-      </c>
-    </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>52</v>
       </c>
@@ -14008,14 +12871,8 @@
       <c r="AB272">
         <v>12.12572509765625</v>
       </c>
-      <c r="AD272">
-        <v>2.59</v>
-      </c>
-      <c r="AE272">
-        <v>0.14791547687035977</v>
-      </c>
-    </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>51</v>
       </c>
@@ -14064,14 +12921,8 @@
       <c r="AB273">
         <v>11.937679443359375</v>
       </c>
-      <c r="AD273">
-        <v>3.59</v>
-      </c>
-      <c r="AE273">
-        <v>0.15134907251264756</v>
-      </c>
-    </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>48</v>
       </c>
@@ -14120,14 +12971,8 @@
       <c r="AB274">
         <v>11.625266113281251</v>
       </c>
-      <c r="AD274">
-        <v>4.5</v>
-      </c>
-      <c r="AE274">
-        <v>0.16245487364620939</v>
-      </c>
-    </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>50</v>
       </c>
@@ -14176,14 +13021,8 @@
       <c r="AB275">
         <v>11.485102539062501</v>
       </c>
-      <c r="AD275">
-        <v>7.2</v>
-      </c>
-      <c r="AE275">
-        <v>0.14845360824742268</v>
-      </c>
-    </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>53</v>
       </c>
@@ -14232,14 +13071,8 @@
       <c r="AB276">
         <v>11.79512939453125</v>
       </c>
-      <c r="AD276">
-        <v>2.87</v>
-      </c>
-      <c r="AE276">
-        <v>0.21010248901903367</v>
-      </c>
-    </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>50</v>
       </c>
@@ -14288,14 +13121,8 @@
       <c r="AB277">
         <v>12.016928710937501</v>
       </c>
-      <c r="AD277">
-        <v>2.57</v>
-      </c>
-      <c r="AE277">
-        <v>0.20843471208434711</v>
-      </c>
-    </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>52</v>
       </c>
@@ -14344,14 +13171,8 @@
       <c r="AB278">
         <v>12.027575683593751</v>
       </c>
-      <c r="AD278">
-        <v>3.3</v>
-      </c>
-      <c r="AE278">
-        <v>0.20295202952029517</v>
-      </c>
-    </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>48</v>
       </c>
@@ -14400,14 +13221,8 @@
       <c r="AB279">
         <v>11.9644189453125</v>
       </c>
-      <c r="AD279">
-        <v>5.9</v>
-      </c>
-      <c r="AE279">
-        <v>0.17739025856885149</v>
-      </c>
-    </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>49</v>
       </c>
@@ -14457,7 +13272,7 @@
         <v>12.127061767578125</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>51</v>
       </c>
@@ -14507,7 +13322,7 @@
         <v>11.72105224609375</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>52</v>
       </c>
@@ -14556,14 +13371,8 @@
       <c r="AB282">
         <v>12.0203955078125</v>
       </c>
-      <c r="AD282">
-        <v>12.92</v>
-      </c>
-      <c r="AE282">
-        <v>0.10316192909613542</v>
-      </c>
-    </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>53</v>
       </c>
@@ -14612,14 +13421,8 @@
       <c r="AB283">
         <v>11.684042968750001</v>
       </c>
-      <c r="AD283">
-        <v>13.44</v>
-      </c>
-      <c r="AE283">
-        <v>9.1646778042959426E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>49</v>
       </c>
@@ -14668,14 +13471,8 @@
       <c r="AB284">
         <v>12.035716552734375</v>
       </c>
-      <c r="AD284">
-        <v>9.42</v>
-      </c>
-      <c r="AE284">
-        <v>0.11478006579748995</v>
-      </c>
-    </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>51</v>
       </c>
@@ -14724,14 +13521,8 @@
       <c r="AB285">
         <v>11.789310302734375</v>
       </c>
-      <c r="AD285">
-        <v>11.95</v>
-      </c>
-      <c r="AE285">
-        <v>0.10080985321410493</v>
-      </c>
-    </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>48</v>
       </c>
@@ -14780,14 +13571,8 @@
       <c r="AB286">
         <v>11.85494384765625</v>
       </c>
-      <c r="AD286">
-        <v>11.04</v>
-      </c>
-      <c r="AE286">
-        <v>8.1747500925583111E-2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>50</v>
       </c>
@@ -14836,14 +13621,8 @@
       <c r="AB287">
         <v>11.740249023437499</v>
       </c>
-      <c r="AD287">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="AE287">
-        <v>9.8063200815494397E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>50</v>
       </c>
@@ -14892,14 +13671,8 @@
       <c r="AB288">
         <v>12.078417968750001</v>
       </c>
-      <c r="AD288">
-        <v>11.66</v>
-      </c>
-      <c r="AE288">
-        <v>0.10733683144619351</v>
-      </c>
-    </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>48</v>
       </c>
@@ -14948,14 +13721,8 @@
       <c r="AB289">
         <v>12.45797119140625</v>
       </c>
-      <c r="AD289">
-        <v>10.7</v>
-      </c>
-      <c r="AE289">
-        <v>0.12415873752610813</v>
-      </c>
-    </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>49</v>
       </c>
@@ -15004,14 +13771,8 @@
       <c r="AB290">
         <v>12.39943115234375</v>
       </c>
-      <c r="AD290">
-        <v>9.42</v>
-      </c>
-      <c r="AE290">
-        <v>0.10570017953321365</v>
-      </c>
-    </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>52</v>
       </c>
@@ -15060,14 +13821,8 @@
       <c r="AB291">
         <v>12.34982666015625</v>
       </c>
-      <c r="AD291">
-        <v>7.81</v>
-      </c>
-      <c r="AE291">
-        <v>0.11978527607361962</v>
-      </c>
-    </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>53</v>
       </c>
@@ -15116,14 +13871,8 @@
       <c r="AB292">
         <v>12.157918701171875</v>
       </c>
-      <c r="AD292">
-        <v>7.57</v>
-      </c>
-      <c r="AE292">
-        <v>0.10559352768865951</v>
-      </c>
-    </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>51</v>
       </c>
@@ -15172,14 +13921,8 @@
       <c r="AB293">
         <v>12.089852294921876</v>
       </c>
-      <c r="AD293">
-        <v>7.95</v>
-      </c>
-      <c r="AE293">
-        <v>9.051576909939657E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>49</v>
       </c>
@@ -15228,14 +13971,8 @@
       <c r="AB294">
         <v>12.399429931640626</v>
       </c>
-      <c r="AD294">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AE294">
-        <v>0.1219875037191312</v>
-      </c>
-    </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>53</v>
       </c>
@@ -15284,14 +14021,8 @@
       <c r="AB295">
         <v>12.551834716796876</v>
       </c>
-      <c r="AD295">
-        <v>10.91</v>
-      </c>
-      <c r="AE295">
-        <v>0.1370603015075377</v>
-      </c>
-    </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>52</v>
       </c>
@@ -15340,14 +14071,8 @@
       <c r="AB296">
         <v>12.465643310546875</v>
       </c>
-      <c r="AD296">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="AE296">
-        <v>0.13833075734157649</v>
-      </c>
-    </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>51</v>
       </c>
@@ -15396,14 +14121,8 @@
       <c r="AB297">
         <v>12.387728271484375</v>
       </c>
-      <c r="AD297">
-        <v>10.07</v>
-      </c>
-      <c r="AE297">
-        <v>0.10989850485648806</v>
-      </c>
-    </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>48</v>
       </c>
@@ -15452,14 +14171,8 @@
       <c r="AB298">
         <v>12.59406494140625</v>
       </c>
-      <c r="AD298">
-        <v>10.65</v>
-      </c>
-      <c r="AE298">
-        <v>0.10990712074303405</v>
-      </c>
-    </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
         <v>50</v>
       </c>
@@ -15508,14 +14221,8 @@
       <c r="AB299">
         <v>12.2767236328125</v>
       </c>
-      <c r="AD299">
-        <v>8.6</v>
-      </c>
-      <c r="AE299">
-        <v>0.10224705742480085</v>
-      </c>
-    </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>53</v>
       </c>
@@ -15564,14 +14271,8 @@
       <c r="AB300">
         <v>12.302512207031251</v>
       </c>
-      <c r="AD300">
-        <v>9.9</v>
-      </c>
-      <c r="AE300">
-        <v>0.11666273862832902</v>
-      </c>
-    </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
         <v>50</v>
       </c>
@@ -15620,14 +14321,8 @@
       <c r="AB301">
         <v>12.395112304687501</v>
       </c>
-      <c r="AD301">
-        <v>11.43</v>
-      </c>
-      <c r="AE301">
-        <v>0.14466523224908237</v>
-      </c>
-    </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
         <v>52</v>
       </c>
@@ -15676,14 +14371,8 @@
       <c r="AB302">
         <v>12.679569091796875</v>
       </c>
-      <c r="AD302">
-        <v>12.71</v>
-      </c>
-      <c r="AE302">
-        <v>0.11006234845860756</v>
-      </c>
-    </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
         <v>48</v>
       </c>
@@ -15732,14 +14421,8 @@
       <c r="AB303">
         <v>12.430628662109376</v>
       </c>
-      <c r="AD303">
-        <v>9.58</v>
-      </c>
-      <c r="AE303">
-        <v>8.882707464070469E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
         <v>49</v>
       </c>
@@ -15788,14 +14471,8 @@
       <c r="AB304">
         <v>12.519527587890625</v>
       </c>
-      <c r="AD304">
-        <v>11.21</v>
-      </c>
-      <c r="AE304">
-        <v>0.12026606587276045</v>
-      </c>
-    </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>51</v>
       </c>
@@ -15844,14 +14521,8 @@
       <c r="AB305">
         <v>12.161968994140626</v>
       </c>
-      <c r="AD305">
-        <v>11.14</v>
-      </c>
-      <c r="AE305">
-        <v>0.1260323566014255</v>
-      </c>
-    </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>52</v>
       </c>
@@ -15900,14 +14571,8 @@
       <c r="AB306">
         <v>12.443980712890625</v>
       </c>
-      <c r="AD306">
-        <v>11.15</v>
-      </c>
-      <c r="AE306">
-        <v>8.8421887390959561E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>53</v>
       </c>
@@ -15956,14 +14621,8 @@
       <c r="AB307">
         <v>12.2190966796875</v>
       </c>
-      <c r="AD307">
-        <v>11.62</v>
-      </c>
-      <c r="AE307">
-        <v>8.1287163343826518E-2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>49</v>
       </c>
@@ -16012,14 +14671,8 @@
       <c r="AB308">
         <v>12.635831298828125</v>
       </c>
-      <c r="AD308">
-        <v>10.89</v>
-      </c>
-      <c r="AE308">
-        <v>0.10496385542168675</v>
-      </c>
-    </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>51</v>
       </c>
@@ -16068,14 +14721,8 @@
       <c r="AB309">
         <v>12.437906494140625</v>
       </c>
-      <c r="AD309">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="AE309">
-        <v>4.7402093834819699E-2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>48</v>
       </c>
@@ -16124,14 +14771,8 @@
       <c r="AB310">
         <v>12.440849609375</v>
       </c>
-      <c r="AD310">
-        <v>12.44</v>
-      </c>
-      <c r="AE310">
-        <v>9.1302752293577982E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>50</v>
       </c>
@@ -16180,14 +14821,8 @@
       <c r="AB311">
         <v>11.721748046875</v>
       </c>
-      <c r="AD311">
-        <v>11.24</v>
-      </c>
-      <c r="AE311">
-        <v>9.4700480242648918E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>50</v>
       </c>
@@ -16236,14 +14871,8 @@
       <c r="AB312">
         <v>12.83817626953125</v>
       </c>
-      <c r="AD312">
-        <v>12.91</v>
-      </c>
-      <c r="AE312">
-        <v>7.7911888955944489E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>48</v>
       </c>
@@ -16292,14 +14921,8 @@
       <c r="AB313">
         <v>13.211258544921876</v>
       </c>
-      <c r="AD313">
-        <v>14.55</v>
-      </c>
-      <c r="AE313">
-        <v>9.867082598670826E-2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>49</v>
       </c>
@@ -16348,14 +14971,8 @@
       <c r="AB314">
         <v>13.747733154296876</v>
       </c>
-      <c r="AD314">
-        <v>10.51</v>
-      </c>
-      <c r="AE314">
-        <v>9.9847995439863182E-2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>52</v>
       </c>
@@ -16404,14 +15021,8 @@
       <c r="AB315">
         <v>13.406990966796876</v>
       </c>
-      <c r="AD315">
-        <v>11.02</v>
-      </c>
-      <c r="AE315">
-        <v>0.10712549820161368</v>
-      </c>
-    </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>53</v>
       </c>
@@ -16460,14 +15071,8 @@
       <c r="AB316">
         <v>13.065396728515625</v>
       </c>
-      <c r="AD316">
-        <v>11.09</v>
-      </c>
-      <c r="AE316">
-        <v>9.9417301658449128E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>51</v>
       </c>
@@ -16516,14 +15121,8 @@
       <c r="AB317">
         <v>13.193233642578125</v>
       </c>
-      <c r="AD317">
-        <v>12.95</v>
-      </c>
-      <c r="AE317">
-        <v>9.1674925668979182E-2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>49</v>
       </c>
@@ -16572,14 +15171,8 @@
       <c r="AB318">
         <v>13.45530517578125</v>
       </c>
-      <c r="AD318">
-        <v>11.6</v>
-      </c>
-      <c r="AE318">
-        <v>0.13220879872350125</v>
-      </c>
-    </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>53</v>
       </c>
@@ -16628,14 +15221,8 @@
       <c r="AB319">
         <v>12.96216064453125</v>
       </c>
-      <c r="AD319">
-        <v>14.72</v>
-      </c>
-      <c r="AE319">
-        <v>0.13359956434924669</v>
-      </c>
-    </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>52</v>
       </c>
@@ -16684,14 +15271,8 @@
       <c r="AB320">
         <v>13.48829833984375</v>
       </c>
-      <c r="AD320">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="AE320">
-        <v>0.16196498054474706</v>
-      </c>
-    </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>51</v>
       </c>
@@ -16740,14 +15321,8 @@
       <c r="AB321">
         <v>13.226094970703125</v>
       </c>
-      <c r="AD321">
-        <v>15.24</v>
-      </c>
-      <c r="AE321">
-        <v>0.10537961554418476</v>
-      </c>
-    </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>48</v>
       </c>
@@ -16796,14 +15371,8 @@
       <c r="AB322">
         <v>13.293889160156251</v>
       </c>
-      <c r="AD322">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="AE322">
-        <v>0.10497453975714843</v>
-      </c>
-    </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>50</v>
       </c>
@@ -16852,14 +15421,8 @@
       <c r="AB323">
         <v>12.839200439453125</v>
       </c>
-      <c r="AD323">
-        <v>11.61</v>
-      </c>
-      <c r="AE323">
-        <v>9.7268766756032174E-2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>53</v>
       </c>
@@ -16908,14 +15471,8 @@
       <c r="AB324">
         <v>12.92395263671875</v>
       </c>
-      <c r="AD324">
-        <v>15.9</v>
-      </c>
-      <c r="AE324">
-        <v>0.13894957616009787</v>
-      </c>
-    </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>50</v>
       </c>
@@ -16964,14 +15521,8 @@
       <c r="AB325">
         <v>12.93458740234375</v>
       </c>
-      <c r="AD325">
-        <v>12.61</v>
-      </c>
-      <c r="AE325">
-        <v>0.12571029807596451</v>
-      </c>
-    </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>52</v>
       </c>
@@ -17020,14 +15571,8 @@
       <c r="AB326">
         <v>13.51830322265625</v>
       </c>
-      <c r="AD326">
-        <v>11.51</v>
-      </c>
-      <c r="AE326">
-        <v>0.11389273698792796</v>
-      </c>
-    </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>48</v>
       </c>
@@ -17076,14 +15621,8 @@
       <c r="AB327">
         <v>13.346650390625001</v>
       </c>
-      <c r="AD327">
-        <v>12.11</v>
-      </c>
-      <c r="AE327">
-        <v>9.4883648045130456E-2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>49</v>
       </c>
@@ -17132,14 +15671,8 @@
       <c r="AB328">
         <v>13.59510009765625</v>
       </c>
-      <c r="AD328">
-        <v>14.15</v>
-      </c>
-      <c r="AE328">
-        <v>0.13850822239624119</v>
-      </c>
-    </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>51</v>
       </c>
@@ -17188,14 +15721,8 @@
       <c r="AB329">
         <v>12.897971191406251</v>
       </c>
-      <c r="AD329">
-        <v>13.84</v>
-      </c>
-      <c r="AE329">
-        <v>0.14039358896327855</v>
-      </c>
-    </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>52</v>
       </c>
@@ -17244,14 +15771,8 @@
       <c r="AB330">
         <v>13.128945312500001</v>
       </c>
-      <c r="AD330">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="AE330">
-        <v>0.1296969696969697</v>
-      </c>
-    </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>53</v>
       </c>
@@ -17300,14 +15821,8 @@
       <c r="AB331">
         <v>13.360319824218751</v>
       </c>
-      <c r="AD331">
-        <v>7.66</v>
-      </c>
-      <c r="AE331">
-        <v>0.10755405784891885</v>
-      </c>
-    </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>49</v>
       </c>
@@ -17356,14 +15871,8 @@
       <c r="AB332">
         <v>13.073870849609376</v>
       </c>
-      <c r="AD332">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="AE332">
-        <v>0.12469623329283111</v>
-      </c>
-    </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>51</v>
       </c>
@@ -17412,14 +15921,8 @@
       <c r="AB333">
         <v>13.63313720703125</v>
       </c>
-      <c r="AD333">
-        <v>7.89</v>
-      </c>
-      <c r="AE333">
-        <v>0.11391856771585329</v>
-      </c>
-    </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>48</v>
       </c>
@@ -17468,14 +15971,8 @@
       <c r="AB334">
         <v>13.20021240234375</v>
       </c>
-      <c r="AD334">
-        <v>7.19</v>
-      </c>
-      <c r="AE334">
-        <v>0.11178482587064678</v>
-      </c>
-    </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>50</v>
       </c>
@@ -17524,14 +16021,8 @@
       <c r="AB335">
         <v>13.349183349609376</v>
       </c>
-      <c r="AD335">
-        <v>6.67</v>
-      </c>
-      <c r="AE335">
-        <v>0.10272601262898505</v>
-      </c>
-    </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>50</v>
       </c>
@@ -17580,14 +16071,8 @@
       <c r="AB336">
         <v>11.835311279296874</v>
       </c>
-      <c r="AD336">
-        <v>8.32</v>
-      </c>
-      <c r="AE336">
-        <v>9.1078270388615226E-2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>48</v>
       </c>
@@ -17636,14 +16121,8 @@
       <c r="AB337">
         <v>12.256412353515625</v>
       </c>
-      <c r="AD337">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="AE337">
-        <v>0.10047735475608337</v>
-      </c>
-    </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>49</v>
       </c>
@@ -17692,14 +16171,8 @@
       <c r="AB338">
         <v>12.39552734375</v>
       </c>
-      <c r="AD338">
-        <v>9.48</v>
-      </c>
-      <c r="AE338">
-        <v>0.10095846645367412</v>
-      </c>
-    </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>52</v>
       </c>
@@ -17748,14 +16221,8 @@
       <c r="AB339">
         <v>12.053289794921875</v>
       </c>
-      <c r="AD339">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="AE339">
-        <v>0.10882352941176472</v>
-      </c>
-    </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>53</v>
       </c>
@@ -17804,14 +16271,8 @@
       <c r="AB340">
         <v>12.060334472656251</v>
       </c>
-      <c r="AD340">
-        <v>10.45</v>
-      </c>
-      <c r="AE340">
-        <v>0.1014169254658385</v>
-      </c>
-    </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>51</v>
       </c>
@@ -17860,14 +16321,8 @@
       <c r="AB341">
         <v>12.04386474609375</v>
       </c>
-      <c r="AD341">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="AE341">
-        <v>9.7560975609756087E-2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>49</v>
       </c>
@@ -17916,14 +16371,8 @@
       <c r="AB342">
         <v>12.531569824218749</v>
       </c>
-      <c r="AD342">
-        <v>7.07</v>
-      </c>
-      <c r="AE342">
-        <v>0.11964799458453207</v>
-      </c>
-    </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>53</v>
       </c>
@@ -17972,14 +16421,8 @@
       <c r="AB343">
         <v>12.0946484375</v>
       </c>
-      <c r="AD343">
-        <v>7.07</v>
-      </c>
-      <c r="AE343">
-        <v>0.11306572845034384</v>
-      </c>
-    </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>52</v>
       </c>
@@ -18028,14 +16471,8 @@
       <c r="AB344">
         <v>12.2846240234375</v>
       </c>
-      <c r="AD344">
-        <v>6.23</v>
-      </c>
-      <c r="AE344">
-        <v>0.13280750373054787</v>
-      </c>
-    </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>51</v>
       </c>
@@ -18084,14 +16521,8 @@
       <c r="AB345">
         <v>11.777436523437499</v>
       </c>
-      <c r="AD345">
-        <v>8.01</v>
-      </c>
-      <c r="AE345">
-        <v>0.10496658367186476</v>
-      </c>
-    </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>48</v>
       </c>
@@ -18140,14 +16571,8 @@
       <c r="AB346">
         <v>12.07454345703125</v>
       </c>
-      <c r="AD346">
-        <v>9.4</v>
-      </c>
-      <c r="AE346">
-        <v>0.10078267395732819</v>
-      </c>
-    </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>50</v>
       </c>
@@ -18196,14 +16621,8 @@
       <c r="AB347">
         <v>11.825115966796876</v>
       </c>
-      <c r="AD347">
-        <v>7.83</v>
-      </c>
-      <c r="AE347">
-        <v>0.10283687943262411</v>
-      </c>
-    </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>53</v>
       </c>
@@ -18252,14 +16671,8 @@
       <c r="AB348">
         <v>11.994562988281251</v>
       </c>
-      <c r="AD348">
-        <v>11.54</v>
-      </c>
-      <c r="AE348">
-        <v>0.12363402614098992</v>
-      </c>
-    </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>50</v>
       </c>
@@ -18308,14 +16721,8 @@
       <c r="AB349">
         <v>11.585755615234374</v>
       </c>
-      <c r="AD349">
-        <v>12.21</v>
-      </c>
-      <c r="AE349">
-        <v>0.12607124419204957</v>
-      </c>
-    </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>52</v>
       </c>
@@ -18364,14 +16771,8 @@
       <c r="AB350">
         <v>11.14854248046875</v>
       </c>
-      <c r="AD350">
-        <v>9.19</v>
-      </c>
-      <c r="AE350">
-        <v>0.10967895930301944</v>
-      </c>
-    </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
         <v>48</v>
       </c>
@@ -18420,14 +16821,8 @@
       <c r="AB351">
         <v>12.12163330078125</v>
       </c>
-      <c r="AD351">
-        <v>9.09</v>
-      </c>
-      <c r="AE351">
-        <v>0.10067560084173219</v>
-      </c>
-    </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
         <v>49</v>
       </c>
@@ -18476,14 +16871,8 @@
       <c r="AB352">
         <v>12.225982666015625</v>
       </c>
-      <c r="AD352">
-        <v>7.84</v>
-      </c>
-      <c r="AE352">
-        <v>0.11711980878398566</v>
-      </c>
-    </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
         <v>51</v>
       </c>
@@ -18532,14 +16921,8 @@
       <c r="AB353">
         <v>12.05953369140625</v>
       </c>
-      <c r="AD353">
-        <v>9.61</v>
-      </c>
-      <c r="AE353">
-        <v>0.1266640305786213</v>
-      </c>
-    </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
         <v>52</v>
       </c>
@@ -18588,14 +16971,8 @@
       <c r="AB354">
         <v>11.90455078125</v>
       </c>
-      <c r="AD354">
-        <v>7.66</v>
-      </c>
-      <c r="AE354">
-        <v>0.12882610158089472</v>
-      </c>
-    </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>53</v>
       </c>
@@ -18644,14 +17021,8 @@
       <c r="AB355">
         <v>12.1445654296875</v>
       </c>
-      <c r="AD355">
-        <v>8.67</v>
-      </c>
-      <c r="AE355">
-        <v>0.12100488485694347</v>
-      </c>
-    </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>49</v>
       </c>
@@ -18700,14 +17071,8 @@
       <c r="AB356">
         <v>12.233732910156251</v>
       </c>
-      <c r="AD356">
-        <v>7.37</v>
-      </c>
-      <c r="AE356">
-        <v>0.13540327025537388</v>
-      </c>
-    </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>51</v>
       </c>
@@ -18756,14 +17121,8 @@
       <c r="AB357">
         <v>11.876156005859375</v>
       </c>
-      <c r="AD357">
-        <v>7.77</v>
-      </c>
-      <c r="AE357">
-        <v>0.12050248138957816</v>
-      </c>
-    </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
         <v>48</v>
       </c>
@@ -18812,14 +17171,8 @@
       <c r="AB358">
         <v>11.93262451171875</v>
       </c>
-      <c r="AD358">
-        <v>7.1</v>
-      </c>
-      <c r="AE358">
-        <v>0.1059069212410501</v>
-      </c>
-    </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
         <v>50</v>
       </c>
@@ -18868,14 +17221,8 @@
       <c r="AB359">
         <v>11.548415527343749</v>
       </c>
-      <c r="AD359">
-        <v>8.65</v>
-      </c>
-      <c r="AE359">
-        <v>0.11686030802485815</v>
-      </c>
-    </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
         <v>50</v>
       </c>
@@ -18918,17 +17265,14 @@
       <c r="Z360">
         <v>21.970130920410156</v>
       </c>
+      <c r="AA360">
+        <v>3.5152209472656251E-2</v>
+      </c>
       <c r="AB360">
         <v>9.8663244628906259</v>
       </c>
-      <c r="AD360">
-        <v>7.36</v>
-      </c>
-      <c r="AE360">
-        <v>0.11678832116788321</v>
-      </c>
-    </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
         <v>48</v>
       </c>
@@ -18971,17 +17315,14 @@
       <c r="Z361">
         <v>24.582998275756836</v>
       </c>
+      <c r="AA361">
+        <v>3.9332797241210943E-2</v>
+      </c>
       <c r="AB361">
         <v>11.34382080078125</v>
       </c>
-      <c r="AD361">
-        <v>6.11</v>
-      </c>
-      <c r="AE361">
-        <v>0.11241950321987121</v>
-      </c>
-    </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
         <v>49</v>
       </c>
@@ -19024,17 +17365,14 @@
       <c r="Z362">
         <v>28.398887634277344</v>
       </c>
+      <c r="AA362">
+        <v>4.5438220214843748E-2</v>
+      </c>
       <c r="AB362">
         <v>11.778887939453126</v>
       </c>
-      <c r="AD362">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="AE362">
-        <v>0.12457210894478345</v>
-      </c>
-    </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>52</v>
       </c>
@@ -19077,17 +17415,14 @@
       <c r="Z363">
         <v>25.949207305908203</v>
       </c>
+      <c r="AA363">
+        <v>4.1518731689453123E-2</v>
+      </c>
       <c r="AB363">
         <v>11.509532470703125</v>
       </c>
-      <c r="AD363">
-        <v>9.23</v>
-      </c>
-      <c r="AE363">
-        <v>0.12588652482269505</v>
-      </c>
-    </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>53</v>
       </c>
@@ -19130,17 +17465,14 @@
       <c r="Z364">
         <v>23.098609924316406</v>
       </c>
+      <c r="AA364">
+        <v>3.6957775878906252E-2</v>
+      </c>
       <c r="AB364">
         <v>10.228055419921875</v>
       </c>
-      <c r="AD364">
-        <v>6.27</v>
-      </c>
-      <c r="AE364">
-        <v>0.12850994056159049</v>
-      </c>
-    </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
         <v>51</v>
       </c>
@@ -19183,17 +17515,14 @@
       <c r="Z365">
         <v>20.803432464599609</v>
       </c>
+      <c r="AA365">
+        <v>3.328549194335937E-2</v>
+      </c>
       <c r="AB365">
         <v>10.217135009765625</v>
       </c>
-      <c r="AD365">
-        <v>5.52</v>
-      </c>
-      <c r="AE365">
-        <v>0.10802348336594911</v>
-      </c>
-    </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
         <v>49</v>
       </c>
@@ -19236,17 +17565,14 @@
       <c r="Z366">
         <v>30.163047790527344</v>
       </c>
+      <c r="AA366">
+        <v>4.8260876464843748E-2</v>
+      </c>
       <c r="AB366">
         <v>11.9211669921875</v>
       </c>
-      <c r="AD366">
-        <v>6.73</v>
-      </c>
-      <c r="AE366">
-        <v>0.12607718246534283</v>
-      </c>
-    </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
         <v>53</v>
       </c>
@@ -19289,17 +17615,14 @@
       <c r="Z367">
         <v>27.006189346313477</v>
       </c>
+      <c r="AA367">
+        <v>4.3209902954101563E-2</v>
+      </c>
       <c r="AB367">
         <v>11.21503662109375</v>
       </c>
-      <c r="AD367">
-        <v>7.49</v>
-      </c>
-      <c r="AE367">
-        <v>0.15915852103697406</v>
-      </c>
-    </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
         <v>52</v>
       </c>
@@ -19342,17 +17665,14 @@
       <c r="Z368">
         <v>27.174009323120117</v>
       </c>
+      <c r="AA368">
+        <v>4.347841491699219E-2</v>
+      </c>
       <c r="AB368">
         <v>11.651285400390625</v>
       </c>
-      <c r="AD368">
-        <v>7.42</v>
-      </c>
-      <c r="AE368">
-        <v>0.1263408820023838</v>
-      </c>
-    </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
         <v>51</v>
       </c>
@@ -19395,17 +17715,14 @@
       <c r="Z369">
         <v>25.148866653442383</v>
       </c>
+      <c r="AA369">
+        <v>4.0238186645507809E-2</v>
+      </c>
       <c r="AB369">
         <v>11.32286865234375</v>
       </c>
-      <c r="AD369">
-        <v>7.08</v>
-      </c>
-      <c r="AE369">
-        <v>0.11923206466823846</v>
-      </c>
-    </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
         <v>48</v>
       </c>
@@ -19448,17 +17765,14 @@
       <c r="Z370">
         <v>27.850933074951172</v>
       </c>
+      <c r="AA370">
+        <v>4.4561492919921876E-2</v>
+      </c>
       <c r="AB370">
         <v>11.19934814453125</v>
       </c>
-      <c r="AD370">
-        <v>7.55</v>
-      </c>
-      <c r="AE370">
-        <v>0.12220783425056653</v>
-      </c>
-    </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
         <v>50</v>
       </c>
@@ -19501,17 +17815,14 @@
       <c r="Z371">
         <v>26.16453742980957</v>
       </c>
+      <c r="AA371">
+        <v>4.1863259887695313E-2</v>
+      </c>
       <c r="AB371">
         <v>11.109208984375</v>
       </c>
-      <c r="AD371">
-        <v>5.24</v>
-      </c>
-      <c r="AE371">
-        <v>0.11203763096001711</v>
-      </c>
-    </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
         <v>53</v>
       </c>
@@ -19554,17 +17865,14 @@
       <c r="Z372">
         <v>21.898580551147461</v>
       </c>
+      <c r="AA372">
+        <v>3.5037728881835942E-2</v>
+      </c>
       <c r="AB372">
         <v>10.897856445312501</v>
       </c>
-      <c r="AD372">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="AE372">
-        <v>0.12772505770710438</v>
-      </c>
-    </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
         <v>50</v>
       </c>
@@ -19607,17 +17915,14 @@
       <c r="Z373">
         <v>21.557670593261719</v>
       </c>
+      <c r="AA373">
+        <v>3.449227294921875E-2</v>
+      </c>
       <c r="AB373">
         <v>10.996065673828125</v>
       </c>
-      <c r="AD373">
-        <v>5.63</v>
-      </c>
-      <c r="AE373">
-        <v>0.12694475760992108</v>
-      </c>
-    </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
         <v>52</v>
       </c>
@@ -19660,17 +17965,14 @@
       <c r="Z374">
         <v>24.325611114501953</v>
       </c>
+      <c r="AA374">
+        <v>3.8920977783203123E-2</v>
+      </c>
       <c r="AB374">
         <v>11.7190625</v>
       </c>
-      <c r="AD374">
-        <v>8.09</v>
-      </c>
-      <c r="AE374">
-        <v>0.11976313841598817</v>
-      </c>
-    </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
         <v>48</v>
       </c>
@@ -19713,17 +18015,14 @@
       <c r="Z375">
         <v>24.417442321777344</v>
       </c>
+      <c r="AA375">
+        <v>3.9067907714843753E-2</v>
+      </c>
       <c r="AB375">
         <v>11.622862548828126</v>
       </c>
-      <c r="AD375">
-        <v>5.64</v>
-      </c>
-      <c r="AE375">
-        <v>0.12149935372684187</v>
-      </c>
-    </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
         <v>49</v>
       </c>
@@ -19766,17 +18065,14 @@
       <c r="Z376">
         <v>31.553033828735352</v>
       </c>
+      <c r="AA376">
+        <v>5.0484854125976558E-2</v>
+      </c>
       <c r="AB376">
         <v>11.86765625</v>
       </c>
-      <c r="AD376">
-        <v>7.46</v>
-      </c>
-      <c r="AE376">
-        <v>0.21127159444916452</v>
-      </c>
-    </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
         <v>51</v>
       </c>
@@ -19819,17 +18115,14 @@
       <c r="Z377">
         <v>23.927534103393555</v>
       </c>
+      <c r="AA377">
+        <v>3.8284054565429687E-2</v>
+      </c>
       <c r="AB377">
         <v>10.69849609375</v>
       </c>
-      <c r="AD377">
-        <v>5.9</v>
-      </c>
-      <c r="AE377">
-        <v>0.12371566366114491</v>
-      </c>
-    </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
         <v>50</v>
       </c>
@@ -19872,17 +18165,14 @@
       <c r="Z378">
         <v>19.024055480957031</v>
       </c>
+      <c r="AA378">
+        <v>3.0438488769531247E-2</v>
+      </c>
       <c r="AB378">
         <v>11.487961425781251</v>
       </c>
-      <c r="AD378">
-        <v>6.81</v>
-      </c>
-      <c r="AE378">
-        <v>0.10260659936718396</v>
-      </c>
-    </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
         <v>48</v>
       </c>
@@ -19925,17 +18215,14 @@
       <c r="Z379">
         <v>16.923118591308594</v>
       </c>
+      <c r="AA379">
+        <v>2.7076989746093752E-2</v>
+      </c>
       <c r="AB379">
         <v>10.661225585937499</v>
       </c>
-      <c r="AD379">
-        <v>6.67</v>
-      </c>
-      <c r="AE379">
-        <v>0.10558809561500712</v>
-      </c>
-    </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
         <v>49</v>
       </c>
@@ -19978,17 +18265,14 @@
       <c r="Z380">
         <v>23.174575805664062</v>
       </c>
+      <c r="AA380">
+        <v>3.7079321289062502E-2</v>
+      </c>
       <c r="AB380">
         <v>11.786851806640625</v>
       </c>
-      <c r="AD380">
-        <v>6.17</v>
-      </c>
-      <c r="AE380">
-        <v>0.10805604203152364</v>
-      </c>
-    </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
         <v>52</v>
       </c>
@@ -20031,17 +18315,14 @@
       <c r="Z381">
         <v>20.259777069091797</v>
       </c>
+      <c r="AA381">
+        <v>3.2415643310546874E-2</v>
+      </c>
       <c r="AB381">
         <v>12.19716064453125</v>
       </c>
-      <c r="AD381">
-        <v>6.65</v>
-      </c>
-      <c r="AE381">
-        <v>0.10191570881226054</v>
-      </c>
-    </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
         <v>53</v>
       </c>
@@ -20084,17 +18365,14 @@
       <c r="Z382">
         <v>17.75799560546875</v>
       </c>
+      <c r="AA382">
+        <v>2.841279296875E-2</v>
+      </c>
       <c r="AB382">
         <v>11.26218994140625</v>
       </c>
-      <c r="AD382">
-        <v>5.34</v>
-      </c>
-      <c r="AE382">
-        <v>0.11626387981711299</v>
-      </c>
-    </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
         <v>51</v>
       </c>
@@ -20137,17 +18415,14 @@
       <c r="Z383">
         <v>16.973888397216797</v>
       </c>
+      <c r="AA383">
+        <v>2.7158221435546873E-2</v>
+      </c>
       <c r="AB383">
         <v>11.170218505859376</v>
       </c>
-      <c r="AD383">
-        <v>5.12</v>
-      </c>
-      <c r="AE383">
-        <v>6.9821355516159825E-2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
         <v>49</v>
       </c>
@@ -20190,17 +18465,14 @@
       <c r="Z384">
         <v>22.420671463012695</v>
       </c>
+      <c r="AA384">
+        <v>3.5873074340820314E-2</v>
+      </c>
       <c r="AB384">
         <v>12.642333984375</v>
       </c>
-      <c r="AD384">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="AE384">
-        <v>0.11504528878955415</v>
-      </c>
-    </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
         <v>53</v>
       </c>
@@ -20243,17 +18515,14 @@
       <c r="Z385">
         <v>18.20228385925293</v>
       </c>
+      <c r="AA385">
+        <v>2.9123654174804687E-2</v>
+      </c>
       <c r="AB385">
         <v>11.91087890625</v>
       </c>
-      <c r="AD385">
-        <v>6.79</v>
-      </c>
-      <c r="AE385">
-        <v>0.10844912953202364</v>
-      </c>
-    </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
         <v>52</v>
       </c>
@@ -20296,17 +18565,14 @@
       <c r="Z386">
         <v>24.632333755493164</v>
       </c>
+      <c r="AA386">
+        <v>3.9411734008789064E-2</v>
+      </c>
       <c r="AB386">
         <v>12.510971679687501</v>
       </c>
-      <c r="AD386">
-        <v>5.83</v>
-      </c>
-      <c r="AE386">
-        <v>9.2378386943432103E-2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
         <v>51</v>
       </c>
@@ -20349,17 +18615,14 @@
       <c r="Z387">
         <v>20.642650604248047</v>
       </c>
+      <c r="AA387">
+        <v>3.3028240966796879E-2</v>
+      </c>
       <c r="AB387">
         <v>12.03261962890625</v>
       </c>
-      <c r="AD387">
-        <v>6.81</v>
-      </c>
-      <c r="AE387">
-        <v>0.10554866707997521</v>
-      </c>
-    </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
         <v>48</v>
       </c>
@@ -20402,17 +18665,14 @@
       <c r="Z388">
         <v>20.3529052734375</v>
       </c>
+      <c r="AA388">
+        <v>3.2564648437499996E-2</v>
+      </c>
       <c r="AB388">
         <v>11.715997314453125</v>
       </c>
-      <c r="AD388">
-        <v>6.77</v>
-      </c>
-      <c r="AE388">
-        <v>0.10373889059148021</v>
-      </c>
-    </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
         <v>50</v>
       </c>
@@ -20455,17 +18715,14 @@
       <c r="Z389">
         <v>18.312812805175781</v>
       </c>
+      <c r="AA389">
+        <v>2.9300500488281252E-2</v>
+      </c>
       <c r="AB389">
         <v>11.720030517578126</v>
       </c>
-      <c r="AD389">
-        <v>5.45</v>
-      </c>
-      <c r="AE389">
-        <v>9.2624065261726715E-2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
         <v>53</v>
       </c>
@@ -20508,17 +18765,14 @@
       <c r="Z390">
         <v>18.46221923828125</v>
       </c>
+      <c r="AA390">
+        <v>2.953955078125E-2</v>
+      </c>
       <c r="AB390">
         <v>11.481539306640625</v>
       </c>
-      <c r="AD390">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="AE390">
-        <v>0.11091184991033246</v>
-      </c>
-    </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
         <v>50</v>
       </c>
@@ -20561,17 +18815,14 @@
       <c r="Z391">
         <v>17.628870010375977</v>
       </c>
+      <c r="AA391">
+        <v>2.8206192016601562E-2</v>
+      </c>
       <c r="AB391">
         <v>11.11029296875</v>
       </c>
-      <c r="AD391">
-        <v>6.51</v>
-      </c>
-      <c r="AE391">
-        <v>0.11013364912874302</v>
-      </c>
-    </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
         <v>52</v>
       </c>
@@ -20614,17 +18865,14 @@
       <c r="Z392">
         <v>19.14607048034668</v>
       </c>
+      <c r="AA392">
+        <v>3.0633712768554689E-2</v>
+      </c>
       <c r="AB392">
         <v>11.767337646484375</v>
       </c>
-      <c r="AD392">
-        <v>6.75</v>
-      </c>
-      <c r="AE392">
-        <v>9.3052109181141429E-2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
         <v>48</v>
       </c>
@@ -20667,17 +18915,14 @@
       <c r="Z393">
         <v>20.809694290161133</v>
       </c>
+      <c r="AA393">
+        <v>3.3295510864257812E-2</v>
+      </c>
       <c r="AB393">
         <v>11.959969482421876</v>
       </c>
-      <c r="AD393">
-        <v>6.73</v>
-      </c>
-      <c r="AE393">
-        <v>0.10515625000000001</v>
-      </c>
-    </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
         <v>49</v>
       </c>
@@ -20720,17 +18965,14 @@
       <c r="Z394">
         <v>20.745948791503906</v>
       </c>
+      <c r="AA394">
+        <v>3.3193518066406254E-2</v>
+      </c>
       <c r="AB394">
         <v>12.457841796875</v>
       </c>
-      <c r="AD394">
-        <v>13.66</v>
-      </c>
-      <c r="AE394">
-        <v>0.1910756749195692</v>
-      </c>
-    </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
         <v>51</v>
       </c>
@@ -20773,17 +19015,14 @@
       <c r="Z395">
         <v>17.740749359130859</v>
       </c>
+      <c r="AA395">
+        <v>2.8385198974609373E-2</v>
+      </c>
       <c r="AB395">
         <v>11.24197021484375</v>
       </c>
-      <c r="AD395">
-        <v>6.37</v>
-      </c>
-      <c r="AE395">
-        <v>9.7684404232479691E-2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
         <v>50</v>
       </c>
@@ -20832,14 +19071,8 @@
       <c r="AB396">
         <v>12.010875244140625</v>
       </c>
-      <c r="AD396">
-        <v>6.4</v>
-      </c>
-      <c r="AE396">
-        <v>0.13710368466152528</v>
-      </c>
-    </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
         <v>48</v>
       </c>
@@ -20888,14 +19121,8 @@
       <c r="AB397">
         <v>12.29751220703125</v>
       </c>
-      <c r="AD397">
-        <v>10.97</v>
-      </c>
-      <c r="AE397">
-        <v>0.11918730986527597</v>
-      </c>
-    </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
         <v>49</v>
       </c>
@@ -20944,14 +19171,8 @@
       <c r="AB398">
         <v>12.607322998046875</v>
       </c>
-      <c r="AD398">
-        <v>9.98</v>
-      </c>
-      <c r="AE398">
-        <v>0.10518549747048905</v>
-      </c>
-    </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
         <v>52</v>
       </c>
@@ -21000,14 +19221,8 @@
       <c r="AB399">
         <v>12.37227783203125</v>
       </c>
-      <c r="AD399">
-        <v>13.78</v>
-      </c>
-      <c r="AE399">
-        <v>0.12830540037243945</v>
-      </c>
-    </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
         <v>53</v>
       </c>
@@ -21056,14 +19271,8 @@
       <c r="AB400">
         <v>11.56604736328125</v>
       </c>
-      <c r="AD400">
-        <v>10.87</v>
-      </c>
-      <c r="AE400">
-        <v>0.10889601282308155</v>
-      </c>
-    </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
         <v>51</v>
       </c>
@@ -21112,14 +19321,8 @@
       <c r="AB401">
         <v>11.764111328125001</v>
       </c>
-      <c r="AD401">
-        <v>8.68</v>
-      </c>
-      <c r="AE401">
-        <v>0.11207230471271787</v>
-      </c>
-    </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
         <v>49</v>
       </c>
@@ -21141,14 +19344,8 @@
       <c r="G402" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD402">
-        <v>8.19</v>
-      </c>
-      <c r="AE402">
-        <v>8.7602952187399719E-2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
         <v>53</v>
       </c>
@@ -21170,14 +19367,8 @@
       <c r="G403" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD403">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="AE403">
-        <v>9.0152993120443572E-2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
         <v>52</v>
       </c>
@@ -21199,14 +19390,8 @@
       <c r="G404" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD404">
-        <v>8.85</v>
-      </c>
-      <c r="AE404">
-        <v>9.5851835806346791E-2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
         <v>51</v>
       </c>
@@ -21228,14 +19413,8 @@
       <c r="G405" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD405">
-        <v>9.11</v>
-      </c>
-      <c r="AE405">
-        <v>8.9418924224577936E-2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
         <v>48</v>
       </c>
@@ -21257,14 +19436,8 @@
       <c r="G406" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD406">
-        <v>10.7</v>
-      </c>
-      <c r="AE406">
-        <v>8.6123631680618151E-2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
         <v>50</v>
       </c>
@@ -21286,14 +19459,8 @@
       <c r="G407" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD407">
-        <v>7.92</v>
-      </c>
-      <c r="AE407">
-        <v>8.9846851956891655E-2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
         <v>53</v>
       </c>
@@ -21342,14 +19509,8 @@
       <c r="AB408">
         <v>12.043234863281251</v>
       </c>
-      <c r="AD408">
-        <v>10.210000000000001</v>
-      </c>
-      <c r="AE408">
-        <v>8.9357605461228784E-2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
         <v>50</v>
       </c>
@@ -21398,14 +19559,8 @@
       <c r="AB409">
         <v>11.732266845703125</v>
       </c>
-      <c r="AD409">
-        <v>10.76</v>
-      </c>
-      <c r="AE409">
-        <v>0.10058895017294568</v>
-      </c>
-    </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
         <v>52</v>
       </c>
@@ -21454,14 +19609,8 @@
       <c r="AB410">
         <v>11.907861328125</v>
       </c>
-      <c r="AD410">
-        <v>7.27</v>
-      </c>
-      <c r="AE410">
-        <v>9.7049793085035377E-2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
         <v>48</v>
       </c>
@@ -21510,14 +19659,8 @@
       <c r="AB411">
         <v>12.037320556640625</v>
       </c>
-      <c r="AD411">
-        <v>9.32</v>
-      </c>
-      <c r="AE411">
-        <v>0.10302896307760337</v>
-      </c>
-    </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
         <v>49</v>
       </c>
@@ -21566,14 +19709,8 @@
       <c r="AB412">
         <v>12.49613525390625</v>
       </c>
-      <c r="AD412">
-        <v>8.27</v>
-      </c>
-      <c r="AE412">
-        <v>9.709991781143594E-2</v>
-      </c>
-    </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
         <v>51</v>
       </c>
@@ -21622,14 +19759,8 @@
       <c r="AB413">
         <v>11.765915527343751</v>
       </c>
-      <c r="AD413">
-        <v>9.33</v>
-      </c>
-      <c r="AE413">
-        <v>0.10037654653039269</v>
-      </c>
-    </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
         <v>52</v>
       </c>
@@ -21678,14 +19809,8 @@
       <c r="AB414">
         <v>12.338841552734376</v>
       </c>
-      <c r="AD414">
-        <v>10.09</v>
-      </c>
-      <c r="AE414">
-        <v>0.10148863407765037</v>
-      </c>
-    </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
         <v>53</v>
       </c>
@@ -21734,14 +19859,8 @@
       <c r="AB415">
         <v>12.015671386718751</v>
       </c>
-      <c r="AD415">
-        <v>8</v>
-      </c>
-      <c r="AE415">
-        <v>8.8691796008869173E-2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
         <v>49</v>
       </c>
@@ -21790,14 +19909,8 @@
       <c r="AB416">
         <v>12.3350830078125</v>
       </c>
-      <c r="AD416">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AE416">
-        <v>9.5415888819746927E-2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
         <v>51</v>
       </c>
@@ -21846,14 +19959,8 @@
       <c r="AB417">
         <v>11.805721435546875</v>
       </c>
-      <c r="AD417">
-        <v>6.49</v>
-      </c>
-      <c r="AE417">
-        <v>9.2148232287377535E-2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
         <v>48</v>
       </c>
@@ -21902,14 +20009,8 @@
       <c r="AB418">
         <v>11.878005371093749</v>
       </c>
-      <c r="AD418">
-        <v>10.39</v>
-      </c>
-      <c r="AE418">
-        <v>9.943535266532684E-2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
         <v>50</v>
       </c>
@@ -21958,14 +20059,8 @@
       <c r="AB419">
         <v>11.843006591796875</v>
       </c>
-      <c r="AD419">
-        <v>9.81</v>
-      </c>
-      <c r="AE419">
-        <v>9.9000908265213447E-2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
         <v>50</v>
       </c>
@@ -22014,14 +20109,8 @@
       <c r="AB420">
         <v>10.86863525390625</v>
       </c>
-      <c r="AD420">
-        <v>12.39</v>
-      </c>
-      <c r="AE420">
-        <v>9.9758454106280189E-2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
         <v>48</v>
       </c>
@@ -22070,14 +20159,8 @@
       <c r="AB421">
         <v>11.160006103515625</v>
       </c>
-      <c r="AD421">
-        <v>10.84</v>
-      </c>
-      <c r="AE421">
-        <v>6.3858615611192923E-2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
         <v>49</v>
       </c>
@@ -22126,14 +20209,8 @@
       <c r="AB422">
         <v>11.514317626953126</v>
       </c>
-      <c r="AD422">
-        <v>11.39</v>
-      </c>
-      <c r="AE422">
-        <v>0.10958245141427747</v>
-      </c>
-    </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
         <v>52</v>
       </c>
@@ -22182,14 +20259,8 @@
       <c r="AB423">
         <v>11.390537109375</v>
       </c>
-      <c r="AD423">
-        <v>7.9</v>
-      </c>
-      <c r="AE423">
-        <v>9.8577489393561271E-2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
         <v>53</v>
       </c>
@@ -22238,14 +20309,8 @@
       <c r="AB424">
         <v>10.572949218750001</v>
       </c>
-      <c r="AD424">
-        <v>10.85</v>
-      </c>
-      <c r="AE424">
-        <v>0.1164412964155398</v>
-      </c>
-    </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
         <v>51</v>
       </c>
@@ -22294,14 +20359,8 @@
       <c r="AB425">
         <v>10.523005371093751</v>
       </c>
-      <c r="AD425">
-        <v>10.43</v>
-      </c>
-      <c r="AE425">
-        <v>0.13871525468812343</v>
-      </c>
-    </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
         <v>49</v>
       </c>
@@ -22350,14 +20409,8 @@
       <c r="AB426">
         <v>11.55735595703125</v>
       </c>
-      <c r="AD426">
-        <v>11.58</v>
-      </c>
-      <c r="AE426">
-        <v>0.12504049238743117</v>
-      </c>
-    </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
         <v>53</v>
       </c>
@@ -22406,14 +20459,8 @@
       <c r="AB427">
         <v>11.168488769531249</v>
       </c>
-      <c r="AD427">
-        <v>8.06</v>
-      </c>
-      <c r="AE427">
-        <v>7.6718065867123555E-2</v>
-      </c>
-    </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
         <v>52</v>
       </c>
@@ -22462,14 +20509,8 @@
       <c r="AB428">
         <v>11.456815185546875</v>
       </c>
-      <c r="AD428">
-        <v>8.32</v>
-      </c>
-      <c r="AE428">
-        <v>8.098111738368699E-2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
         <v>51</v>
       </c>
@@ -22518,14 +20559,8 @@
       <c r="AB429">
         <v>10.836457519531249</v>
       </c>
-      <c r="AD429">
-        <v>5.91</v>
-      </c>
-      <c r="AE429">
-        <v>7.7315541601255894E-2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
         <v>48</v>
       </c>
@@ -22574,14 +20609,8 @@
       <c r="AB430">
         <v>11.047561035156249</v>
       </c>
-      <c r="AD430">
-        <v>9.49</v>
-      </c>
-      <c r="AE430">
-        <v>8.3789510859968219E-2</v>
-      </c>
-    </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
         <v>50</v>
       </c>
@@ -22630,14 +20659,8 @@
       <c r="AB431">
         <v>11.021859130859376</v>
       </c>
-      <c r="AD431">
-        <v>6.85</v>
-      </c>
-      <c r="AE431">
-        <v>7.565716810249612E-2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
         <v>53</v>
       </c>
@@ -22686,14 +20709,8 @@
       <c r="AB432">
         <v>10.87004638671875</v>
       </c>
-      <c r="AD432">
-        <v>7.93</v>
-      </c>
-      <c r="AE432">
-        <v>9.3835049106614596E-2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
         <v>50</v>
       </c>
@@ -22742,14 +20759,8 @@
       <c r="AB433">
         <v>11.463909912109376</v>
       </c>
-      <c r="AD433">
-        <v>8.06</v>
-      </c>
-      <c r="AE433">
-        <v>7.9873154295907245E-2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
         <v>52</v>
       </c>
@@ -22798,14 +20809,8 @@
       <c r="AB434">
         <v>10.921337890625001</v>
       </c>
-      <c r="AD434">
-        <v>8.66</v>
-      </c>
-      <c r="AE434">
-        <v>8.7201691672540535E-2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
         <v>48</v>
       </c>
@@ -22854,14 +20859,8 @@
       <c r="AB435">
         <v>10.789276123046875</v>
       </c>
-      <c r="AD435">
-        <v>8.76</v>
-      </c>
-      <c r="AE435">
-        <v>8.5932901706886403E-2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
         <v>49</v>
       </c>
@@ -22910,14 +20909,8 @@
       <c r="AB436">
         <v>11.515703125</v>
       </c>
-      <c r="AD436">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="AE436">
-        <v>7.2580645161290328E-2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
         <v>51</v>
       </c>
@@ -22966,14 +20959,8 @@
       <c r="AB437">
         <v>10.645205078125</v>
       </c>
-      <c r="AD437">
-        <v>5.84</v>
-      </c>
-      <c r="AE437">
-        <v>8.7529976019184649E-2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
         <v>52</v>
       </c>
@@ -23022,14 +21009,8 @@
       <c r="AB438">
         <v>11.07569091796875</v>
       </c>
-      <c r="AD438">
-        <v>7.97</v>
-      </c>
-      <c r="AE438">
-        <v>8.2650627398112617E-2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
         <v>53</v>
       </c>
@@ -23078,14 +21059,8 @@
       <c r="AB439">
         <v>10.569418945312501</v>
       </c>
-      <c r="AD439">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="AE439">
-        <v>9.4948550046772676E-2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
         <v>49</v>
       </c>
@@ -23134,14 +21109,8 @@
       <c r="AB440">
         <v>11.205604248046875</v>
       </c>
-      <c r="AD440">
-        <v>8.39</v>
-      </c>
-      <c r="AE440">
-        <v>8.2327543911294293E-2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
         <v>51</v>
       </c>
@@ -23190,14 +21159,8 @@
       <c r="AB441">
         <v>10.4115869140625</v>
       </c>
-      <c r="AD441">
-        <v>7.32</v>
-      </c>
-      <c r="AE441">
-        <v>7.8339041095890419E-2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
         <v>48</v>
       </c>
@@ -23246,14 +21209,8 @@
       <c r="AB442">
         <v>10.760860595703125</v>
       </c>
-      <c r="AD442">
-        <v>7.07</v>
-      </c>
-      <c r="AE442">
-        <v>7.3408784134565461E-2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
         <v>50</v>
       </c>
@@ -23302,14 +21259,8 @@
       <c r="AB443">
         <v>9.997075195312501</v>
       </c>
-      <c r="AD443">
-        <v>6.82</v>
-      </c>
-      <c r="AE443">
-        <v>7.7062146892655364E-2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
         <v>50</v>
       </c>
@@ -23358,14 +21309,8 @@
       <c r="AB444">
         <v>12.707368164062501</v>
       </c>
-      <c r="AD444">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="AE444">
-        <v>9.1001421897217161E-2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
         <v>48</v>
       </c>
@@ -23414,14 +21359,8 @@
       <c r="AB445">
         <v>12.228100585937501</v>
       </c>
-      <c r="AD445">
-        <v>7.82</v>
-      </c>
-      <c r="AE445">
-        <v>8.5464480874316948E-2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
         <v>49</v>
       </c>
@@ -23470,14 +21409,8 @@
       <c r="AB446">
         <v>12.249960937500001</v>
       </c>
-      <c r="AD446">
-        <v>9.49</v>
-      </c>
-      <c r="AE446">
-        <v>8.46716630977873E-2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
         <v>52</v>
       </c>
@@ -23526,14 +21459,8 @@
       <c r="AB447">
         <v>12.2689453125</v>
       </c>
-      <c r="AD447">
-        <v>8.58</v>
-      </c>
-      <c r="AE447">
-        <v>8.9720798912475169E-2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
         <v>53</v>
       </c>
@@ -23582,14 +21509,8 @@
       <c r="AB448">
         <v>12.126607666015625</v>
       </c>
-      <c r="AD448">
-        <v>7.99</v>
-      </c>
-      <c r="AE448">
-        <v>9.0099233198015327E-2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
         <v>51</v>
       </c>
@@ -23638,14 +21559,8 @@
       <c r="AB449">
         <v>12.308666992187501</v>
       </c>
-      <c r="AD449">
-        <v>7.75</v>
-      </c>
-      <c r="AE449">
-        <v>0.11008522727272727</v>
-      </c>
-    </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
         <v>49</v>
       </c>
@@ -23694,14 +21609,8 @@
       <c r="AB450">
         <v>11.991288452148439</v>
       </c>
-      <c r="AD450">
-        <v>8.51</v>
-      </c>
-      <c r="AE450">
-        <v>0.10519159456118664</v>
-      </c>
-    </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
         <v>53</v>
       </c>
@@ -23750,14 +21659,8 @@
       <c r="AB451">
         <v>12.221868896484375</v>
       </c>
-      <c r="AD451">
-        <v>9.23</v>
-      </c>
-      <c r="AE451">
-        <v>0.11942036485961961</v>
-      </c>
-    </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
         <v>52</v>
       </c>
@@ -23806,14 +21709,8 @@
       <c r="AB452">
         <v>11.892794189453125</v>
       </c>
-      <c r="AD452">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="AE452">
-        <v>0.13021322247552639</v>
-      </c>
-    </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
         <v>51</v>
       </c>
@@ -23862,14 +21759,8 @@
       <c r="AB453">
         <v>12.434929809570313</v>
       </c>
-      <c r="AD453">
-        <v>10.35</v>
-      </c>
-      <c r="AE453">
-        <v>0.26565708418891171</v>
-      </c>
-    </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
         <v>48</v>
       </c>
@@ -23918,14 +21809,8 @@
       <c r="AB454">
         <v>12.1023046875</v>
       </c>
-      <c r="AD454">
-        <v>10.81</v>
-      </c>
-      <c r="AE454">
-        <v>0.1188565145684442</v>
-      </c>
-    </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
         <v>50</v>
       </c>
@@ -23974,14 +21859,8 @@
       <c r="AB455">
         <v>11.814078979492187</v>
       </c>
-      <c r="AD455">
-        <v>7.69</v>
-      </c>
-      <c r="AE455">
-        <v>0.10412999322951931</v>
-      </c>
-    </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
         <v>53</v>
       </c>
@@ -24031,7 +21910,7 @@
         <v>10.528403930664062</v>
       </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
         <v>50</v>
       </c>
@@ -24081,7 +21960,7 @@
         <v>10.47904510498047</v>
       </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
         <v>52</v>
       </c>
@@ -24131,7 +22010,7 @@
         <v>10.482756042480469</v>
       </c>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
         <v>48</v>
       </c>
@@ -24181,7 +22060,7 @@
         <v>10.882407226562501</v>
       </c>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
         <v>49</v>
       </c>
@@ -24231,7 +22110,7 @@
         <v>10.349171142578125</v>
       </c>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
         <v>51</v>
       </c>
@@ -24281,7 +22160,7 @@
         <v>10.639314575195312</v>
       </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
         <v>52</v>
       </c>
@@ -24331,7 +22210,7 @@
         <v>12.708342895507812</v>
       </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
         <v>53</v>
       </c>
@@ -24381,7 +22260,7 @@
         <v>12.902735595703126</v>
       </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
         <v>49</v>
       </c>
@@ -25153,6 +23032,9 @@
       <c r="Z479">
         <v>15.179413795471191</v>
       </c>
+      <c r="AA479">
+        <v>2.4287062072753905E-2</v>
+      </c>
       <c r="AB479">
         <v>11.09472412109375</v>
       </c>
@@ -26817,6 +24699,9 @@
       <c r="Z516">
         <v>21.453502655029297</v>
       </c>
+      <c r="AA516">
+        <v>3.4325604248046877E-2</v>
+      </c>
       <c r="AB516">
         <v>11.2620166015625</v>
       </c>
@@ -26844,28 +24729,28 @@
         <v>90.075000000000003</v>
       </c>
       <c r="U517">
-        <v>18.587661743164062</v>
+        <v>19.541614532470703</v>
       </c>
       <c r="V517">
-        <v>6.7731738090515137</v>
+        <v>12.355327606201172</v>
       </c>
       <c r="W517">
-        <v>75.450790405273438</v>
+        <v>76.107749938964844</v>
       </c>
       <c r="X517">
-        <v>23.491790771484375</v>
+        <v>22.250268936157227</v>
       </c>
       <c r="Y517">
-        <v>82.841438293457031</v>
+        <v>85.315109252929688</v>
       </c>
       <c r="Z517">
-        <v>21.278783798217773</v>
+        <v>20.259988784790039</v>
       </c>
       <c r="AA517">
-        <v>3.404605407714844E-2</v>
+        <v>3.2415982055664067E-2</v>
       </c>
       <c r="AB517">
-        <v>12.07212646484375</v>
+        <v>12.177239990234375</v>
       </c>
     </row>
     <row r="518" spans="1:28" x14ac:dyDescent="0.25">
@@ -26891,25 +24776,28 @@
         <v>104.47499999999999</v>
       </c>
       <c r="U518">
-        <v>19.541614532470703</v>
+        <v>16.759342193603516</v>
       </c>
       <c r="V518">
-        <v>12.355327606201172</v>
+        <v>1.049718976020813</v>
       </c>
       <c r="W518">
-        <v>76.107749938964844</v>
+        <v>74.359809875488281</v>
       </c>
       <c r="X518">
-        <v>22.250268936157227</v>
+        <v>23.068046569824219</v>
       </c>
       <c r="Y518">
-        <v>85.315109252929688</v>
+        <v>80.345314025878906</v>
       </c>
       <c r="Z518">
-        <v>20.259988784790039</v>
+        <v>22.666492462158203</v>
+      </c>
+      <c r="AA518">
+        <v>3.6266387939453124E-2</v>
       </c>
       <c r="AB518">
-        <v>12.177239990234375</v>
+        <v>11.897569580078125</v>
       </c>
     </row>
     <row r="519" spans="1:28" x14ac:dyDescent="0.25">
@@ -26935,28 +24823,28 @@
         <v>104.1</v>
       </c>
       <c r="U519">
-        <v>17.67633056640625</v>
+        <v>19.566349029541016</v>
       </c>
       <c r="V519">
-        <v>6.6130728721618652</v>
+        <v>14.44223690032959</v>
       </c>
       <c r="W519">
-        <v>75.01873779296875</v>
+        <v>76.589141845703125</v>
       </c>
       <c r="X519">
-        <v>24.008235931396484</v>
+        <v>22.941753387451172</v>
       </c>
       <c r="Y519">
-        <v>83.378311157226563</v>
+        <v>85.675949096679688</v>
       </c>
       <c r="Z519">
-        <v>20.388349533081055</v>
+        <v>19.011442184448242</v>
       </c>
       <c r="AA519">
-        <v>3.2621359252929687E-2</v>
+        <v>3.0418307495117189E-2</v>
       </c>
       <c r="AB519">
-        <v>12.002998046875</v>
+        <v>12.2542626953125</v>
       </c>
     </row>
     <row r="520" spans="1:28" x14ac:dyDescent="0.25">
@@ -26982,25 +24870,28 @@
         <v>39.475000000000001</v>
       </c>
       <c r="U520">
-        <v>16.759342193603516</v>
+        <v>20.142532348632812</v>
       </c>
       <c r="V520">
-        <v>1.049718976020813</v>
+        <v>2.140099048614502</v>
       </c>
       <c r="W520">
-        <v>74.359809875488281</v>
+        <v>67.972610473632812</v>
       </c>
       <c r="X520">
-        <v>23.068046569824219</v>
+        <v>26.907142639160156</v>
       </c>
       <c r="Y520">
-        <v>80.345314025878906</v>
+        <v>80.746025085449219</v>
       </c>
       <c r="Z520">
-        <v>22.666492462158203</v>
+        <v>19.566009521484375</v>
+      </c>
+      <c r="AA520">
+        <v>3.1305615234375E-2</v>
       </c>
       <c r="AB520">
-        <v>11.897569580078125</v>
+        <v>10.87561767578125</v>
       </c>
     </row>
     <row r="521" spans="1:28" x14ac:dyDescent="0.25">
@@ -27026,28 +24917,28 @@
         <v>45.1875</v>
       </c>
       <c r="U521">
-        <v>19.691146850585938</v>
+        <v>19.89710807800293</v>
       </c>
       <c r="V521">
-        <v>6.7026348114013672</v>
+        <v>16.143383026123047</v>
       </c>
       <c r="W521">
-        <v>73.431182861328125</v>
+        <v>75.223503112792969</v>
       </c>
       <c r="X521">
-        <v>27.128376007080078</v>
+        <v>23.682052612304687</v>
       </c>
       <c r="Y521">
-        <v>83.780792236328125</v>
+        <v>85.562606811523438</v>
       </c>
       <c r="Z521">
-        <v>18.412752151489258</v>
+        <v>18.837993621826172</v>
       </c>
       <c r="AA521">
-        <v>2.9460403442382814E-2</v>
+        <v>3.0140789794921873E-2</v>
       </c>
       <c r="AB521">
-        <v>11.7489892578125</v>
+        <v>12.035760498046875</v>
       </c>
     </row>
     <row r="522" spans="1:28" x14ac:dyDescent="0.25">
@@ -27073,25 +24964,28 @@
         <v>114.6</v>
       </c>
       <c r="U522">
-        <v>19.566349029541016</v>
+        <v>17.206214904785156</v>
       </c>
       <c r="V522">
-        <v>14.44223690032959</v>
+        <v>2.733025074005127</v>
       </c>
       <c r="W522">
-        <v>76.589141845703125</v>
+        <v>73.561370849609375</v>
       </c>
       <c r="X522">
-        <v>22.941753387451172</v>
+        <v>23.853462219238281</v>
       </c>
       <c r="Y522">
-        <v>85.675949096679688</v>
+        <v>80.635787963867188</v>
       </c>
       <c r="Z522">
-        <v>19.011442184448242</v>
+        <v>22.855485916137695</v>
+      </c>
+      <c r="AA522">
+        <v>3.6568777465820317E-2</v>
       </c>
       <c r="AB522">
-        <v>12.2542626953125</v>
+        <v>11.7698193359375</v>
       </c>
     </row>
     <row r="523" spans="1:28" x14ac:dyDescent="0.25">
@@ -27116,30 +25010,6 @@
       <c r="I523">
         <v>71</v>
       </c>
-      <c r="U523">
-        <v>19.017311096191406</v>
-      </c>
-      <c r="V523">
-        <v>6.3938980102539062</v>
-      </c>
-      <c r="W523">
-        <v>72.068016052246094</v>
-      </c>
-      <c r="X523">
-        <v>25.317462921142578</v>
-      </c>
-      <c r="Y523">
-        <v>82.484046936035156</v>
-      </c>
-      <c r="Z523">
-        <v>17.079505920410156</v>
-      </c>
-      <c r="AA523">
-        <v>2.7327209472656253E-2</v>
-      </c>
-      <c r="AB523">
-        <v>11.530882568359376</v>
-      </c>
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A524" s="10" t="s">
@@ -27164,25 +25034,28 @@
         <v>104.375</v>
       </c>
       <c r="U524">
-        <v>20.142532348632812</v>
+        <v>19.390880584716797</v>
       </c>
       <c r="V524">
-        <v>2.140099048614502</v>
+        <v>8.076685905456543</v>
       </c>
       <c r="W524">
-        <v>67.972610473632812</v>
+        <v>72.27801513671875</v>
       </c>
       <c r="X524">
-        <v>26.907142639160156</v>
+        <v>20.912723541259766</v>
       </c>
       <c r="Y524">
-        <v>80.746025085449219</v>
+        <v>82.766159057617187</v>
       </c>
       <c r="Z524">
-        <v>19.566009521484375</v>
+        <v>21.900360107421875</v>
+      </c>
+      <c r="AA524">
+        <v>3.5040576171875004E-2</v>
       </c>
       <c r="AB524">
-        <v>10.87561767578125</v>
+        <v>11.564482421875001</v>
       </c>
     </row>
     <row r="525" spans="1:28" x14ac:dyDescent="0.25">
@@ -27208,28 +25081,28 @@
         <v>68.05</v>
       </c>
       <c r="U525">
-        <v>19.504436492919922</v>
+        <v>19.467626571655273</v>
       </c>
       <c r="V525">
-        <v>6.6140580177307129</v>
+        <v>9.2487926483154297</v>
       </c>
       <c r="W525">
-        <v>73.472244262695312</v>
+        <v>73.044029235839844</v>
       </c>
       <c r="X525">
-        <v>27.41047477722168</v>
+        <v>21.909822463989258</v>
       </c>
       <c r="Y525">
-        <v>83.736465454101563</v>
+        <v>83.5950927734375</v>
       </c>
       <c r="Z525">
-        <v>18.689691543579102</v>
+        <v>22.271465301513672</v>
       </c>
       <c r="AA525">
-        <v>2.9903506469726563E-2</v>
+        <v>3.5634344482421872E-2</v>
       </c>
       <c r="AB525">
-        <v>11.755559082031251</v>
+        <v>11.687044677734375</v>
       </c>
     </row>
     <row r="526" spans="1:28" x14ac:dyDescent="0.25">
@@ -27255,25 +25128,28 @@
         <v>91.15</v>
       </c>
       <c r="U526">
-        <v>19.89710807800293</v>
+        <v>19.182683944702148</v>
       </c>
       <c r="V526">
-        <v>16.143383026123047</v>
+        <v>9.562840461730957</v>
       </c>
       <c r="W526">
-        <v>75.223503112792969</v>
+        <v>72.705780029296875</v>
       </c>
       <c r="X526">
-        <v>23.682052612304687</v>
+        <v>21.279169082641602</v>
       </c>
       <c r="Y526">
-        <v>85.562606811523438</v>
+        <v>83.057731628417969</v>
       </c>
       <c r="Z526">
-        <v>18.837993621826172</v>
+        <v>22.427944183349609</v>
+      </c>
+      <c r="AA526">
+        <v>3.5884710693359377E-2</v>
       </c>
       <c r="AB526">
-        <v>12.035760498046875</v>
+        <v>11.6329248046875</v>
       </c>
     </row>
     <row r="527" spans="1:28" x14ac:dyDescent="0.25">
@@ -27299,28 +25175,28 @@
         <v>47.337499999999999</v>
       </c>
       <c r="U527">
-        <v>18.197025299072266</v>
+        <v>20.558544158935547</v>
       </c>
       <c r="V527">
-        <v>9.0938510894775391</v>
+        <v>10.896398544311523</v>
       </c>
       <c r="W527">
-        <v>76.32781982421875</v>
+        <v>72.575019836425781</v>
       </c>
       <c r="X527">
-        <v>26.943593978881836</v>
+        <v>22.714998245239258</v>
       </c>
       <c r="Y527">
-        <v>85.891227722167969</v>
+        <v>83.763702392578125</v>
       </c>
       <c r="Z527">
-        <v>23.125274658203125</v>
+        <v>20.238945007324219</v>
       </c>
       <c r="AA527">
-        <v>3.7000439453124999E-2</v>
+        <v>3.2382312011718747E-2</v>
       </c>
       <c r="AB527">
-        <v>12.212451171875001</v>
+        <v>11.612003173828125</v>
       </c>
     </row>
     <row r="528" spans="1:28" x14ac:dyDescent="0.25">
@@ -27346,25 +25222,28 @@
         <v>66.599999999999994</v>
       </c>
       <c r="U528">
-        <v>17.206214904785156</v>
+        <v>19.539247512817383</v>
       </c>
       <c r="V528">
-        <v>2.733025074005127</v>
+        <v>3.0882019996643066</v>
       </c>
       <c r="W528">
-        <v>73.561370849609375</v>
+        <v>69.69122314453125</v>
       </c>
       <c r="X528">
-        <v>23.853462219238281</v>
+        <v>24.473606109619141</v>
       </c>
       <c r="Y528">
-        <v>80.635787963867188</v>
+        <v>78.919265747070313</v>
       </c>
       <c r="Z528">
-        <v>22.855485916137695</v>
+        <v>19.528055191040039</v>
+      </c>
+      <c r="AA528">
+        <v>3.1244888305664062E-2</v>
       </c>
       <c r="AB528">
-        <v>11.7698193359375</v>
+        <v>11.150595703125001</v>
       </c>
     </row>
     <row r="529" spans="1:28" x14ac:dyDescent="0.25">
@@ -27390,28 +25269,28 @@
         <v>73.525000000000006</v>
       </c>
       <c r="U529">
-        <v>19.1365966796875</v>
+        <v>20.711856842041016</v>
       </c>
       <c r="V529">
-        <v>7.0322070121765137</v>
+        <v>11.759366035461426</v>
       </c>
       <c r="W529">
-        <v>73.987327575683594</v>
+        <v>72.246833801269531</v>
       </c>
       <c r="X529">
-        <v>26.861814498901367</v>
+        <v>22.30717658996582</v>
       </c>
       <c r="Y529">
-        <v>83.986061096191406</v>
+        <v>84.161529541015625</v>
       </c>
       <c r="Z529">
-        <v>20.236301422119141</v>
+        <v>18.05267333984375</v>
       </c>
       <c r="AA529">
-        <v>3.2378082275390623E-2</v>
+        <v>2.8884277343750001E-2</v>
       </c>
       <c r="AB529">
-        <v>11.837972412109375</v>
+        <v>11.559493408203124</v>
       </c>
     </row>
     <row r="530" spans="1:28" x14ac:dyDescent="0.25">
@@ -27436,6 +25315,30 @@
       <c r="I530">
         <v>87.95</v>
       </c>
+      <c r="U530">
+        <v>20.207330703735352</v>
+      </c>
+      <c r="V530">
+        <v>9.3940706253051758</v>
+      </c>
+      <c r="W530">
+        <v>73.819236755371094</v>
+      </c>
+      <c r="X530">
+        <v>20.761228561401367</v>
+      </c>
+      <c r="Y530">
+        <v>83.771278381347656</v>
+      </c>
+      <c r="Z530">
+        <v>19.620136260986328</v>
+      </c>
+      <c r="AA530">
+        <v>3.1392218017578126E-2</v>
+      </c>
+      <c r="AB530">
+        <v>11.811077880859376</v>
+      </c>
     </row>
     <row r="531" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A531" s="10" t="s">
@@ -27460,28 +25363,28 @@
         <v>80.012500000000003</v>
       </c>
       <c r="U531">
-        <v>17.766326904296875</v>
+        <v>20.545780181884766</v>
       </c>
       <c r="V531">
-        <v>6.3354067802429199</v>
+        <v>4.0673561096191406</v>
       </c>
       <c r="W531">
-        <v>76.047256469726563</v>
+        <v>72.137954711914062</v>
       </c>
       <c r="X531">
-        <v>23.801239013671875</v>
+        <v>18.027421951293945</v>
       </c>
       <c r="Y531">
-        <v>84.083480834960937</v>
+        <v>82.286773681640625</v>
       </c>
       <c r="Z531">
-        <v>21.363536834716797</v>
+        <v>20.928741455078125</v>
       </c>
       <c r="AA531">
-        <v>3.418165893554688E-2</v>
+        <v>3.3485986328125002E-2</v>
       </c>
       <c r="AB531">
-        <v>12.16756103515625</v>
+        <v>11.54207275390625</v>
       </c>
     </row>
     <row r="532" spans="1:28" x14ac:dyDescent="0.25">
@@ -27507,25 +25410,28 @@
         <v>136.13749999999999</v>
       </c>
       <c r="U532">
-        <v>19.390880584716797</v>
+        <v>16.931575775146484</v>
       </c>
       <c r="V532">
-        <v>8.076685905456543</v>
+        <v>-1.984900951385498</v>
       </c>
       <c r="W532">
-        <v>72.27801513671875</v>
+        <v>70.170806884765625</v>
       </c>
       <c r="X532">
-        <v>20.912723541259766</v>
+        <v>22.032302856445313</v>
       </c>
       <c r="Y532">
-        <v>82.766159057617187</v>
+        <v>78.793426513671875</v>
       </c>
       <c r="Z532">
-        <v>21.900360107421875</v>
+        <v>21.078941345214844</v>
+      </c>
+      <c r="AA532">
+        <v>3.3726306152343753E-2</v>
       </c>
       <c r="AB532">
-        <v>11.564482421875001</v>
+        <v>11.2273291015625</v>
       </c>
     </row>
     <row r="533" spans="1:28" x14ac:dyDescent="0.25">
@@ -27551,28 +25457,28 @@
         <v>40.200000000000003</v>
       </c>
       <c r="U533">
-        <v>18.841468811035156</v>
+        <v>20.584064483642578</v>
       </c>
       <c r="V533">
-        <v>5.1549258232116699</v>
+        <v>15.375883102416992</v>
       </c>
       <c r="W533">
-        <v>74.663673400878906</v>
+        <v>76.216522216796875</v>
       </c>
       <c r="X533">
-        <v>25.393863677978516</v>
+        <v>24.788776397705078</v>
       </c>
       <c r="Y533">
-        <v>83.901519775390625</v>
+        <v>86.187774658203125</v>
       </c>
       <c r="Z533">
-        <v>19.072910308837891</v>
+        <v>18.131256103515625</v>
       </c>
       <c r="AA533">
-        <v>3.0516656494140624E-2</v>
+        <v>2.9010009765625001E-2</v>
       </c>
       <c r="AB533">
-        <v>11.946187744140625</v>
+        <v>12.1946435546875</v>
       </c>
     </row>
     <row r="534" spans="1:28" x14ac:dyDescent="0.25">
@@ -27645,25 +25551,28 @@
         <v>78.439208946972286</v>
       </c>
       <c r="U535">
-        <v>19.467626571655273</v>
+        <v>18.587661743164062</v>
       </c>
       <c r="V535">
-        <v>9.2487926483154297</v>
+        <v>6.7731738090515137</v>
       </c>
       <c r="W535">
-        <v>73.044029235839844</v>
+        <v>75.450790405273438</v>
       </c>
       <c r="X535">
-        <v>21.909822463989258</v>
+        <v>23.491790771484375</v>
       </c>
       <c r="Y535">
-        <v>83.5950927734375</v>
+        <v>82.841438293457031</v>
       </c>
       <c r="Z535">
-        <v>22.271465301513672</v>
+        <v>21.278783798217773</v>
+      </c>
+      <c r="AA535">
+        <v>3.404605407714844E-2</v>
       </c>
       <c r="AB535">
-        <v>11.687044677734375</v>
+        <v>12.07212646484375</v>
       </c>
     </row>
     <row r="536" spans="1:28" x14ac:dyDescent="0.25">
@@ -27689,28 +25598,28 @@
         <v>82.595700434714217</v>
       </c>
       <c r="U536">
-        <v>17.798372268676758</v>
+        <v>17.67633056640625</v>
       </c>
       <c r="V536">
-        <v>4.5986981391906738</v>
+        <v>6.6130728721618652</v>
       </c>
       <c r="W536">
-        <v>75.074386596679688</v>
+        <v>75.01873779296875</v>
       </c>
       <c r="X536">
-        <v>24.711048126220703</v>
+        <v>24.008235931396484</v>
       </c>
       <c r="Y536">
-        <v>84.273696899414063</v>
+        <v>83.378311157226563</v>
       </c>
       <c r="Z536">
-        <v>19.847587585449219</v>
+        <v>20.388349533081055</v>
       </c>
       <c r="AA536">
-        <v>3.175614013671875E-2</v>
+        <v>3.2621359252929687E-2</v>
       </c>
       <c r="AB536">
-        <v>12.01190185546875</v>
+        <v>12.002998046875</v>
       </c>
     </row>
     <row r="537" spans="1:28" x14ac:dyDescent="0.25">
@@ -27736,25 +25645,28 @@
         <v>19.561800478918109</v>
       </c>
       <c r="U537">
-        <v>19.182683944702148</v>
+        <v>19.691146850585938</v>
       </c>
       <c r="V537">
-        <v>9.562840461730957</v>
+        <v>6.7026348114013672</v>
       </c>
       <c r="W537">
-        <v>72.705780029296875</v>
+        <v>73.431182861328125</v>
       </c>
       <c r="X537">
-        <v>21.279169082641602</v>
+        <v>27.128376007080078</v>
       </c>
       <c r="Y537">
-        <v>83.057731628417969</v>
+        <v>83.780792236328125</v>
       </c>
       <c r="Z537">
-        <v>22.427944183349609</v>
+        <v>18.412752151489258</v>
+      </c>
+      <c r="AA537">
+        <v>2.9460403442382814E-2</v>
       </c>
       <c r="AB537">
-        <v>11.6329248046875</v>
+        <v>11.7489892578125</v>
       </c>
     </row>
     <row r="538" spans="1:28" x14ac:dyDescent="0.25">
@@ -27780,28 +25692,28 @@
         <v>34.940375245632445</v>
       </c>
       <c r="U538">
-        <v>20.428291320800781</v>
+        <v>19.017311096191406</v>
       </c>
       <c r="V538">
-        <v>7.2028188705444336</v>
+        <v>6.3938980102539062</v>
       </c>
       <c r="W538">
-        <v>70.430229187011719</v>
+        <v>72.068016052246094</v>
       </c>
       <c r="X538">
-        <v>26.040618896484375</v>
+        <v>25.317462921142578</v>
       </c>
       <c r="Y538">
-        <v>81.367568969726563</v>
+        <v>82.484046936035156</v>
       </c>
       <c r="Z538">
-        <v>18.322944641113281</v>
+        <v>17.079505920410156</v>
       </c>
       <c r="AA538">
-        <v>2.9316711425781249E-2</v>
+        <v>2.7327209472656253E-2</v>
       </c>
       <c r="AB538">
-        <v>11.268836669921875</v>
+        <v>11.530882568359376</v>
       </c>
     </row>
     <row r="539" spans="1:28" x14ac:dyDescent="0.25">
@@ -27827,25 +25739,28 @@
         <v>39.48743845116902</v>
       </c>
       <c r="U539">
-        <v>20.558544158935547</v>
+        <v>19.504436492919922</v>
       </c>
       <c r="V539">
-        <v>10.896398544311523</v>
+        <v>6.6140580177307129</v>
       </c>
       <c r="W539">
-        <v>72.575019836425781</v>
+        <v>73.472244262695312</v>
       </c>
       <c r="X539">
-        <v>22.714998245239258</v>
+        <v>27.41047477722168</v>
       </c>
       <c r="Y539">
-        <v>83.763702392578125</v>
+        <v>83.736465454101563</v>
       </c>
       <c r="Z539">
-        <v>20.238945007324219</v>
+        <v>18.689691543579102</v>
+      </c>
+      <c r="AA539">
+        <v>2.9903506469726563E-2</v>
       </c>
       <c r="AB539">
-        <v>11.612003173828125</v>
+        <v>11.755559082031251</v>
       </c>
     </row>
     <row r="540" spans="1:28" x14ac:dyDescent="0.25">
@@ -27871,28 +25786,28 @@
         <v>106.13849430186811</v>
       </c>
       <c r="U540">
-        <v>18.63209342956543</v>
+        <v>18.197025299072266</v>
       </c>
       <c r="V540">
-        <v>7.9424800872802734</v>
+        <v>9.0938510894775391</v>
       </c>
       <c r="W540">
-        <v>73.654327392578125</v>
+        <v>76.32781982421875</v>
       </c>
       <c r="X540">
-        <v>25.091625213623047</v>
+        <v>26.943593978881836</v>
       </c>
       <c r="Y540">
-        <v>83.275993347167969</v>
+        <v>85.891227722167969</v>
       </c>
       <c r="Z540">
-        <v>17.658185958862305</v>
+        <v>23.125274658203125</v>
       </c>
       <c r="AA540">
-        <v>2.8253097534179688E-2</v>
+        <v>3.7000439453124999E-2</v>
       </c>
       <c r="AB540">
-        <v>11.7846923828125</v>
+        <v>12.212451171875001</v>
       </c>
     </row>
     <row r="541" spans="1:28" x14ac:dyDescent="0.25">
@@ -27918,25 +25833,28 @@
         <v>56.554624873380952</v>
       </c>
       <c r="U541">
-        <v>19.539247512817383</v>
+        <v>19.1365966796875</v>
       </c>
       <c r="V541">
-        <v>3.0882019996643066</v>
+        <v>7.0322070121765137</v>
       </c>
       <c r="W541">
-        <v>69.69122314453125</v>
+        <v>73.987327575683594</v>
       </c>
       <c r="X541">
-        <v>24.473606109619141</v>
+        <v>26.861814498901367</v>
       </c>
       <c r="Y541">
-        <v>78.919265747070313</v>
+        <v>83.986061096191406</v>
       </c>
       <c r="Z541">
-        <v>19.528055191040039</v>
+        <v>20.236301422119141</v>
+      </c>
+      <c r="AA541">
+        <v>3.2378082275390623E-2</v>
       </c>
       <c r="AB541">
-        <v>11.150595703125001</v>
+        <v>11.837972412109375</v>
       </c>
     </row>
     <row r="542" spans="1:28" x14ac:dyDescent="0.25">
@@ -27962,28 +25880,28 @@
         <v>122.70053222609988</v>
       </c>
       <c r="U542">
-        <v>19.289867401123047</v>
+        <v>17.766326904296875</v>
       </c>
       <c r="V542">
-        <v>7.2551608085632324</v>
+        <v>6.3354067802429199</v>
       </c>
       <c r="W542">
-        <v>71.734962463378906</v>
+        <v>76.047256469726563</v>
       </c>
       <c r="X542">
-        <v>25.538110733032227</v>
+        <v>23.801239013671875</v>
       </c>
       <c r="Y542">
-        <v>82.472709655761719</v>
+        <v>84.083480834960937</v>
       </c>
       <c r="Z542">
-        <v>18.584651947021484</v>
+        <v>21.363536834716797</v>
       </c>
       <c r="AA542">
-        <v>2.9735443115234378E-2</v>
+        <v>3.418165893554688E-2</v>
       </c>
       <c r="AB542">
-        <v>11.477593994140625</v>
+        <v>12.16756103515625</v>
       </c>
     </row>
     <row r="543" spans="1:28" x14ac:dyDescent="0.25">
@@ -28009,25 +25927,28 @@
         <v>77.673706764615844</v>
       </c>
       <c r="U543">
-        <v>20.711856842041016</v>
+        <v>18.841468811035156</v>
       </c>
       <c r="V543">
-        <v>11.759366035461426</v>
+        <v>5.1549258232116699</v>
       </c>
       <c r="W543">
-        <v>72.246833801269531</v>
+        <v>74.663673400878906</v>
       </c>
       <c r="X543">
-        <v>22.30717658996582</v>
+        <v>25.393863677978516</v>
       </c>
       <c r="Y543">
-        <v>84.161529541015625</v>
+        <v>83.901519775390625</v>
       </c>
       <c r="Z543">
-        <v>18.05267333984375</v>
+        <v>19.072910308837891</v>
+      </c>
+      <c r="AA543">
+        <v>3.0516656494140624E-2</v>
       </c>
       <c r="AB543">
-        <v>11.559493408203124</v>
+        <v>11.946187744140625</v>
       </c>
     </row>
     <row r="544" spans="1:28" x14ac:dyDescent="0.25">
@@ -28053,28 +25974,28 @@
         <v>83.149895482335154</v>
       </c>
       <c r="U544">
-        <v>16.821365356445313</v>
+        <v>17.798372268676758</v>
       </c>
       <c r="V544">
-        <v>7.6587119102478027</v>
+        <v>4.5986981391906738</v>
       </c>
       <c r="W544">
-        <v>76.845413208007813</v>
+        <v>75.074386596679688</v>
       </c>
       <c r="X544">
-        <v>23.334697723388672</v>
+        <v>24.711048126220703</v>
       </c>
       <c r="Y544">
-        <v>85.323333740234375</v>
+        <v>84.273696899414063</v>
       </c>
       <c r="Z544">
-        <v>21.120601654052734</v>
+        <v>19.847587585449219</v>
       </c>
       <c r="AA544">
-        <v>3.3792962646484376E-2</v>
+        <v>3.175614013671875E-2</v>
       </c>
       <c r="AB544">
-        <v>12.295266113281251</v>
+        <v>12.01190185546875</v>
       </c>
     </row>
     <row r="545" spans="1:28" x14ac:dyDescent="0.25">
@@ -28100,25 +26021,28 @@
         <v>40.33683368336834</v>
       </c>
       <c r="U545">
-        <v>20.207330703735352</v>
+        <v>20.428291320800781</v>
       </c>
       <c r="V545">
-        <v>9.3940706253051758</v>
+        <v>7.2028188705444336</v>
       </c>
       <c r="W545">
-        <v>73.819236755371094</v>
+        <v>70.430229187011719</v>
       </c>
       <c r="X545">
-        <v>20.761228561401367</v>
+        <v>26.040618896484375</v>
       </c>
       <c r="Y545">
-        <v>83.771278381347656</v>
+        <v>81.367568969726563</v>
       </c>
       <c r="Z545">
-        <v>19.620136260986328</v>
+        <v>18.322944641113281</v>
+      </c>
+      <c r="AA545">
+        <v>2.9316711425781249E-2</v>
       </c>
       <c r="AB545">
-        <v>11.811077880859376</v>
+        <v>11.268836669921875</v>
       </c>
     </row>
     <row r="546" spans="1:28" x14ac:dyDescent="0.25">
@@ -28144,28 +26068,28 @@
         <v>46.049613436288219</v>
       </c>
       <c r="U546">
-        <v>18.363426208496094</v>
+        <v>18.63209342956543</v>
       </c>
       <c r="V546">
-        <v>6.0051040649414062</v>
+        <v>7.9424800872802734</v>
       </c>
       <c r="W546">
-        <v>75.085205078125</v>
+        <v>73.654327392578125</v>
       </c>
       <c r="X546">
-        <v>23.8642578125</v>
+        <v>25.091625213623047</v>
       </c>
       <c r="Y546">
-        <v>83.396202087402344</v>
+        <v>83.275993347167969</v>
       </c>
       <c r="Z546">
-        <v>19.087577819824219</v>
+        <v>17.658185958862305</v>
       </c>
       <c r="AA546">
-        <v>3.0540124511718753E-2</v>
+        <v>2.8253097534179688E-2</v>
       </c>
       <c r="AB546">
-        <v>12.013632812500001</v>
+        <v>11.7846923828125</v>
       </c>
     </row>
     <row r="547" spans="1:28" x14ac:dyDescent="0.25">
@@ -28191,25 +26115,28 @@
         <v>32.522744337925857</v>
       </c>
       <c r="U547">
-        <v>20.545780181884766</v>
+        <v>19.289867401123047</v>
       </c>
       <c r="V547">
-        <v>4.0673561096191406</v>
+        <v>7.2551608085632324</v>
       </c>
       <c r="W547">
-        <v>72.137954711914062</v>
+        <v>71.734962463378906</v>
       </c>
       <c r="X547">
-        <v>18.027421951293945</v>
+        <v>25.538110733032227</v>
       </c>
       <c r="Y547">
-        <v>82.286773681640625</v>
+        <v>82.472709655761719</v>
       </c>
       <c r="Z547">
-        <v>20.928741455078125</v>
+        <v>18.584651947021484</v>
+      </c>
+      <c r="AA547">
+        <v>2.9735443115234378E-2</v>
       </c>
       <c r="AB547">
-        <v>11.54207275390625</v>
+        <v>11.477593994140625</v>
       </c>
     </row>
     <row r="548" spans="1:28" x14ac:dyDescent="0.25">
@@ -28235,28 +26162,28 @@
         <v>103.68808449989262</v>
       </c>
       <c r="U548">
-        <v>16.837795257568359</v>
+        <v>16.821365356445313</v>
       </c>
       <c r="V548">
-        <v>7.8245110511779785</v>
+        <v>7.6587119102478027</v>
       </c>
       <c r="W548">
-        <v>77.648033142089844</v>
+        <v>76.845413208007813</v>
       </c>
       <c r="X548">
-        <v>23.226261138916016</v>
+        <v>23.334697723388672</v>
       </c>
       <c r="Y548">
-        <v>84.561874389648438</v>
+        <v>85.323333740234375</v>
       </c>
       <c r="Z548">
-        <v>22.460988998413086</v>
+        <v>21.120601654052734</v>
       </c>
       <c r="AA548">
-        <v>3.5937582397460942E-2</v>
+        <v>3.3792962646484376E-2</v>
       </c>
       <c r="AB548">
-        <v>12.423685302734375</v>
+        <v>12.295266113281251</v>
       </c>
     </row>
     <row r="549" spans="1:28" x14ac:dyDescent="0.25">
@@ -28282,25 +26209,28 @@
         <v>84.652268740616719</v>
       </c>
       <c r="U549">
-        <v>16.931575775146484</v>
+        <v>18.363426208496094</v>
       </c>
       <c r="V549">
-        <v>-1.984900951385498</v>
+        <v>6.0051040649414062</v>
       </c>
       <c r="W549">
-        <v>70.170806884765625</v>
+        <v>75.085205078125</v>
       </c>
       <c r="X549">
-        <v>22.032302856445313</v>
+        <v>23.8642578125</v>
       </c>
       <c r="Y549">
-        <v>78.793426513671875</v>
+        <v>83.396202087402344</v>
       </c>
       <c r="Z549">
-        <v>21.078941345214844</v>
+        <v>19.087577819824219</v>
+      </c>
+      <c r="AA549">
+        <v>3.0540124511718753E-2</v>
       </c>
       <c r="AB549">
-        <v>11.2273291015625</v>
+        <v>12.013632812500001</v>
       </c>
     </row>
     <row r="550" spans="1:28" x14ac:dyDescent="0.25">
@@ -28326,28 +26256,28 @@
         <v>116.64808589543637</v>
       </c>
       <c r="U550">
-        <v>17.606544494628906</v>
+        <v>16.837795257568359</v>
       </c>
       <c r="V550">
-        <v>6.8612408638000488</v>
+        <v>7.8245110511779785</v>
       </c>
       <c r="W550">
-        <v>76.112815856933594</v>
+        <v>77.648033142089844</v>
       </c>
       <c r="X550">
-        <v>24.718250274658203</v>
+        <v>23.226261138916016</v>
       </c>
       <c r="Y550">
-        <v>84.606338500976563</v>
+        <v>84.561874389648438</v>
       </c>
       <c r="Z550">
-        <v>17.958183288574219</v>
+        <v>22.460988998413086</v>
       </c>
       <c r="AA550">
-        <v>2.8733093261718752E-2</v>
+        <v>3.5937582397460942E-2</v>
       </c>
       <c r="AB550">
-        <v>12.178050537109375</v>
+        <v>12.423685302734375</v>
       </c>
     </row>
     <row r="551" spans="1:28" x14ac:dyDescent="0.25">
@@ -28373,25 +26303,28 @@
         <v>59.432135754772347</v>
       </c>
       <c r="U551">
-        <v>20.584064483642578</v>
+        <v>17.606544494628906</v>
       </c>
       <c r="V551">
-        <v>15.375883102416992</v>
+        <v>6.8612408638000488</v>
       </c>
       <c r="W551">
-        <v>76.216522216796875</v>
+        <v>76.112815856933594</v>
       </c>
       <c r="X551">
-        <v>24.788776397705078</v>
+        <v>24.718250274658203</v>
       </c>
       <c r="Y551">
-        <v>86.187774658203125</v>
+        <v>84.606338500976563</v>
       </c>
       <c r="Z551">
-        <v>18.131256103515625</v>
+        <v>17.958183288574219</v>
+      </c>
+      <c r="AA551">
+        <v>2.8733093261718752E-2</v>
       </c>
       <c r="AB551">
-        <v>12.1946435546875</v>
+        <v>12.178050537109375</v>
       </c>
     </row>
     <row r="552" spans="1:28" x14ac:dyDescent="0.25">
@@ -29262,6 +27195,9 @@
       <c r="Z582">
         <v>19.490806579589844</v>
       </c>
+      <c r="AA582">
+        <v>3.1185290527343753E-2</v>
+      </c>
       <c r="AB582">
         <v>11.34281494140625</v>
       </c>
@@ -29306,6 +27242,9 @@
       <c r="Z583">
         <v>20.940792083740234</v>
       </c>
+      <c r="AA583">
+        <v>3.3505267333984373E-2</v>
+      </c>
       <c r="AB583">
         <v>11.870380859375</v>
       </c>
@@ -29350,6 +27289,9 @@
       <c r="Z584">
         <v>26.467351913452148</v>
       </c>
+      <c r="AA584">
+        <v>4.2347763061523436E-2</v>
+      </c>
       <c r="AB584">
         <v>12.40119140625</v>
       </c>
@@ -29394,6 +27336,9 @@
       <c r="Z585">
         <v>23.93989372253418</v>
       </c>
+      <c r="AA585">
+        <v>3.8303829956054691E-2</v>
+      </c>
       <c r="AB585">
         <v>12.588277587890625</v>
       </c>
@@ -29438,6 +27383,9 @@
       <c r="Z586">
         <v>19.527008056640625</v>
       </c>
+      <c r="AA586">
+        <v>3.1243212890624997E-2</v>
+      </c>
       <c r="AB586">
         <v>11.9161962890625</v>
       </c>
@@ -29482,6 +27430,9 @@
       <c r="Z587">
         <v>19.288835525512695</v>
       </c>
+      <c r="AA587">
+        <v>3.0862136840820314E-2</v>
+      </c>
       <c r="AB587">
         <v>11.709716796875</v>
       </c>
@@ -29526,6 +27477,9 @@
       <c r="Z588">
         <v>27.526542663574219</v>
       </c>
+      <c r="AA588">
+        <v>4.4042468261718745E-2</v>
+      </c>
       <c r="AB588">
         <v>12.5932080078125</v>
       </c>
@@ -29570,6 +27524,9 @@
       <c r="Z589">
         <v>21.136373519897461</v>
       </c>
+      <c r="AA589">
+        <v>3.3818197631835939E-2</v>
+      </c>
       <c r="AB589">
         <v>12.124197998046876</v>
       </c>
@@ -29614,6 +27571,9 @@
       <c r="Z590">
         <v>27.159427642822266</v>
       </c>
+      <c r="AA590">
+        <v>4.3455084228515621E-2</v>
+      </c>
       <c r="AB590">
         <v>12.437930908203125</v>
       </c>
@@ -29658,6 +27618,9 @@
       <c r="Z591">
         <v>22.142536163330078</v>
       </c>
+      <c r="AA591">
+        <v>3.5428057861328126E-2</v>
+      </c>
       <c r="AB591">
         <v>11.930396728515625</v>
       </c>
@@ -29702,6 +27665,9 @@
       <c r="Z592">
         <v>24.752496719360352</v>
       </c>
+      <c r="AA592">
+        <v>3.9603994750976562E-2</v>
+      </c>
       <c r="AB592">
         <v>12.0808544921875</v>
       </c>
@@ -29746,6 +27712,9 @@
       <c r="Z593">
         <v>21.245067596435547</v>
       </c>
+      <c r="AA593">
+        <v>3.3992108154296874E-2</v>
+      </c>
       <c r="AB593">
         <v>11.706922607421875</v>
       </c>
@@ -29790,6 +27759,9 @@
       <c r="Z594">
         <v>21.171375274658203</v>
       </c>
+      <c r="AA594">
+        <v>3.3874200439453127E-2</v>
+      </c>
       <c r="AB594">
         <v>11.770689697265626</v>
       </c>
@@ -29834,6 +27806,9 @@
       <c r="Z595">
         <v>21.660009384155273</v>
       </c>
+      <c r="AA595">
+        <v>3.4656015014648441E-2</v>
+      </c>
       <c r="AB595">
         <v>11.698978271484375</v>
       </c>
@@ -29878,6 +27853,9 @@
       <c r="Z596">
         <v>27.097166061401367</v>
       </c>
+      <c r="AA596">
+        <v>4.3355465698242189E-2</v>
+      </c>
       <c r="AB596">
         <v>12.297105712890625</v>
       </c>
@@ -29922,6 +27900,9 @@
       <c r="Z597">
         <v>21.773399353027344</v>
       </c>
+      <c r="AA597">
+        <v>3.4837438964843752E-2</v>
+      </c>
       <c r="AB597">
         <v>11.718427734375</v>
       </c>
@@ -29966,6 +27947,9 @@
       <c r="Z598">
         <v>26.227605819702148</v>
       </c>
+      <c r="AA598">
+        <v>4.1964169311523442E-2</v>
+      </c>
       <c r="AB598">
         <v>12.659483642578126</v>
       </c>
@@ -30010,6 +27994,9 @@
       <c r="Z599">
         <v>21.267765045166016</v>
       </c>
+      <c r="AA599">
+        <v>3.4028424072265626E-2</v>
+      </c>
       <c r="AB599">
         <v>11.890933837890625</v>
       </c>
@@ -30054,6 +28041,9 @@
       <c r="Z600">
         <v>15.477989196777344</v>
       </c>
+      <c r="AA600">
+        <v>2.4764782714843753E-2</v>
+      </c>
       <c r="AB600">
         <v>10.860537109375</v>
       </c>
@@ -30098,6 +28088,9 @@
       <c r="Z601">
         <v>14.700204849243164</v>
       </c>
+      <c r="AA601">
+        <v>2.3520327758789063E-2</v>
+      </c>
       <c r="AB601">
         <v>11.847420654296876</v>
       </c>
@@ -30142,6 +28135,9 @@
       <c r="Z602">
         <v>14.661076545715332</v>
       </c>
+      <c r="AA602">
+        <v>2.3457722473144531E-2</v>
+      </c>
       <c r="AB602">
         <v>12.05075439453125</v>
       </c>
@@ -30186,6 +28182,9 @@
       <c r="Z603">
         <v>14.511233329772949</v>
       </c>
+      <c r="AA603">
+        <v>2.3217973327636719E-2</v>
+      </c>
       <c r="AB603">
         <v>11.860594482421876</v>
       </c>
@@ -30230,6 +28229,9 @@
       <c r="Z604">
         <v>15.401329040527344</v>
       </c>
+      <c r="AA604">
+        <v>2.4642126464843751E-2</v>
+      </c>
       <c r="AB604">
         <v>11.31902099609375</v>
       </c>
@@ -30274,6 +28276,9 @@
       <c r="Z605">
         <v>13.858233451843262</v>
       </c>
+      <c r="AA605">
+        <v>2.2173173522949216E-2</v>
+      </c>
       <c r="AB605">
         <v>11.484783935546876</v>
       </c>
@@ -30318,6 +28323,9 @@
       <c r="Z606">
         <v>18.234394073486328</v>
       </c>
+      <c r="AA606">
+        <v>2.9175030517578127E-2</v>
+      </c>
       <c r="AB606">
         <v>12.383350830078125</v>
       </c>
@@ -30362,6 +28370,9 @@
       <c r="Z607">
         <v>15.714027404785156</v>
       </c>
+      <c r="AA607">
+        <v>2.5142443847656248E-2</v>
+      </c>
       <c r="AB607">
         <v>11.268298339843751</v>
       </c>
@@ -30406,6 +28417,9 @@
       <c r="Z608">
         <v>19.255260467529297</v>
       </c>
+      <c r="AA608">
+        <v>3.0808416748046876E-2</v>
+      </c>
       <c r="AB608">
         <v>12.01412353515625</v>
       </c>
@@ -30450,6 +28464,9 @@
       <c r="Z609">
         <v>17.903387069702148</v>
       </c>
+      <c r="AA609">
+        <v>2.8645419311523437E-2</v>
+      </c>
       <c r="AB609">
         <v>11.52963623046875</v>
       </c>
@@ -30494,6 +28511,9 @@
       <c r="Z610">
         <v>17.784822463989258</v>
       </c>
+      <c r="AA610">
+        <v>2.8455715942382814E-2</v>
+      </c>
       <c r="AB610">
         <v>11.487742919921875</v>
       </c>
@@ -30538,6 +28558,9 @@
       <c r="Z611">
         <v>15.303112983703613</v>
       </c>
+      <c r="AA611">
+        <v>2.4484980773925781E-2</v>
+      </c>
       <c r="AB611">
         <v>10.957636718750001</v>
       </c>
@@ -30582,6 +28605,9 @@
       <c r="Z612">
         <v>14.099146842956543</v>
       </c>
+      <c r="AA612">
+        <v>2.2558634948730467E-2</v>
+      </c>
       <c r="AB612">
         <v>11.669302978515626</v>
       </c>
@@ -30626,6 +28652,9 @@
       <c r="Z613">
         <v>14.705853462219238</v>
       </c>
+      <c r="AA613">
+        <v>2.3529365539550779E-2</v>
+      </c>
       <c r="AB613">
         <v>11.930738525390625</v>
       </c>
@@ -30670,6 +28699,9 @@
       <c r="Z614">
         <v>15.032635688781738</v>
       </c>
+      <c r="AA614">
+        <v>2.4052217102050778E-2</v>
+      </c>
       <c r="AB614">
         <v>12.179547119140626</v>
       </c>
@@ -30714,6 +28746,9 @@
       <c r="Z615">
         <v>13.840527534484863</v>
       </c>
+      <c r="AA615">
+        <v>2.2144844055175784E-2</v>
+      </c>
       <c r="AB615">
         <v>11.6574169921875</v>
       </c>
@@ -30758,6 +28793,9 @@
       <c r="Z616">
         <v>15.947210311889648</v>
       </c>
+      <c r="AA616">
+        <v>2.5515536499023436E-2</v>
+      </c>
       <c r="AB616">
         <v>12.58210205078125</v>
       </c>
@@ -30801,6 +28839,9 @@
       </c>
       <c r="Z617">
         <v>13.777592658996582</v>
+      </c>
+      <c r="AA617">
+        <v>2.2044148254394533E-2</v>
       </c>
       <c r="AB617">
         <v>11.975926513671876</v>

--- a/Prototypes/Plantain/Observed.xlsx
+++ b/Prototypes/Plantain/Observed.xlsx
@@ -845,10 +845,10 @@
   <dimension ref="A1:AI1519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F1478" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1487" sqref="A1487"/>
+      <selection pane="bottomRight" activeCell="K209" sqref="K209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9772,10 +9772,10 @@
         <v>61</v>
       </c>
       <c r="H210">
-        <v>62.625</v>
+        <v>462.625</v>
       </c>
       <c r="I210">
-        <v>6.2625000000000002</v>
+        <v>46.262500000000003</v>
       </c>
       <c r="U210">
         <v>26.400732040405273</v>
@@ -9822,10 +9822,10 @@
         <v>61</v>
       </c>
       <c r="H211">
-        <v>124.25</v>
+        <v>524.25</v>
       </c>
       <c r="I211">
-        <v>12.425000000000001</v>
+        <v>52.424999999999997</v>
       </c>
       <c r="U211">
         <v>23.148944854736328</v>
@@ -9872,10 +9872,10 @@
         <v>61</v>
       </c>
       <c r="H212">
-        <v>248.5</v>
+        <v>648.5</v>
       </c>
       <c r="I212">
-        <v>24.85</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="U212">
         <v>21.873819351196289</v>
@@ -9922,10 +9922,10 @@
         <v>61</v>
       </c>
       <c r="H213">
-        <v>324.875</v>
+        <v>724.875</v>
       </c>
       <c r="I213">
-        <v>32.487499999999997</v>
+        <v>72.487499999999997</v>
       </c>
       <c r="U213">
         <v>20.650505065917969</v>
@@ -9972,10 +9972,10 @@
         <v>61</v>
       </c>
       <c r="H214">
-        <v>177.75</v>
+        <v>577.75</v>
       </c>
       <c r="I214">
-        <v>17.774999999999999</v>
+        <v>57.774999999999999</v>
       </c>
       <c r="U214">
         <v>23.796581268310547</v>
@@ -10022,10 +10022,10 @@
         <v>61</v>
       </c>
       <c r="H215">
-        <v>146.875</v>
+        <v>546.875</v>
       </c>
       <c r="I215">
-        <v>14.6875</v>
+        <v>54.6875</v>
       </c>
       <c r="U215">
         <v>23.547220230102539</v>
@@ -10072,10 +10072,10 @@
         <v>61</v>
       </c>
       <c r="H216">
-        <v>226.5</v>
+        <v>626.5</v>
       </c>
       <c r="I216">
-        <v>22.65</v>
+        <v>62.65</v>
       </c>
       <c r="U216">
         <v>20.135255813598633</v>
@@ -10122,10 +10122,10 @@
         <v>61</v>
       </c>
       <c r="H217">
-        <v>174.375</v>
+        <v>574.375</v>
       </c>
       <c r="I217">
-        <v>17.4375</v>
+        <v>57.4375</v>
       </c>
       <c r="U217">
         <v>22.550617218017578</v>
@@ -10172,10 +10172,10 @@
         <v>61</v>
       </c>
       <c r="H218">
-        <v>209.875</v>
+        <v>609.875</v>
       </c>
       <c r="I218">
-        <v>20.987500000000001</v>
+        <v>60.987499999999997</v>
       </c>
       <c r="U218">
         <v>21.414056777954102</v>
@@ -10222,10 +10222,10 @@
         <v>61</v>
       </c>
       <c r="H219">
-        <v>136.5</v>
+        <v>536.5</v>
       </c>
       <c r="I219">
-        <v>13.65</v>
+        <v>53.65</v>
       </c>
       <c r="U219">
         <v>21.342010498046875</v>
@@ -10272,10 +10272,10 @@
         <v>61</v>
       </c>
       <c r="H220">
-        <v>233</v>
+        <v>633</v>
       </c>
       <c r="I220">
-        <v>23.3</v>
+        <v>63.3</v>
       </c>
       <c r="U220">
         <v>22.295782089233398</v>
@@ -10322,10 +10322,10 @@
         <v>61</v>
       </c>
       <c r="H221">
-        <v>173</v>
+        <v>573</v>
       </c>
       <c r="I221">
-        <v>17.3</v>
+        <v>57.3</v>
       </c>
       <c r="U221">
         <v>22.901821136474609</v>
@@ -10372,10 +10372,10 @@
         <v>61</v>
       </c>
       <c r="H222">
-        <v>278.375</v>
+        <v>678.375</v>
       </c>
       <c r="I222">
-        <v>27.837499999999999</v>
+        <v>67.837500000000006</v>
       </c>
       <c r="U222">
         <v>20.649356842041016</v>
@@ -10422,10 +10422,10 @@
         <v>61</v>
       </c>
       <c r="H223">
-        <v>221.625</v>
+        <v>621.625</v>
       </c>
       <c r="I223">
-        <v>22.162500000000001</v>
+        <v>62.162500000000001</v>
       </c>
       <c r="U223">
         <v>22.303138732910156</v>
@@ -10472,10 +10472,10 @@
         <v>61</v>
       </c>
       <c r="H224">
-        <v>221.125</v>
+        <v>621.125</v>
       </c>
       <c r="I224">
-        <v>22.112500000000001</v>
+        <v>62.112499999999997</v>
       </c>
       <c r="U224">
         <v>20.506156921386719</v>
@@ -10522,10 +10522,10 @@
         <v>61</v>
       </c>
       <c r="H225">
-        <v>388.75</v>
+        <v>788.75</v>
       </c>
       <c r="I225">
-        <v>38.875</v>
+        <v>78.875</v>
       </c>
       <c r="U225">
         <v>25.379058837890625</v>
@@ -10572,10 +10572,10 @@
         <v>61</v>
       </c>
       <c r="H226">
-        <v>845.125</v>
+        <v>1245.125</v>
       </c>
       <c r="I226">
-        <v>84.512500000000003</v>
+        <v>124.5125</v>
       </c>
       <c r="U226">
         <v>24.353496551513672</v>
@@ -10622,10 +10622,10 @@
         <v>61</v>
       </c>
       <c r="H227">
-        <v>290.25</v>
+        <v>690.25</v>
       </c>
       <c r="I227">
-        <v>29.024999999999999</v>
+        <v>69.025000000000006</v>
       </c>
       <c r="U227">
         <v>24.742202758789063</v>
@@ -10672,10 +10672,10 @@
         <v>62</v>
       </c>
       <c r="H228">
-        <v>439.25</v>
+        <v>839.25</v>
       </c>
       <c r="I228">
-        <v>43.924999999999997</v>
+        <v>83.924999999999997</v>
       </c>
       <c r="U228">
         <v>22.571266174316406</v>
@@ -10722,10 +10722,10 @@
         <v>62</v>
       </c>
       <c r="H229">
-        <v>478.75</v>
+        <v>878.75</v>
       </c>
       <c r="I229">
-        <v>47.875</v>
+        <v>87.875</v>
       </c>
       <c r="U229">
         <v>19.276674270629883</v>
@@ -10772,10 +10772,10 @@
         <v>62</v>
       </c>
       <c r="H230">
-        <v>566.375</v>
+        <v>966.375</v>
       </c>
       <c r="I230">
-        <v>56.637500000000003</v>
+        <v>96.637500000000003</v>
       </c>
       <c r="U230">
         <v>17.341087341308594</v>
@@ -10822,10 +10822,10 @@
         <v>62</v>
       </c>
       <c r="H231">
-        <v>576.125</v>
+        <v>976.125</v>
       </c>
       <c r="I231">
-        <v>57.612499999999997</v>
+        <v>97.612499999999997</v>
       </c>
       <c r="U231">
         <v>18.378559112548828</v>
@@ -10872,10 +10872,10 @@
         <v>62</v>
       </c>
       <c r="H232">
-        <v>379.625</v>
+        <v>779.625</v>
       </c>
       <c r="I232">
-        <v>37.962499999999999</v>
+        <v>77.962500000000006</v>
       </c>
       <c r="U232">
         <v>19.524559020996094</v>
@@ -10922,10 +10922,10 @@
         <v>62</v>
       </c>
       <c r="H233">
-        <v>545.25</v>
+        <v>945.25</v>
       </c>
       <c r="I233">
-        <v>54.524999999999999</v>
+        <v>94.525000000000006</v>
       </c>
       <c r="U233">
         <v>24.697391510009766</v>
@@ -10972,10 +10972,10 @@
         <v>62</v>
       </c>
       <c r="H234">
-        <v>876</v>
+        <v>1276</v>
       </c>
       <c r="I234">
-        <v>87.6</v>
+        <v>127.6</v>
       </c>
       <c r="U234">
         <v>18.123012542724609</v>
@@ -11022,10 +11022,10 @@
         <v>62</v>
       </c>
       <c r="H235">
-        <v>393</v>
+        <v>793</v>
       </c>
       <c r="I235">
-        <v>39.299999999999997</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.25">
@@ -11048,10 +11048,10 @@
         <v>62</v>
       </c>
       <c r="H236">
-        <v>528.125</v>
+        <v>928.125</v>
       </c>
       <c r="I236">
-        <v>52.8125</v>
+        <v>92.8125</v>
       </c>
       <c r="U236">
         <v>18.850322723388672</v>
@@ -11098,10 +11098,10 @@
         <v>62</v>
       </c>
       <c r="H237">
-        <v>505.37500000000011</v>
+        <v>905.37500000000011</v>
       </c>
       <c r="I237">
-        <v>50.537500000000009</v>
+        <v>90.537500000000009</v>
       </c>
       <c r="U237">
         <v>20.164098739624023</v>
@@ -11148,10 +11148,10 @@
         <v>62</v>
       </c>
       <c r="H238">
-        <v>674.875</v>
+        <v>1074.875</v>
       </c>
       <c r="I238">
-        <v>67.487499999999997</v>
+        <v>107.4875</v>
       </c>
       <c r="U238">
         <v>18.740419387817383</v>
@@ -11198,10 +11198,10 @@
         <v>62</v>
       </c>
       <c r="H239">
-        <v>251.75</v>
+        <v>651.75</v>
       </c>
       <c r="I239">
-        <v>25.175000000000001</v>
+        <v>65.174999999999997</v>
       </c>
       <c r="U239">
         <v>21.048513412475586</v>
@@ -11248,10 +11248,10 @@
         <v>62</v>
       </c>
       <c r="H240">
-        <v>596.625</v>
+        <v>996.625</v>
       </c>
       <c r="I240">
-        <v>59.662500000000001</v>
+        <v>99.662499999999994</v>
       </c>
       <c r="U240">
         <v>22.900033950805664</v>
@@ -11298,10 +11298,10 @@
         <v>62</v>
       </c>
       <c r="H241">
-        <v>285.25</v>
+        <v>685.25</v>
       </c>
       <c r="I241">
-        <v>28.524999999999999</v>
+        <v>68.525000000000006</v>
       </c>
       <c r="U241">
         <v>20.319797515869141</v>
@@ -11348,10 +11348,10 @@
         <v>62</v>
       </c>
       <c r="H242">
-        <v>471.375</v>
+        <v>871.375</v>
       </c>
       <c r="I242">
-        <v>47.137500000000003</v>
+        <v>87.137500000000003</v>
       </c>
       <c r="U242">
         <v>18.326526641845703</v>
@@ -11398,10 +11398,10 @@
         <v>62</v>
       </c>
       <c r="H243">
-        <v>391</v>
+        <v>791</v>
       </c>
       <c r="I243">
-        <v>39.1</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="U243">
         <v>19.630317687988281</v>
@@ -11448,10 +11448,10 @@
         <v>62</v>
       </c>
       <c r="H244">
-        <v>618.5</v>
+        <v>1018.5</v>
       </c>
       <c r="I244">
-        <v>61.85</v>
+        <v>101.85</v>
       </c>
       <c r="U244">
         <v>17.620277404785156</v>
@@ -11498,10 +11498,10 @@
         <v>62</v>
       </c>
       <c r="H245">
-        <v>399.375</v>
+        <v>799.375</v>
       </c>
       <c r="I245">
-        <v>39.9375</v>
+        <v>79.9375</v>
       </c>
       <c r="U245">
         <v>21.181156158447266</v>
@@ -11548,10 +11548,10 @@
         <v>63</v>
       </c>
       <c r="H246">
-        <v>510.375</v>
+        <v>910.375</v>
       </c>
       <c r="I246">
-        <v>51.037500000000001</v>
+        <v>91.037499999999994</v>
       </c>
       <c r="U246">
         <v>21.888200759887695</v>
@@ -11598,10 +11598,10 @@
         <v>63</v>
       </c>
       <c r="H247">
-        <v>1040.75</v>
+        <v>1440.75</v>
       </c>
       <c r="I247">
-        <v>104.075</v>
+        <v>144.07499999999999</v>
       </c>
       <c r="U247">
         <v>19.746637344360352</v>
@@ -11648,10 +11648,10 @@
         <v>63</v>
       </c>
       <c r="H248">
-        <v>1268.625</v>
+        <v>1668.625</v>
       </c>
       <c r="I248">
-        <v>126.8625</v>
+        <v>166.86250000000001</v>
       </c>
       <c r="U248">
         <v>18.557491302490234</v>
@@ -11698,10 +11698,10 @@
         <v>63</v>
       </c>
       <c r="H249">
-        <v>1318</v>
+        <v>1718</v>
       </c>
       <c r="I249">
-        <v>131.80000000000001</v>
+        <v>171.8</v>
       </c>
       <c r="U249">
         <v>19.320089340209961</v>
@@ -11748,10 +11748,10 @@
         <v>63</v>
       </c>
       <c r="H250">
-        <v>365.625</v>
+        <v>765.625</v>
       </c>
       <c r="I250">
-        <v>36.5625</v>
+        <v>76.5625</v>
       </c>
       <c r="U250">
         <v>20.214420318603516</v>
@@ -11798,10 +11798,10 @@
         <v>63</v>
       </c>
       <c r="H251">
-        <v>530.625</v>
+        <v>930.625</v>
       </c>
       <c r="I251">
-        <v>53.0625</v>
+        <v>93.0625</v>
       </c>
       <c r="U251">
         <v>19.546619415283203</v>
@@ -11848,10 +11848,10 @@
         <v>63</v>
       </c>
       <c r="H252">
-        <v>1421.5</v>
+        <v>1821.5</v>
       </c>
       <c r="I252">
-        <v>142.15</v>
+        <v>182.15</v>
       </c>
       <c r="U252">
         <v>19.22789192199707</v>
@@ -11898,10 +11898,10 @@
         <v>63</v>
       </c>
       <c r="H253">
-        <v>1071.125</v>
+        <v>1471.125</v>
       </c>
       <c r="I253">
-        <v>107.1125</v>
+        <v>147.11250000000001</v>
       </c>
       <c r="U253">
         <v>19.012954711914062</v>
@@ -11948,10 +11948,10 @@
         <v>63</v>
       </c>
       <c r="H254">
-        <v>1608.625</v>
+        <v>2008.625</v>
       </c>
       <c r="I254">
-        <v>160.86250000000001</v>
+        <v>200.86250000000001</v>
       </c>
       <c r="U254">
         <v>19.394535064697266</v>
@@ -11998,10 +11998,10 @@
         <v>63</v>
       </c>
       <c r="H255">
-        <v>1464.125</v>
+        <v>1864.125</v>
       </c>
       <c r="I255">
-        <v>146.41249999999999</v>
+        <v>186.41249999999999</v>
       </c>
       <c r="U255">
         <v>19.320266723632813</v>
@@ -12048,10 +12048,10 @@
         <v>63</v>
       </c>
       <c r="H256">
-        <v>1379.625</v>
+        <v>1779.625</v>
       </c>
       <c r="I256">
-        <v>137.96250000000001</v>
+        <v>177.96250000000001</v>
       </c>
       <c r="U256">
         <v>19.770790100097656</v>
@@ -12098,10 +12098,10 @@
         <v>63</v>
       </c>
       <c r="H257">
-        <v>1126.125</v>
+        <v>1526.125</v>
       </c>
       <c r="I257">
-        <v>112.6125</v>
+        <v>152.61250000000001</v>
       </c>
       <c r="U257">
         <v>19.844314575195313</v>
@@ -12148,10 +12148,10 @@
         <v>63</v>
       </c>
       <c r="H258">
-        <v>1092</v>
+        <v>1492</v>
       </c>
       <c r="I258">
-        <v>109.2</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="U258">
         <v>19.105487823486328</v>
@@ -12198,10 +12198,10 @@
         <v>63</v>
       </c>
       <c r="H259">
-        <v>980.5</v>
+        <v>1380.5</v>
       </c>
       <c r="I259">
-        <v>98.05</v>
+        <v>138.05000000000001</v>
       </c>
       <c r="U259">
         <v>19.353839874267578</v>
@@ -12248,10 +12248,10 @@
         <v>63</v>
       </c>
       <c r="H260">
-        <v>1163</v>
+        <v>1563</v>
       </c>
       <c r="I260">
-        <v>116.3</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="U260">
         <v>19.39324951171875</v>
@@ -12298,10 +12298,10 @@
         <v>63</v>
       </c>
       <c r="H261">
-        <v>1302.125</v>
+        <v>1702.125</v>
       </c>
       <c r="I261">
-        <v>130.21250000000001</v>
+        <v>170.21250000000001</v>
       </c>
       <c r="U261">
         <v>20.463342666625977</v>
@@ -12348,10 +12348,10 @@
         <v>63</v>
       </c>
       <c r="H262">
-        <v>1785.25</v>
+        <v>2185.25</v>
       </c>
       <c r="I262">
-        <v>178.52500000000001</v>
+        <v>218.52500000000001</v>
       </c>
       <c r="U262">
         <v>16.442989349365234</v>
@@ -12398,10 +12398,10 @@
         <v>63</v>
       </c>
       <c r="H263">
-        <v>930.625</v>
+        <v>1330.625</v>
       </c>
       <c r="I263">
-        <v>93.0625</v>
+        <v>133.0625</v>
       </c>
       <c r="U263">
         <v>19.560453414916992</v>
@@ -17248,10 +17248,10 @@
         <v>61</v>
       </c>
       <c r="H360">
-        <v>136.125</v>
+        <v>536.125</v>
       </c>
       <c r="I360">
-        <v>13.612500000000001</v>
+        <v>53.612499999999997</v>
       </c>
       <c r="U360">
         <v>19.363189697265625</v>
@@ -17298,10 +17298,10 @@
         <v>61</v>
       </c>
       <c r="H361">
-        <v>151.875</v>
+        <v>551.875</v>
       </c>
       <c r="I361">
-        <v>15.1875</v>
+        <v>55.1875</v>
       </c>
       <c r="U361">
         <v>20.846580505371094</v>
@@ -17348,10 +17348,10 @@
         <v>61</v>
       </c>
       <c r="H362">
-        <v>275.5</v>
+        <v>675.5</v>
       </c>
       <c r="I362">
-        <v>27.55</v>
+        <v>67.55</v>
       </c>
       <c r="U362">
         <v>19.745090484619141</v>
@@ -17398,10 +17398,10 @@
         <v>61</v>
       </c>
       <c r="H363">
-        <v>236.125</v>
+        <v>636.125</v>
       </c>
       <c r="I363">
-        <v>23.612500000000001</v>
+        <v>63.612499999999997</v>
       </c>
       <c r="U363">
         <v>19.933826446533203</v>
@@ -17448,10 +17448,10 @@
         <v>61</v>
       </c>
       <c r="H364">
-        <v>79.375</v>
+        <v>479.375</v>
       </c>
       <c r="I364">
-        <v>7.9375</v>
+        <v>47.9375</v>
       </c>
       <c r="U364">
         <v>21.304208755493164</v>
@@ -17498,10 +17498,10 @@
         <v>61</v>
       </c>
       <c r="H365">
-        <v>295.625</v>
+        <v>695.625</v>
       </c>
       <c r="I365">
-        <v>29.5625</v>
+        <v>69.5625</v>
       </c>
       <c r="U365">
         <v>20.105375289916992</v>
@@ -17548,10 +17548,10 @@
         <v>61</v>
       </c>
       <c r="H366">
-        <v>301.375</v>
+        <v>701.375</v>
       </c>
       <c r="I366">
-        <v>30.137499999999999</v>
+        <v>70.137500000000003</v>
       </c>
       <c r="U366">
         <v>19.139392852783203</v>
@@ -17598,10 +17598,10 @@
         <v>61</v>
       </c>
       <c r="H367">
-        <v>159.625</v>
+        <v>559.625</v>
       </c>
       <c r="I367">
-        <v>15.9625</v>
+        <v>55.962499999999999</v>
       </c>
       <c r="U367">
         <v>20.868686676025391</v>
@@ -17648,10 +17648,10 @@
         <v>61</v>
       </c>
       <c r="H368">
-        <v>234.875</v>
+        <v>634.875</v>
       </c>
       <c r="I368">
-        <v>23.487500000000001</v>
+        <v>63.487499999999997</v>
       </c>
       <c r="U368">
         <v>19.552951812744141</v>
@@ -17698,10 +17698,10 @@
         <v>61</v>
       </c>
       <c r="H369">
-        <v>212.25</v>
+        <v>612.25</v>
       </c>
       <c r="I369">
-        <v>21.225000000000001</v>
+        <v>61.225000000000001</v>
       </c>
       <c r="U369">
         <v>21.454952239990234</v>
@@ -17748,10 +17748,10 @@
         <v>61</v>
       </c>
       <c r="H370">
-        <v>255.625</v>
+        <v>655.625</v>
       </c>
       <c r="I370">
-        <v>25.5625</v>
+        <v>65.5625</v>
       </c>
       <c r="U370">
         <v>20.894657135009766</v>
@@ -17798,10 +17798,10 @@
         <v>61</v>
       </c>
       <c r="H371">
-        <v>133.125</v>
+        <v>533.125</v>
       </c>
       <c r="I371">
-        <v>13.3125</v>
+        <v>53.3125</v>
       </c>
       <c r="U371">
         <v>20.72991943359375</v>
@@ -17848,10 +17848,10 @@
         <v>61</v>
       </c>
       <c r="H372">
-        <v>426.875</v>
+        <v>826.875</v>
       </c>
       <c r="I372">
-        <v>42.6875</v>
+        <v>82.6875</v>
       </c>
       <c r="U372">
         <v>21.550785064697266</v>
@@ -17898,10 +17898,10 @@
         <v>61</v>
       </c>
       <c r="H373">
-        <v>231.625</v>
+        <v>631.625</v>
       </c>
       <c r="I373">
-        <v>23.162500000000001</v>
+        <v>63.162500000000001</v>
       </c>
       <c r="U373">
         <v>22.251811981201172</v>
@@ -17948,10 +17948,10 @@
         <v>61</v>
       </c>
       <c r="H374">
-        <v>348.625</v>
+        <v>748.625</v>
       </c>
       <c r="I374">
-        <v>34.862499999999997</v>
+        <v>74.862499999999997</v>
       </c>
       <c r="U374">
         <v>22.155685424804688</v>
@@ -17998,10 +17998,10 @@
         <v>61</v>
       </c>
       <c r="H375">
-        <v>64.125</v>
+        <v>464.125</v>
       </c>
       <c r="I375">
-        <v>6.4124999999999996</v>
+        <v>46.412500000000001</v>
       </c>
       <c r="U375">
         <v>20.149831771850586</v>
@@ -18048,10 +18048,10 @@
         <v>61</v>
       </c>
       <c r="H376">
-        <v>276.5</v>
+        <v>676.5</v>
       </c>
       <c r="I376">
-        <v>27.65</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="U376">
         <v>19.663623809814453</v>
@@ -18098,10 +18098,10 @@
         <v>61</v>
       </c>
       <c r="H377">
-        <v>120.625</v>
+        <v>520.625</v>
       </c>
       <c r="I377">
-        <v>12.0625</v>
+        <v>52.0625</v>
       </c>
       <c r="U377">
         <v>20.352630615234375</v>
@@ -18148,10 +18148,10 @@
         <v>62</v>
       </c>
       <c r="H378">
-        <v>1007.4999999999999</v>
+        <v>1407.5</v>
       </c>
       <c r="I378">
-        <v>100.74999999999999</v>
+        <v>140.75</v>
       </c>
       <c r="U378">
         <v>21.028469085693359</v>
@@ -18198,10 +18198,10 @@
         <v>62</v>
       </c>
       <c r="H379">
-        <v>533.875</v>
+        <v>933.875</v>
       </c>
       <c r="I379">
-        <v>53.387500000000003</v>
+        <v>93.387500000000003</v>
       </c>
       <c r="U379">
         <v>20.905948638916016</v>
@@ -18248,10 +18248,10 @@
         <v>62</v>
       </c>
       <c r="H380">
-        <v>2103.375</v>
+        <v>2503.375</v>
       </c>
       <c r="I380">
-        <v>210.33750000000001</v>
+        <v>250.33750000000001</v>
       </c>
       <c r="U380">
         <v>21.376592636108398</v>
@@ -18298,10 +18298,10 @@
         <v>62</v>
       </c>
       <c r="H381">
-        <v>1514.5</v>
+        <v>1914.5</v>
       </c>
       <c r="I381">
-        <v>151.44999999999999</v>
+        <v>191.45</v>
       </c>
       <c r="U381">
         <v>18.526302337646484</v>
@@ -18348,10 +18348,10 @@
         <v>62</v>
       </c>
       <c r="H382">
-        <v>963.25</v>
+        <v>1363.25</v>
       </c>
       <c r="I382">
-        <v>96.325000000000003</v>
+        <v>136.32499999999999</v>
       </c>
       <c r="U382">
         <v>22.064830780029297</v>
@@ -18398,10 +18398,10 @@
         <v>62</v>
       </c>
       <c r="H383">
-        <v>999.625</v>
+        <v>1399.625</v>
       </c>
       <c r="I383">
-        <v>99.962500000000006</v>
+        <v>139.96250000000001</v>
       </c>
       <c r="U383">
         <v>22.527065277099609</v>
@@ -18448,10 +18448,10 @@
         <v>62</v>
       </c>
       <c r="H384">
-        <v>1917</v>
+        <v>2317</v>
       </c>
       <c r="I384">
-        <v>191.7</v>
+        <v>231.7</v>
       </c>
       <c r="U384">
         <v>17.93621826171875</v>
@@ -18498,10 +18498,10 @@
         <v>62</v>
       </c>
       <c r="H385">
-        <v>843.875</v>
+        <v>1243.875</v>
       </c>
       <c r="I385">
-        <v>84.387500000000003</v>
+        <v>124.3875</v>
       </c>
       <c r="U385">
         <v>21.747386932373047</v>
@@ -18548,10 +18548,10 @@
         <v>62</v>
       </c>
       <c r="H386">
-        <v>1446</v>
+        <v>1846</v>
       </c>
       <c r="I386">
-        <v>144.6</v>
+        <v>184.6</v>
       </c>
       <c r="U386">
         <v>19.365476608276367</v>
@@ -18598,10 +18598,10 @@
         <v>62</v>
       </c>
       <c r="H387">
-        <v>1022.375</v>
+        <v>1422.375</v>
       </c>
       <c r="I387">
-        <v>102.2375</v>
+        <v>142.23750000000001</v>
       </c>
       <c r="U387">
         <v>20.797229766845703</v>
@@ -18648,10 +18648,10 @@
         <v>62</v>
       </c>
       <c r="H388">
-        <v>1583.25</v>
+        <v>1983.25</v>
       </c>
       <c r="I388">
-        <v>158.32499999999999</v>
+        <v>198.32499999999999</v>
       </c>
       <c r="U388">
         <v>20.983640670776367</v>
@@ -18698,10 +18698,10 @@
         <v>62</v>
       </c>
       <c r="H389">
-        <v>981</v>
+        <v>1381</v>
       </c>
       <c r="I389">
-        <v>98.1</v>
+        <v>138.1</v>
       </c>
       <c r="U389">
         <v>21.501506805419922</v>
@@ -18748,10 +18748,10 @@
         <v>62</v>
       </c>
       <c r="H390">
-        <v>903.5</v>
+        <v>1303.5</v>
       </c>
       <c r="I390">
-        <v>90.35</v>
+        <v>130.35</v>
       </c>
       <c r="U390">
         <v>21.703550338745117</v>
@@ -18798,10 +18798,10 @@
         <v>62</v>
       </c>
       <c r="H391">
-        <v>663.75</v>
+        <v>1063.75</v>
       </c>
       <c r="I391">
-        <v>66.375</v>
+        <v>106.375</v>
       </c>
       <c r="U391">
         <v>22.45013427734375</v>
@@ -18848,10 +18848,10 @@
         <v>62</v>
       </c>
       <c r="H392">
-        <v>1569.25</v>
+        <v>1969.25</v>
       </c>
       <c r="I392">
-        <v>156.92500000000001</v>
+        <v>196.92500000000001</v>
       </c>
       <c r="U392">
         <v>22.191417694091797</v>
@@ -18898,10 +18898,10 @@
         <v>62</v>
       </c>
       <c r="H393">
-        <v>1236.875</v>
+        <v>1636.875</v>
       </c>
       <c r="I393">
-        <v>123.6875</v>
+        <v>163.6875</v>
       </c>
       <c r="U393">
         <v>21.588232040405273</v>
@@ -18948,10 +18948,10 @@
         <v>62</v>
       </c>
       <c r="H394">
-        <v>1742.125</v>
+        <v>2142.125</v>
       </c>
       <c r="I394">
-        <v>174.21250000000001</v>
+        <v>214.21250000000001</v>
       </c>
       <c r="U394">
         <v>18.798074722290039</v>
@@ -18998,10 +18998,10 @@
         <v>62</v>
       </c>
       <c r="H395">
-        <v>1307.125</v>
+        <v>1707.125</v>
       </c>
       <c r="I395">
-        <v>130.71250000000001</v>
+        <v>170.71250000000001</v>
       </c>
       <c r="U395">
         <v>20.794073104858398</v>
@@ -24682,10 +24682,10 @@
         <v>85</v>
       </c>
       <c r="H516">
-        <v>523.75</v>
+        <v>923.75</v>
       </c>
       <c r="I516">
-        <v>52.375</v>
+        <v>92.375</v>
       </c>
       <c r="U516">
         <v>23.346094131469727</v>
@@ -24729,10 +24729,10 @@
         <v>85</v>
       </c>
       <c r="H517">
-        <v>900.75</v>
+        <v>1300.75</v>
       </c>
       <c r="I517">
-        <v>90.075000000000003</v>
+        <v>130.07499999999999</v>
       </c>
       <c r="U517">
         <v>19.541614532470703</v>
@@ -24776,10 +24776,10 @@
         <v>85</v>
       </c>
       <c r="H518">
-        <v>1044.75</v>
+        <v>1444.75</v>
       </c>
       <c r="I518">
-        <v>104.47499999999999</v>
+        <v>144.47499999999999</v>
       </c>
       <c r="U518">
         <v>16.759342193603516</v>
@@ -24823,10 +24823,10 @@
         <v>85</v>
       </c>
       <c r="H519">
-        <v>1041</v>
+        <v>1441</v>
       </c>
       <c r="I519">
-        <v>104.1</v>
+        <v>144.1</v>
       </c>
       <c r="U519">
         <v>19.566349029541016</v>
@@ -24870,10 +24870,10 @@
         <v>85</v>
       </c>
       <c r="H520">
-        <v>394.75</v>
+        <v>794.75</v>
       </c>
       <c r="I520">
-        <v>39.475000000000001</v>
+        <v>79.474999999999994</v>
       </c>
       <c r="U520">
         <v>20.142532348632812</v>
@@ -24917,10 +24917,10 @@
         <v>85</v>
       </c>
       <c r="H521">
-        <v>451.875</v>
+        <v>851.875</v>
       </c>
       <c r="I521">
-        <v>45.1875</v>
+        <v>85.1875</v>
       </c>
       <c r="U521">
         <v>19.89710807800293</v>
@@ -24964,10 +24964,10 @@
         <v>85</v>
       </c>
       <c r="H522">
-        <v>1146</v>
+        <v>1546</v>
       </c>
       <c r="I522">
-        <v>114.6</v>
+        <v>154.6</v>
       </c>
       <c r="U522">
         <v>17.206214904785156</v>
@@ -25011,10 +25011,10 @@
         <v>85</v>
       </c>
       <c r="H523">
-        <v>710</v>
+        <v>1110</v>
       </c>
       <c r="I523">
-        <v>71</v>
+        <v>111</v>
       </c>
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.25">
@@ -25034,10 +25034,10 @@
         <v>85</v>
       </c>
       <c r="H524">
-        <v>1043.75</v>
+        <v>1443.75</v>
       </c>
       <c r="I524">
-        <v>104.375</v>
+        <v>144.375</v>
       </c>
       <c r="U524">
         <v>19.390880584716797</v>
@@ -25081,10 +25081,10 @@
         <v>85</v>
       </c>
       <c r="H525">
-        <v>680.5</v>
+        <v>1080.5</v>
       </c>
       <c r="I525">
-        <v>68.05</v>
+        <v>108.05</v>
       </c>
       <c r="U525">
         <v>19.467626571655273</v>
@@ -25128,10 +25128,10 @@
         <v>85</v>
       </c>
       <c r="H526">
-        <v>911.5</v>
+        <v>1311.5</v>
       </c>
       <c r="I526">
-        <v>91.15</v>
+        <v>131.15</v>
       </c>
       <c r="U526">
         <v>19.182683944702148</v>
@@ -25175,10 +25175,10 @@
         <v>85</v>
       </c>
       <c r="H527">
-        <v>473.375</v>
+        <v>873.375</v>
       </c>
       <c r="I527">
-        <v>47.337499999999999</v>
+        <v>87.337500000000006</v>
       </c>
       <c r="U527">
         <v>20.558544158935547</v>
@@ -25222,10 +25222,10 @@
         <v>85</v>
       </c>
       <c r="H528">
-        <v>666</v>
+        <v>1066</v>
       </c>
       <c r="I528">
-        <v>66.599999999999994</v>
+        <v>106.6</v>
       </c>
       <c r="U528">
         <v>19.539247512817383</v>
@@ -25269,10 +25269,10 @@
         <v>85</v>
       </c>
       <c r="H529">
-        <v>735.25</v>
+        <v>1135.25</v>
       </c>
       <c r="I529">
-        <v>73.525000000000006</v>
+        <v>113.52500000000001</v>
       </c>
       <c r="U529">
         <v>20.711856842041016</v>
@@ -25316,10 +25316,10 @@
         <v>85</v>
       </c>
       <c r="H530">
-        <v>879.5</v>
+        <v>1279.5</v>
       </c>
       <c r="I530">
-        <v>87.95</v>
+        <v>127.95</v>
       </c>
       <c r="U530">
         <v>20.207330703735352</v>
@@ -25363,10 +25363,10 @@
         <v>85</v>
       </c>
       <c r="H531">
-        <v>800.125</v>
+        <v>1200.125</v>
       </c>
       <c r="I531">
-        <v>80.012500000000003</v>
+        <v>120.0125</v>
       </c>
       <c r="U531">
         <v>20.545780181884766</v>
@@ -25410,10 +25410,10 @@
         <v>85</v>
       </c>
       <c r="H532">
-        <v>1361.375</v>
+        <v>1761.375</v>
       </c>
       <c r="I532">
-        <v>136.13749999999999</v>
+        <v>176.13749999999999</v>
       </c>
       <c r="U532">
         <v>16.931575775146484</v>
@@ -25457,10 +25457,10 @@
         <v>85</v>
       </c>
       <c r="H533">
-        <v>402</v>
+        <v>802</v>
       </c>
       <c r="I533">
-        <v>40.200000000000003</v>
+        <v>80.2</v>
       </c>
       <c r="U533">
         <v>20.584064483642578</v>

--- a/Prototypes/Plantain/Observed.xlsx
+++ b/Prototypes/Plantain/Observed.xlsx
@@ -309,16 +309,16 @@
     <t>Eval</t>
   </si>
   <si>
-    <t>RELARC_02CultivarsLancelot</t>
-  </si>
-  <si>
-    <t>RELARC_02CultivarsTonic</t>
-  </si>
-  <si>
     <t>No1FarmFD902GrazeFrequency2wks</t>
   </si>
   <si>
     <t>No1FarmFD902GrazeFrequency4wks</t>
+  </si>
+  <si>
+    <t>RELARC_02CultivarLancelot</t>
+  </si>
+  <si>
+    <t>RELARC_02CultivarTonic</t>
   </si>
 </sst>
 </file>
@@ -845,10 +845,10 @@
   <dimension ref="A1:AI1519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K209" sqref="K209"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1001,7 @@
         <v>45</v>
       </c>
       <c r="J2">
-        <v>160.1</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>115.6</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="J4">
-        <v>160.1</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>45</v>
       </c>
       <c r="J5">
-        <v>115.6</v>
+        <v>143.9</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="J6">
-        <v>73.7</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>45</v>
       </c>
       <c r="J7">
-        <v>42.6</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>45</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>45</v>
       </c>
       <c r="J9">
-        <v>257.7</v>
+        <v>226.9</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>45</v>
       </c>
       <c r="J10">
-        <v>257.7</v>
+        <v>226.9</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -1154,7 +1154,7 @@
         <v>45</v>
       </c>
       <c r="J11">
-        <v>148.1</v>
+        <v>257.5</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="J12">
-        <v>63.9</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>45</v>
       </c>
       <c r="J13">
-        <v>69.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>45</v>
       </c>
       <c r="J14">
-        <v>149.4</v>
+        <v>134.30000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>45</v>
       </c>
       <c r="J15">
-        <v>107.9</v>
+        <v>134.30000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>45</v>
       </c>
       <c r="J16">
-        <v>149.4</v>
+        <v>134.30000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="J17">
-        <v>107.9</v>
+        <v>134.30000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>45</v>
       </c>
       <c r="J18">
-        <v>68.8</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>45</v>
       </c>
       <c r="J19">
-        <v>39.799999999999997</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>45</v>
       </c>
       <c r="J20">
-        <v>32.700000000000003</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="J21">
-        <v>240.5</v>
+        <v>211.8</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1341,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="J22">
-        <v>240.5</v>
+        <v>211.8</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>45</v>
       </c>
       <c r="J23">
-        <v>138.19999999999999</v>
+        <v>240.4</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>45</v>
       </c>
       <c r="J24">
-        <v>59.6</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1392,12 +1392,12 @@
         <v>45</v>
       </c>
       <c r="J25">
-        <v>65.099999999999994</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>92</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
@@ -1426,12 +1426,12 @@
         <v>45</v>
       </c>
       <c r="J27">
-        <v>183.5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
@@ -1443,12 +1443,12 @@
         <v>45</v>
       </c>
       <c r="J28">
-        <v>156.9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>92</v>
@@ -1460,12 +1460,12 @@
         <v>45</v>
       </c>
       <c r="J29">
-        <v>112.5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>92</v>
@@ -1477,12 +1477,12 @@
         <v>45</v>
       </c>
       <c r="J30">
-        <v>64.400000000000006</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>92</v>
@@ -1494,12 +1494,12 @@
         <v>45</v>
       </c>
       <c r="J31">
-        <v>32.700000000000003</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>92</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>92</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>92</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>92</v>
@@ -1562,12 +1562,12 @@
         <v>45</v>
       </c>
       <c r="J35">
-        <v>166.8</v>
+        <v>138.19999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>92</v>
@@ -1579,12 +1579,12 @@
         <v>45</v>
       </c>
       <c r="J36">
-        <v>142.69999999999999</v>
+        <v>138.19999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
         <v>92</v>
@@ -1596,12 +1596,12 @@
         <v>45</v>
       </c>
       <c r="J37">
-        <v>102.2</v>
+        <v>138.19999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1613,12 +1613,12 @@
         <v>45</v>
       </c>
       <c r="J38">
-        <v>58.6</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
@@ -1630,12 +1630,12 @@
         <v>45</v>
       </c>
       <c r="J39">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
         <v>92</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>92</v>
@@ -55675,7 +55675,7 @@
     </row>
     <row r="1488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1488" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1488" t="s">
         <v>55</v>
@@ -55698,7 +55698,7 @@
     </row>
     <row r="1489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1489" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1489" t="s">
         <v>55</v>
@@ -55718,7 +55718,7 @@
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1490" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1490" t="s">
         <v>55</v>
@@ -55741,7 +55741,7 @@
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1491" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1491" t="s">
         <v>55</v>
@@ -55761,7 +55761,7 @@
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1492" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1492" t="s">
         <v>55</v>
@@ -55784,7 +55784,7 @@
     </row>
     <row r="1493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1493" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1493" t="s">
         <v>55</v>
@@ -55804,7 +55804,7 @@
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1494" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1494" t="s">
         <v>55</v>
@@ -55827,7 +55827,7 @@
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1495" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1495" t="s">
         <v>55</v>
@@ -55847,7 +55847,7 @@
     </row>
     <row r="1496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1496" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1496" t="s">
         <v>55</v>
@@ -55870,7 +55870,7 @@
     </row>
     <row r="1497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1497" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1497" t="s">
         <v>55</v>
@@ -55890,7 +55890,7 @@
     </row>
     <row r="1498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1498" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1498" t="s">
         <v>55</v>
@@ -55913,7 +55913,7 @@
     </row>
     <row r="1499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1499" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1499" t="s">
         <v>55</v>
@@ -55933,7 +55933,7 @@
     </row>
     <row r="1500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1500" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1500" t="s">
         <v>55</v>
@@ -55956,7 +55956,7 @@
     </row>
     <row r="1501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1501" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1501" t="s">
         <v>55</v>
@@ -55976,7 +55976,7 @@
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1502" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1502" t="s">
         <v>55</v>
@@ -55999,7 +55999,7 @@
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1503" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1503" t="s">
         <v>55</v>
@@ -56019,7 +56019,7 @@
     </row>
     <row r="1504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1504" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1504" t="s">
         <v>55</v>
@@ -56042,7 +56042,7 @@
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1505" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1505" t="s">
         <v>55</v>
@@ -56062,7 +56062,7 @@
     </row>
     <row r="1506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1506" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1506" t="s">
         <v>55</v>
@@ -56085,7 +56085,7 @@
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1507" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1507" t="s">
         <v>55</v>
@@ -56105,7 +56105,7 @@
     </row>
     <row r="1508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1508" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1508" t="s">
         <v>55</v>
@@ -56128,7 +56128,7 @@
     </row>
     <row r="1509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1509" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1509" t="s">
         <v>55</v>
@@ -56148,7 +56148,7 @@
     </row>
     <row r="1510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1510" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1510" t="s">
         <v>55</v>
@@ -56171,7 +56171,7 @@
     </row>
     <row r="1511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1511" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1511" t="s">
         <v>55</v>
@@ -56191,7 +56191,7 @@
     </row>
     <row r="1512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1512" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1512" t="s">
         <v>55</v>
@@ -56214,7 +56214,7 @@
     </row>
     <row r="1513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1513" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1513" t="s">
         <v>55</v>
@@ -56234,7 +56234,7 @@
     </row>
     <row r="1514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1514" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1514" t="s">
         <v>55</v>
@@ -56257,7 +56257,7 @@
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1515" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1515" t="s">
         <v>55</v>
@@ -56277,7 +56277,7 @@
     </row>
     <row r="1516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1516" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1516" t="s">
         <v>55</v>
@@ -56300,7 +56300,7 @@
     </row>
     <row r="1517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1517" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1517" t="s">
         <v>55</v>
@@ -56320,7 +56320,7 @@
     </row>
     <row r="1518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1518" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1518" t="s">
         <v>55</v>
@@ -56343,7 +56343,7 @@
     </row>
     <row r="1519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1519" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1519" t="s">
         <v>55</v>
